--- a/VIDA2/data/RIO DE JANEIRO.xlsx
+++ b/VIDA2/data/RIO DE JANEIRO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G344"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>3300456005001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3300456005001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1.966</v>
+        <v>14.792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.696</v>
+        <v>135.7196322331294</v>
       </c>
       <c r="E2" t="n">
-        <v>14.792</v>
-      </c>
-      <c r="F2" t="n">
-        <v>135.7196322331294</v>
-      </c>
-      <c r="G2" t="n">
         <v>48.19939031743439</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>3300456005002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3300456005002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1.512</v>
+        <v>12.172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5659999999999999</v>
+        <v>131.8449245596439</v>
       </c>
       <c r="E3" t="n">
-        <v>12.172</v>
-      </c>
-      <c r="F3" t="n">
-        <v>131.8449245596439</v>
-      </c>
-      <c r="G3" t="n">
         <v>49.75702291307353</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3300456005003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3300456005003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1.406</v>
+        <v>11.92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.494</v>
+        <v>124.6359153316584</v>
       </c>
       <c r="E4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>124.6359153316584</v>
-      </c>
-      <c r="G4" t="n">
         <v>44.17171843464414</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3300456005004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3300456005004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1.25</v>
+        <v>9.304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.424</v>
+        <v>137.4767560698675</v>
       </c>
       <c r="E5" t="n">
-        <v>9.304</v>
-      </c>
-      <c r="F5" t="n">
-        <v>137.4767560698675</v>
-      </c>
-      <c r="G5" t="n">
         <v>47.16045477570243</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>3300456005005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3300456005005</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1.6</v>
+        <v>12.688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.522</v>
+        <v>129.4916703326287</v>
       </c>
       <c r="E6" t="n">
-        <v>12.688</v>
-      </c>
-      <c r="F6" t="n">
-        <v>129.4916703326287</v>
-      </c>
-      <c r="G6" t="n">
         <v>44.05860695376174</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>3301702005000</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3301702005000</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>4.336</v>
+        <v>33.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.55</v>
+        <v>130.8576500354792</v>
       </c>
       <c r="E7" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>130.8576500354792</v>
-      </c>
-      <c r="G7" t="n">
         <v>47.2695046728284</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>3301702005001</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3301702005001</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3860369609856263</v>
+        <v>3.326488706365503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1437371663244353</v>
+        <v>124.1175320230761</v>
       </c>
       <c r="E8" t="n">
-        <v>3.326488706365503</v>
-      </c>
-      <c r="F8" t="n">
-        <v>124.1175320230761</v>
-      </c>
-      <c r="G8" t="n">
         <v>44.65467227274208</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>3301702005002</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3301702005002</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4244306418219462</v>
+        <v>3.695652173913044</v>
       </c>
       <c r="D9" t="n">
-        <v>0.15527950310559</v>
+        <v>133.9823852246213</v>
       </c>
       <c r="E9" t="n">
-        <v>3.695652173913044</v>
-      </c>
-      <c r="F9" t="n">
-        <v>133.9823852246213</v>
-      </c>
-      <c r="G9" t="n">
         <v>50.19060764402381</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>3301702005003</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3301702005003</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4380165289256198</v>
+        <v>3.743801652892562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1363636363636363</v>
+        <v>131.8329397874853</v>
       </c>
       <c r="E10" t="n">
-        <v>3.743801652892562</v>
-      </c>
-      <c r="F10" t="n">
-        <v>131.8329397874853</v>
-      </c>
-      <c r="G10" t="n">
         <v>35.59458218549128</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>3301702005004</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3301702005004</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.505091649694501</v>
+        <v>4.34826883910387</v>
       </c>
       <c r="D11" t="n">
-        <v>0.185336048879837</v>
+        <v>140.1853125376547</v>
       </c>
       <c r="E11" t="n">
-        <v>4.34826883910387</v>
-      </c>
-      <c r="F11" t="n">
-        <v>140.1853125376547</v>
-      </c>
-      <c r="G11" t="n">
         <v>49.96282287524649</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>3301702005005</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3301702005005</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4428274428274428</v>
+        <v>3.681912681912682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1600831600831601</v>
+        <v>137.8394878394878</v>
       </c>
       <c r="E12" t="n">
-        <v>3.681912681912682</v>
-      </c>
-      <c r="F12" t="n">
-        <v>137.8394878394878</v>
-      </c>
-      <c r="G12" t="n">
         <v>51.43632643632643</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>3301702005006</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3301702005006</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4168421052631579</v>
+        <v>3.368421052631579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1431578947368421</v>
+        <v>147.1528822055138</v>
       </c>
       <c r="E13" t="n">
-        <v>3.368421052631579</v>
-      </c>
-      <c r="F13" t="n">
-        <v>147.1528822055138</v>
-      </c>
-      <c r="G13" t="n">
         <v>49.734335839599</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>3301702005007</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3301702005007</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4180327868852459</v>
+        <v>3.461065573770492</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1454918032786885</v>
+        <v>138.0236794171221</v>
       </c>
       <c r="E14" t="n">
-        <v>3.461065573770492</v>
-      </c>
-      <c r="F14" t="n">
-        <v>138.0236794171221</v>
-      </c>
-      <c r="G14" t="n">
         <v>53.47628805620607</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>3301702005008</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3301702005008</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3858921161825726</v>
+        <v>3.392116182572614</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1182572614107883</v>
+        <v>143.9093064611737</v>
       </c>
       <c r="E15" t="n">
-        <v>3.392116182572614</v>
-      </c>
-      <c r="F15" t="n">
-        <v>143.9093064611737</v>
-      </c>
-      <c r="G15" t="n">
         <v>44.22544951590595</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>3301702005009</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3301702005009</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>0.470954356846473</v>
+        <v>4.016597510373444</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1618257261410788</v>
+        <v>134.5641506948561</v>
       </c>
       <c r="E16" t="n">
-        <v>4.016597510373444</v>
-      </c>
-      <c r="F16" t="n">
-        <v>134.5641506948561</v>
-      </c>
-      <c r="G16" t="n">
         <v>43.8607323980768</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>3301702005010</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3301702005010</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4288659793814433</v>
+        <v>3.575257731958763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1608247422680412</v>
+        <v>137.6599574537719</v>
       </c>
       <c r="E17" t="n">
-        <v>3.575257731958763</v>
-      </c>
-      <c r="F17" t="n">
-        <v>137.6599574537719</v>
-      </c>
-      <c r="G17" t="n">
         <v>46.15202094583538</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>3301702005011</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3301702005011</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>0.465979381443299</v>
+        <v>4.189690721649485</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1525773195876288</v>
+        <v>122.767959417444</v>
       </c>
       <c r="E18" t="n">
-        <v>4.189690721649485</v>
-      </c>
-      <c r="F18" t="n">
-        <v>122.767959417444</v>
-      </c>
-      <c r="G18" t="n">
         <v>49.73163148420878</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>3301702005012</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3301702005012</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>0.470954356846473</v>
+        <v>3.784232365145228</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1431535269709543</v>
+        <v>131.443884607785</v>
       </c>
       <c r="E19" t="n">
-        <v>3.784232365145228</v>
-      </c>
-      <c r="F19" t="n">
-        <v>131.443884607785</v>
-      </c>
-      <c r="G19" t="n">
         <v>39.45942830797603</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>3301702005013</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3301702005013</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4</v>
+        <v>3.547916666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1416666666666666</v>
+        <v>118.4358465608466</v>
       </c>
       <c r="E20" t="n">
-        <v>3.547916666666667</v>
-      </c>
-      <c r="F20" t="n">
-        <v>118.4358465608466</v>
-      </c>
-      <c r="G20" t="n">
         <v>42.8166335978836</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>3301702005014</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3301702005014</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4528301886792453</v>
+        <v>3.59538784067086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1635220125786163</v>
+        <v>148.5824099031646</v>
       </c>
       <c r="E21" t="n">
-        <v>3.59538784067086</v>
-      </c>
-      <c r="F21" t="n">
-        <v>148.5824099031646</v>
-      </c>
-      <c r="G21" t="n">
         <v>46.46850354397524</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>3301702005015</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3301702005015</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4623217922606925</v>
+        <v>3.822810590631365</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1466395112016293</v>
+        <v>138.6238732980077</v>
       </c>
       <c r="E22" t="n">
-        <v>3.822810590631365</v>
-      </c>
-      <c r="F22" t="n">
-        <v>138.6238732980077</v>
-      </c>
-      <c r="G22" t="n">
         <v>38.39184689490189</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>3301702005016</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3301702005016</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3720930232558139</v>
+        <v>3.54122621564482</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1226215644820296</v>
+        <v>131.4440081881942</v>
       </c>
       <c r="E23" t="n">
-        <v>3.54122621564482</v>
-      </c>
-      <c r="F23" t="n">
-        <v>131.4440081881942</v>
-      </c>
-      <c r="G23" t="n">
         <v>40.25974025974026</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>3301702005017</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3301702005017</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>0.384297520661157</v>
+        <v>3.68801652892562</v>
       </c>
       <c r="D24" t="n">
-        <v>0.128099173553719</v>
+        <v>103.4697625606717</v>
       </c>
       <c r="E24" t="n">
-        <v>3.68801652892562</v>
-      </c>
-      <c r="F24" t="n">
-        <v>103.4697625606717</v>
-      </c>
-      <c r="G24" t="n">
         <v>32.96766364948183</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>3301702005018</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3301702005018</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4206185567010309</v>
+        <v>3.606185567010309</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1463917525773196</v>
+        <v>130.6774668630338</v>
       </c>
       <c r="E25" t="n">
-        <v>3.606185567010309</v>
-      </c>
-      <c r="F25" t="n">
-        <v>130.6774668630338</v>
-      </c>
-      <c r="G25" t="n">
         <v>45.73392243495336</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>3301702005019</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3301702005019</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4596273291925465</v>
+        <v>3.836438923395445</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1677018633540372</v>
+        <v>135.4038013975903</v>
       </c>
       <c r="E26" t="n">
-        <v>3.836438923395445</v>
-      </c>
-      <c r="F26" t="n">
-        <v>135.4038013975903</v>
-      </c>
-      <c r="G26" t="n">
         <v>48.15561709971647</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>3301702005020</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3301702005020</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4221311475409836</v>
+        <v>3.706967213114754</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1618852459016393</v>
+        <v>123.7086911267239</v>
       </c>
       <c r="E27" t="n">
-        <v>3.706967213114754</v>
-      </c>
-      <c r="F27" t="n">
-        <v>123.7086911267239</v>
-      </c>
-      <c r="G27" t="n">
         <v>48.9680913348946</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>3301702005021</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3301702005021</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4100418410041841</v>
+        <v>3.4581589958159</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1569037656903765</v>
+        <v>139.0408115826526</v>
       </c>
       <c r="E28" t="n">
-        <v>3.4581589958159</v>
-      </c>
-      <c r="F28" t="n">
-        <v>139.0408115826526</v>
-      </c>
-      <c r="G28" t="n">
         <v>56.37660224480307</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>3301702005022</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3301702005022</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5071574642126789</v>
+        <v>3.830265848670757</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1717791411042944</v>
+        <v>150.6881552893823</v>
       </c>
       <c r="E29" t="n">
-        <v>3.830265848670757</v>
-      </c>
-      <c r="F29" t="n">
-        <v>150.6881552893823</v>
-      </c>
-      <c r="G29" t="n">
         <v>50.95838608108546</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>3301850003001</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3301850003001</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2753623188405797</v>
+        <v>2.509661835748792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1062801932367149</v>
+        <v>123.2286634460548</v>
       </c>
       <c r="E30" t="n">
-        <v>2.509661835748792</v>
-      </c>
-      <c r="F30" t="n">
-        <v>123.2286634460548</v>
-      </c>
-      <c r="G30" t="n">
         <v>53.14009661835748</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>3301850003002</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3301850003002</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5580448065173116</v>
+        <v>4.562118126272912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2097759674134419</v>
+        <v>137.3284782653418</v>
       </c>
       <c r="E31" t="n">
-        <v>4.562118126272912</v>
-      </c>
-      <c r="F31" t="n">
-        <v>137.3284782653418</v>
-      </c>
-      <c r="G31" t="n">
         <v>48.25363028010686</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>3301900005001</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3301900005001</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3020134228187919</v>
+        <v>2.536912751677852</v>
       </c>
       <c r="D32" t="n">
-        <v>0.116331096196868</v>
+        <v>152.0879940343028</v>
       </c>
       <c r="E32" t="n">
-        <v>2.536912751677852</v>
-      </c>
-      <c r="F32" t="n">
-        <v>152.0879940343028</v>
-      </c>
-      <c r="G32" t="n">
         <v>54.77255779269201</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>3301900005002</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3301900005002</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2930232558139535</v>
+        <v>2.567441860465116</v>
       </c>
       <c r="D33" t="n">
-        <v>0.113953488372093</v>
+        <v>123.8981173864895</v>
       </c>
       <c r="E33" t="n">
-        <v>2.567441860465116</v>
-      </c>
-      <c r="F33" t="n">
-        <v>123.8981173864895</v>
-      </c>
-      <c r="G33" t="n">
         <v>44.98338870431893</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>3301900005003</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3301900005003</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0.234256926952141</v>
+        <v>2.236775818639798</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07304785894206541</v>
+        <v>114.5915797049299</v>
       </c>
       <c r="E34" t="n">
-        <v>2.236775818639798</v>
-      </c>
-      <c r="F34" t="n">
-        <v>114.5915797049299</v>
-      </c>
-      <c r="G34" t="n">
         <v>33.6272040302267</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>3301900005004</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3301900005004</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1859903381642512</v>
+        <v>2.243961352657005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0845410628019323</v>
+        <v>98.79227053140094</v>
       </c>
       <c r="E35" t="n">
-        <v>2.243961352657005</v>
-      </c>
-      <c r="F35" t="n">
-        <v>98.79227053140094</v>
-      </c>
-      <c r="G35" t="n">
         <v>42.7536231884058</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>3301900005005</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3301900005005</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2784222737819025</v>
+        <v>2.412993039443156</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1160092807424593</v>
+        <v>140.8932714617169</v>
       </c>
       <c r="E36" t="n">
-        <v>2.412993039443156</v>
-      </c>
-      <c r="F36" t="n">
-        <v>140.8932714617169</v>
-      </c>
-      <c r="G36" t="n">
         <v>65.08120649651971</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>3301900005006</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3301900005006</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>0.2593516209476309</v>
+        <v>2.331670822942644</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1197007481296758</v>
+        <v>147.4646716541978</v>
       </c>
       <c r="E37" t="n">
-        <v>2.331670822942644</v>
-      </c>
-      <c r="F37" t="n">
-        <v>147.4646716541978</v>
-      </c>
-      <c r="G37" t="n">
         <v>68.86949293433084</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>3301900005007</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3301900005007</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3297872340425531</v>
+        <v>2.985106382978723</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1212765957446808</v>
+        <v>134.6529888551165</v>
       </c>
       <c r="E38" t="n">
-        <v>2.985106382978723</v>
-      </c>
-      <c r="F38" t="n">
-        <v>134.6529888551165</v>
-      </c>
-      <c r="G38" t="n">
         <v>50.0759878419453</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>3301900005008</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3301900005008</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2471131639722864</v>
+        <v>2.415704387990762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1131639722863741</v>
+        <v>111.5308479049818</v>
       </c>
       <c r="E39" t="n">
-        <v>2.415704387990762</v>
-      </c>
-      <c r="F39" t="n">
-        <v>111.5308479049818</v>
-      </c>
-      <c r="G39" t="n">
         <v>50.65434949961509</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>3301900005009</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3301900005009</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3602620087336244</v>
+        <v>3.135371179039301</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1441048034934497</v>
+        <v>135.4647535870243</v>
       </c>
       <c r="E40" t="n">
-        <v>3.135371179039301</v>
-      </c>
-      <c r="F40" t="n">
-        <v>135.4647535870243</v>
-      </c>
-      <c r="G40" t="n">
         <v>54.23164899147432</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>3301900005010</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3301900005010</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2406015037593984</v>
+        <v>2.305764411027569</v>
       </c>
       <c r="D41" t="n">
-        <v>0.075187969924812</v>
+        <v>135.6725146198831</v>
       </c>
       <c r="E41" t="n">
-        <v>2.305764411027569</v>
-      </c>
-      <c r="F41" t="n">
-        <v>135.6725146198831</v>
-      </c>
-      <c r="G41" t="n">
         <v>38.0952380952381</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>3301900005011</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3301900005011</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4539877300613497</v>
+        <v>4.083844580777096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1595092024539877</v>
+        <v>128.7945921381504</v>
       </c>
       <c r="E42" t="n">
-        <v>4.083844580777096</v>
-      </c>
-      <c r="F42" t="n">
-        <v>128.7945921381504</v>
-      </c>
-      <c r="G42" t="n">
         <v>44.34625247508683</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>3301900005012</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3301900005012</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2422062350119904</v>
+        <v>2.203836930455636</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0983213429256594</v>
+        <v>137.9696243005596</v>
       </c>
       <c r="E43" t="n">
-        <v>2.203836930455636</v>
-      </c>
-      <c r="F43" t="n">
-        <v>137.9696243005596</v>
-      </c>
-      <c r="G43" t="n">
         <v>53.35731414868106</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>3302007003001</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3302007003001</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2475490196078431</v>
+        <v>2.225490196078431</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0906862745098039</v>
+        <v>127.124183006536</v>
       </c>
       <c r="E44" t="n">
-        <v>2.225490196078431</v>
-      </c>
-      <c r="F44" t="n">
-        <v>127.124183006536</v>
-      </c>
-      <c r="G44" t="n">
         <v>42.44281045751634</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>3302007003002</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3302007003002</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>0.2558685446009389</v>
+        <v>2.36150234741784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0938967136150234</v>
+        <v>142.4491392801252</v>
       </c>
       <c r="E45" t="n">
-        <v>2.36150234741784</v>
-      </c>
-      <c r="F45" t="n">
-        <v>142.4491392801252</v>
-      </c>
-      <c r="G45" t="n">
         <v>49.2566510172144</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>3302007003003</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3302007003003</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2528735632183908</v>
+        <v>2.397701149425288</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0873563218390804</v>
+        <v>139.9507389162562</v>
       </c>
       <c r="E46" t="n">
-        <v>2.397701149425288</v>
-      </c>
-      <c r="F46" t="n">
-        <v>139.9507389162562</v>
-      </c>
-      <c r="G46" t="n">
         <v>45.90585659551176</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>3302007003004</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3302007003004</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2193877551020408</v>
+        <v>2.198979591836735</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06377551020408161</v>
+        <v>108.7159863945578</v>
       </c>
       <c r="E47" t="n">
-        <v>2.198979591836735</v>
-      </c>
-      <c r="F47" t="n">
-        <v>108.7159863945578</v>
-      </c>
-      <c r="G47" t="n">
         <v>31.25</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>3302007003005</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3302007003005</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>0.3274725274725275</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1164835164835164</v>
+        <v>133.9830804116519</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>133.9830804116519</v>
-      </c>
-      <c r="G48" t="n">
         <v>50.28083028083028</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>3302007003006</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3302007003006</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0.375</v>
+        <v>3.370762711864407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1419491525423729</v>
+        <v>124.1786050578424</v>
       </c>
       <c r="E49" t="n">
-        <v>3.370762711864407</v>
-      </c>
-      <c r="F49" t="n">
-        <v>124.1786050578424</v>
-      </c>
-      <c r="G49" t="n">
         <v>46.65556900726394</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>3302270003001</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3302270003001</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2807017543859649</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0927318295739348</v>
+        <v>143.2987229979711</v>
       </c>
       <c r="E50" t="n">
-        <v>2.047619047619047</v>
-      </c>
-      <c r="F50" t="n">
-        <v>143.2987229979711</v>
-      </c>
-      <c r="G50" t="n">
         <v>46.93280821100371</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>3302270003002</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3302270003002</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2634146341463415</v>
+        <v>2.385365853658536</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08536585365853649</v>
+        <v>122.6016260162602</v>
       </c>
       <c r="E51" t="n">
-        <v>2.385365853658536</v>
-      </c>
-      <c r="F51" t="n">
-        <v>122.6016260162602</v>
-      </c>
-      <c r="G51" t="n">
         <v>43.65853658536585</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>3302270003003</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3302270003003</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2523809523809524</v>
+        <v>2.354761904761905</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0857142857142857</v>
+        <v>113.2369614512472</v>
       </c>
       <c r="E52" t="n">
-        <v>2.354761904761905</v>
-      </c>
-      <c r="F52" t="n">
-        <v>113.2369614512472</v>
-      </c>
-      <c r="G52" t="n">
         <v>40.18140589569161</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>3302270003004</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3302270003004</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0.4472573839662447</v>
+        <v>3.238396624472574</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1434599156118143</v>
+        <v>153.5504989618913</v>
       </c>
       <c r="E53" t="n">
-        <v>3.238396624472574</v>
-      </c>
-      <c r="F53" t="n">
-        <v>153.5504989618913</v>
-      </c>
-      <c r="G53" t="n">
         <v>48.96858884200656</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>3302270003005</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3302270003005</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>0.3773584905660377</v>
+        <v>3.308176100628931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1362683438155136</v>
+        <v>127.3817843000233</v>
       </c>
       <c r="E54" t="n">
-        <v>3.308176100628931</v>
-      </c>
-      <c r="F54" t="n">
-        <v>127.3817843000233</v>
-      </c>
-      <c r="G54" t="n">
         <v>49.2446174836112</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>3302502005001</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3302502005001</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6117886178861789</v>
+        <v>4.800813008130081</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2073170731707317</v>
+        <v>139.2714162531236</v>
       </c>
       <c r="E55" t="n">
-        <v>4.800813008130081</v>
-      </c>
-      <c r="F55" t="n">
-        <v>139.2714162531236</v>
-      </c>
-      <c r="G55" t="n">
         <v>46.7118191203557</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>3302502005002</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3302502005002</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>1.242</v>
+        <v>10.048</v>
       </c>
       <c r="D56" t="n">
-        <v>0.432</v>
+        <v>128.2825960816974</v>
       </c>
       <c r="E56" t="n">
-        <v>10.048</v>
-      </c>
-      <c r="F56" t="n">
-        <v>128.2825960816974</v>
-      </c>
-      <c r="G56" t="n">
         <v>45.61852825238202</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>3302502005003</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3302502005003</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0.3623188405797101</v>
+        <v>3.279503105590062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1428571428571428</v>
+        <v>124.7535245982451</v>
       </c>
       <c r="E57" t="n">
-        <v>3.279503105590062</v>
-      </c>
-      <c r="F57" t="n">
-        <v>124.7535245982451</v>
-      </c>
-      <c r="G57" t="n">
         <v>53.97646981497913</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>3302502005004</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3302502005004</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0.2917594654788418</v>
+        <v>2.590200445434299</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1135857461024498</v>
+        <v>126.116237140736</v>
       </c>
       <c r="E58" t="n">
-        <v>2.590200445434299</v>
-      </c>
-      <c r="F58" t="n">
-        <v>126.116237140736</v>
-      </c>
-      <c r="G58" t="n">
         <v>46.56909534415102</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>3302502005005</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3302502005005</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0.230379746835443</v>
+        <v>2.063291139240506</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1063291139240506</v>
+        <v>130.6540084388186</v>
       </c>
       <c r="E59" t="n">
-        <v>2.063291139240506</v>
-      </c>
-      <c r="F59" t="n">
-        <v>130.6540084388186</v>
-      </c>
-      <c r="G59" t="n">
         <v>59.9367088607595</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>3302502005006</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3302502005006</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5329218106995884</v>
+        <v>4.174897119341564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2037037037037037</v>
+        <v>142.3748804921644</v>
       </c>
       <c r="E60" t="n">
-        <v>4.174897119341564</v>
-      </c>
-      <c r="F60" t="n">
-        <v>142.3748804921644</v>
-      </c>
-      <c r="G60" t="n">
         <v>54.48755633940817</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>3302502005007</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3302502005007</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>0.4389233954451346</v>
+        <v>3.314699792960663</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1511387163561076</v>
+        <v>143.4059614183838</v>
       </c>
       <c r="E61" t="n">
-        <v>3.314699792960663</v>
-      </c>
-      <c r="F61" t="n">
-        <v>143.4059614183838</v>
-      </c>
-      <c r="G61" t="n">
         <v>53.00946465542737</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>3302601003001</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3302601003001</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0.2718676122931442</v>
+        <v>2.297872340425532</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09929078014184391</v>
+        <v>134.2480018011933</v>
       </c>
       <c r="E62" t="n">
-        <v>2.297872340425532</v>
-      </c>
-      <c r="F62" t="n">
-        <v>134.2480018011933</v>
-      </c>
-      <c r="G62" t="n">
         <v>46.15839243498817</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>3302601003002</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3302601003002</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>0.3920704845814978</v>
+        <v>2.8215859030837</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1365638766519823</v>
+        <v>158.0580029368576</v>
       </c>
       <c r="E63" t="n">
-        <v>2.8215859030837</v>
-      </c>
-      <c r="F63" t="n">
-        <v>158.0580029368576</v>
-      </c>
-      <c r="G63" t="n">
         <v>51.72540381791483</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>3302700003001</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3302700003001</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>0.19559902200489</v>
+        <v>2.068459657701712</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0635696821515892</v>
+        <v>117.1789498195366</v>
       </c>
       <c r="E64" t="n">
-        <v>2.068459657701712</v>
-      </c>
-      <c r="F64" t="n">
-        <v>117.1789498195366</v>
-      </c>
-      <c r="G64" t="n">
         <v>37.83909651880312</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>3302700003002</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3302700003002</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>0.2087912087912088</v>
+        <v>2.016483516483516</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0906593406593406</v>
+        <v>108.7781266352695</v>
       </c>
       <c r="E65" t="n">
-        <v>2.016483516483516</v>
-      </c>
-      <c r="F65" t="n">
-        <v>108.7781266352695</v>
-      </c>
-      <c r="G65" t="n">
         <v>45.81371009942439</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>3302700003003</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3302700003003</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0.237410071942446</v>
+        <v>2.309352517985612</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08872901678657071</v>
+        <v>122.1251570172434</v>
       </c>
       <c r="E66" t="n">
-        <v>2.309352517985612</v>
-      </c>
-      <c r="F66" t="n">
-        <v>122.1251570172434</v>
-      </c>
-      <c r="G66" t="n">
         <v>47.66472536256709</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>3302700003004</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3302700003004</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>0.4460580912863071</v>
+        <v>3.271784232365145</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1493775933609958</v>
+        <v>153.8678126852401</v>
       </c>
       <c r="E67" t="n">
-        <v>3.271784232365145</v>
-      </c>
-      <c r="F67" t="n">
-        <v>153.8678126852401</v>
-      </c>
-      <c r="G67" t="n">
         <v>56.24629519857733</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>3302700003005</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3302700003005</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>0.2015915119363395</v>
+        <v>1.976127320954907</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0742705570291777</v>
+        <v>121.3527851458886</v>
       </c>
       <c r="E68" t="n">
-        <v>1.976127320954907</v>
-      </c>
-      <c r="F68" t="n">
-        <v>121.3527851458886</v>
-      </c>
-      <c r="G68" t="n">
         <v>42.83819628647216</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>3302700003006</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3302700003006</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0.2549019607843137</v>
+        <v>2.274509803921569</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0931372549019607</v>
+        <v>123.202614379085</v>
       </c>
       <c r="E69" t="n">
-        <v>2.274509803921569</v>
-      </c>
-      <c r="F69" t="n">
-        <v>123.202614379085</v>
-      </c>
-      <c r="G69" t="n">
         <v>38.52124183006536</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>3302700003007</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3302700003007</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5101626016260162</v>
+        <v>4.398373983739837</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2052845528455284</v>
+        <v>122.5207211487699</v>
       </c>
       <c r="E70" t="n">
-        <v>4.398373983739837</v>
-      </c>
-      <c r="F70" t="n">
-        <v>122.5207211487699</v>
-      </c>
-      <c r="G70" t="n">
         <v>51.8074912891986</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>3303203003001</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3303203003001</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>0.3318872017353579</v>
+        <v>3.026030368763557</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1084598698481561</v>
+        <v>128.1496401886857</v>
       </c>
       <c r="E71" t="n">
-        <v>3.026030368763557</v>
-      </c>
-      <c r="F71" t="n">
-        <v>128.1496401886857</v>
-      </c>
-      <c r="G71" t="n">
         <v>45.40164583548531</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>3303203003002</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3303203003002</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1760391198044009</v>
+        <v>2.271393643031785</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0513447432762836</v>
+        <v>83.94458027709858</v>
       </c>
       <c r="E72" t="n">
-        <v>2.271393643031785</v>
-      </c>
-      <c r="F72" t="n">
-        <v>83.94458027709858</v>
-      </c>
-      <c r="G72" t="n">
         <v>25.4278728606357</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>3303203003003</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3303203003003</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.2423529411764705</v>
+        <v>2.268235294117647</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0776470588235294</v>
+        <v>143.2156862745098</v>
       </c>
       <c r="E73" t="n">
-        <v>2.268235294117647</v>
-      </c>
-      <c r="F73" t="n">
-        <v>143.2156862745098</v>
-      </c>
-      <c r="G73" t="n">
         <v>41.88235294117647</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>3303203003004</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3303203003004</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.3168103448275862</v>
+        <v>3.043103448275862</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1185344827586206</v>
+        <v>131.6682060755336</v>
       </c>
       <c r="E74" t="n">
-        <v>3.043103448275862</v>
-      </c>
-      <c r="F74" t="n">
-        <v>131.6682060755336</v>
-      </c>
-      <c r="G74" t="n">
         <v>47.48563218390805</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>3303203003005</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3303203003005</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.2665094339622642</v>
+        <v>2.235849056603774</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08726415094339619</v>
+        <v>138.6623989218329</v>
       </c>
       <c r="E75" t="n">
-        <v>2.235849056603774</v>
-      </c>
-      <c r="F75" t="n">
-        <v>138.6623989218329</v>
-      </c>
-      <c r="G75" t="n">
         <v>45.47955974842767</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>3303203003006</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3303203003006</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0.2923076923076923</v>
+        <v>2.120512820512821</v>
       </c>
       <c r="D76" t="n">
-        <v>0.123076923076923</v>
+        <v>144.1086691086691</v>
       </c>
       <c r="E76" t="n">
-        <v>2.120512820512821</v>
-      </c>
-      <c r="F76" t="n">
-        <v>144.1086691086691</v>
-      </c>
-      <c r="G76" t="n">
         <v>61.41025641025641</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>3303203003007</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3303203003007</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0.2678983833718245</v>
+        <v>2.482678983833718</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08083140877598149</v>
+        <v>129.1762894534257</v>
       </c>
       <c r="E77" t="n">
-        <v>2.482678983833718</v>
-      </c>
-      <c r="F77" t="n">
-        <v>129.1762894534257</v>
-      </c>
-      <c r="G77" t="n">
         <v>38.29869130100077</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>3303203003008</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3303203003008</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0.3239130434782609</v>
+        <v>2.934782608695652</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1108695652173913</v>
+        <v>132.5051759834369</v>
       </c>
       <c r="E78" t="n">
-        <v>2.934782608695652</v>
-      </c>
-      <c r="F78" t="n">
-        <v>132.5051759834369</v>
-      </c>
-      <c r="G78" t="n">
         <v>45.92650103519668</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>3303203003009</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3303203003009</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>0.3319238900634249</v>
+        <v>3.080338266384778</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1078224101479915</v>
+        <v>134.707540521494</v>
       </c>
       <c r="E79" t="n">
-        <v>3.080338266384778</v>
-      </c>
-      <c r="F79" t="n">
-        <v>134.707540521494</v>
-      </c>
-      <c r="G79" t="n">
         <v>43.85382059800664</v>
       </c>
     </row>
@@ -2263,22 +1941,18 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>3303302005001</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3303302005001</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0.3063457330415755</v>
+        <v>2.560175054704595</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1094091903719912</v>
+        <v>144.4774408669376</v>
       </c>
       <c r="E80" t="n">
-        <v>2.560175054704595</v>
-      </c>
-      <c r="F80" t="n">
-        <v>144.4774408669376</v>
-      </c>
-      <c r="G80" t="n">
         <v>57.09596748984056</v>
       </c>
     </row>
@@ -2286,22 +1960,18 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>3303302005002</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3303302005002</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0.2648514851485148</v>
+        <v>2.178217821782178</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0792079207920792</v>
+        <v>144.2244224422442</v>
       </c>
       <c r="E81" t="n">
-        <v>2.178217821782178</v>
-      </c>
-      <c r="F81" t="n">
-        <v>144.2244224422442</v>
-      </c>
-      <c r="G81" t="n">
         <v>45.58580858085808</v>
       </c>
     </row>
@@ -2309,22 +1979,18 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>3303302005003</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3303302005003</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0.2622222222222222</v>
+        <v>2.811111111111111</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1133333333333333</v>
+        <v>111.5</v>
       </c>
       <c r="E82" t="n">
-        <v>2.811111111111111</v>
-      </c>
-      <c r="F82" t="n">
-        <v>111.5</v>
-      </c>
-      <c r="G82" t="n">
         <v>48.66666666666666</v>
       </c>
     </row>
@@ -2332,22 +1998,18 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>3303302005004</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3303302005004</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0.2844036697247706</v>
+        <v>2.51605504587156</v>
       </c>
       <c r="D83" t="n">
-        <v>0.110091743119266</v>
+        <v>131.230886850153</v>
       </c>
       <c r="E83" t="n">
-        <v>2.51605504587156</v>
-      </c>
-      <c r="F83" t="n">
-        <v>131.230886850153</v>
-      </c>
-      <c r="G83" t="n">
         <v>48.1460244648318</v>
       </c>
     </row>
@@ -2355,22 +2017,18 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>3303302005005</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>3303302005005</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>0.3736501079913606</v>
+        <v>2.943844492440605</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1252699784017278</v>
+        <v>150.1697007096575</v>
       </c>
       <c r="E84" t="n">
-        <v>2.943844492440605</v>
-      </c>
-      <c r="F84" t="n">
-        <v>150.1697007096575</v>
-      </c>
-      <c r="G84" t="n">
         <v>47.4442044636429</v>
       </c>
     </row>
@@ -2378,22 +2036,18 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>3303302005006</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3303302005006</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>0.3454157782515991</v>
+        <v>3.132196162046908</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115138592750533</v>
+        <v>135.6685957965276</v>
       </c>
       <c r="E85" t="n">
-        <v>3.132196162046908</v>
-      </c>
-      <c r="F85" t="n">
-        <v>135.6685957965276</v>
-      </c>
-      <c r="G85" t="n">
         <v>44.23291704741597</v>
       </c>
     </row>
@@ -2401,22 +2055,18 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>3303302005007</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3303302005007</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0.384453781512605</v>
+        <v>3.441176470588236</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1365546218487394</v>
+        <v>125.8636788048553</v>
       </c>
       <c r="E86" t="n">
-        <v>3.441176470588236</v>
-      </c>
-      <c r="F86" t="n">
-        <v>125.8636788048553</v>
-      </c>
-      <c r="G86" t="n">
         <v>45.92587034813926</v>
       </c>
     </row>
@@ -2424,22 +2074,18 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>3303302005008</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3303302005008</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0.3297644539614561</v>
+        <v>3.094218415417559</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1263383297644539</v>
+        <v>131.0416029366779</v>
       </c>
       <c r="E87" t="n">
-        <v>3.094218415417559</v>
-      </c>
-      <c r="F87" t="n">
-        <v>131.0416029366779</v>
-      </c>
-      <c r="G87" t="n">
         <v>47.6496380136637</v>
       </c>
     </row>
@@ -2447,22 +2093,18 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>3303302005009</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3303302005009</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>0.3390928725701944</v>
+        <v>3.203023758099352</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1166306695464362</v>
+        <v>122.8247454489356</v>
       </c>
       <c r="E88" t="n">
-        <v>3.203023758099352</v>
-      </c>
-      <c r="F88" t="n">
-        <v>122.8247454489356</v>
-      </c>
-      <c r="G88" t="n">
         <v>44.24046076313895</v>
       </c>
     </row>
@@ -2470,22 +2112,18 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>3303302005010</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3303302005010</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0.6345381526104418</v>
+        <v>5.678714859437751</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2269076305220883</v>
+        <v>121.1141825599657</v>
       </c>
       <c r="E89" t="n">
-        <v>5.678714859437751</v>
-      </c>
-      <c r="F89" t="n">
-        <v>121.1141825599657</v>
-      </c>
-      <c r="G89" t="n">
         <v>42.40874030030653</v>
       </c>
     </row>
@@ -2493,22 +2131,18 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>3303302005011</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3303302005011</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0.3053763440860215</v>
+        <v>2.8</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1311827956989247</v>
+        <v>129.4572452636969</v>
       </c>
       <c r="E90" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F90" t="n">
-        <v>129.4572452636969</v>
-      </c>
-      <c r="G90" t="n">
         <v>56.49257552483357</v>
       </c>
     </row>
@@ -2516,22 +2150,18 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>3303302005012</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3303302005012</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0.40625</v>
+        <v>3.310416666666667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1354166666666666</v>
+        <v>130.265376984127</v>
       </c>
       <c r="E91" t="n">
-        <v>3.310416666666667</v>
-      </c>
-      <c r="F91" t="n">
-        <v>130.265376984127</v>
-      </c>
-      <c r="G91" t="n">
         <v>41.29216269841269</v>
       </c>
     </row>
@@ -2539,22 +2169,18 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>3303302005013</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>3303302005013</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>0.3975155279503105</v>
+        <v>3.511387163561077</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1407867494824016</v>
+        <v>123.1177495152651</v>
       </c>
       <c r="E92" t="n">
-        <v>3.511387163561077</v>
-      </c>
-      <c r="F92" t="n">
-        <v>123.1177495152651</v>
-      </c>
-      <c r="G92" t="n">
         <v>43.71816359393999</v>
       </c>
     </row>
@@ -2562,22 +2188,18 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>3303302005014</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3303302005014</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0.5060975609756098</v>
+        <v>4.099593495934959</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1605691056910569</v>
+        <v>137.9912657351682</v>
       </c>
       <c r="E93" t="n">
-        <v>4.099593495934959</v>
-      </c>
-      <c r="F93" t="n">
-        <v>137.9912657351682</v>
-      </c>
-      <c r="G93" t="n">
         <v>42.9579623177184</v>
       </c>
     </row>
@@ -2585,22 +2207,18 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>3303302005015</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3303302005015</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>1.196</v>
+        <v>11.382</v>
       </c>
       <c r="D94" t="n">
-        <v>0.442</v>
+        <v>110.3225481175171</v>
       </c>
       <c r="E94" t="n">
-        <v>11.382</v>
-      </c>
-      <c r="F94" t="n">
-        <v>110.3225481175171</v>
-      </c>
-      <c r="G94" t="n">
         <v>40.25464878258995</v>
       </c>
     </row>
@@ -2608,22 +2226,18 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>3303302005016</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>3303302005016</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>0.2387096774193548</v>
+        <v>2.729032258064516</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1161290322580645</v>
+        <v>103.8376856118792</v>
       </c>
       <c r="E95" t="n">
-        <v>2.729032258064516</v>
-      </c>
-      <c r="F95" t="n">
-        <v>103.8376856118792</v>
-      </c>
-      <c r="G95" t="n">
         <v>50.00256016385048</v>
       </c>
     </row>
@@ -2631,22 +2245,18 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>3303302005017</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3303302005017</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>0.918</v>
+        <v>7.532</v>
       </c>
       <c r="D96" t="n">
-        <v>0.32</v>
+        <v>128.7562168223932</v>
       </c>
       <c r="E96" t="n">
-        <v>7.532</v>
-      </c>
-      <c r="F96" t="n">
-        <v>128.7562168223932</v>
-      </c>
-      <c r="G96" t="n">
         <v>46.94415861915857</v>
       </c>
     </row>
@@ -2654,22 +2264,18 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>3303302005018</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3303302005018</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>0.3075170842824601</v>
+        <v>2.510250569476082</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09567198177676529</v>
+        <v>143.5296669920816</v>
       </c>
       <c r="E97" t="n">
-        <v>2.510250569476082</v>
-      </c>
-      <c r="F97" t="n">
-        <v>143.5296669920816</v>
-      </c>
-      <c r="G97" t="n">
         <v>44.95064540622628</v>
       </c>
     </row>
@@ -2677,22 +2283,18 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>3303500005001</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3303500005001</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>1.714</v>
+        <v>13.142</v>
       </c>
       <c r="D98" t="n">
-        <v>0.666</v>
+        <v>136.9293112375128</v>
       </c>
       <c r="E98" t="n">
-        <v>13.142</v>
-      </c>
-      <c r="F98" t="n">
-        <v>136.9293112375128</v>
-      </c>
-      <c r="G98" t="n">
         <v>52.95116766102833</v>
       </c>
     </row>
@@ -2700,22 +2302,18 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>3303500005002</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3303500005002</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>2.886</v>
+        <v>23.334</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05</v>
+        <v>125.9749421961703</v>
       </c>
       <c r="E99" t="n">
-        <v>23.334</v>
-      </c>
-      <c r="F99" t="n">
-        <v>125.9749421961703</v>
-      </c>
-      <c r="G99" t="n">
         <v>45.85888277757549</v>
       </c>
     </row>
@@ -2723,22 +2321,18 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>3303500005003</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3303500005003</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>1.894</v>
+        <v>14.462</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6820000000000001</v>
+        <v>133.2362448062798</v>
       </c>
       <c r="E100" t="n">
-        <v>14.462</v>
-      </c>
-      <c r="F100" t="n">
-        <v>133.2362448062798</v>
-      </c>
-      <c r="G100" t="n">
         <v>48.65397294797752</v>
       </c>
     </row>
@@ -2746,22 +2340,18 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>3303500005004</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3303500005004</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>1.486</v>
+        <v>12.36</v>
       </c>
       <c r="D101" t="n">
-        <v>0.502</v>
+        <v>125.5283549010329</v>
       </c>
       <c r="E101" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F101" t="n">
-        <v>125.5283549010329</v>
-      </c>
-      <c r="G101" t="n">
         <v>41.6722761672452</v>
       </c>
     </row>
@@ -2769,22 +2359,18 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>3303500005005</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3303500005005</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>1.874</v>
+        <v>15.512</v>
       </c>
       <c r="D102" t="n">
-        <v>0.668</v>
+        <v>125.0600963946341</v>
       </c>
       <c r="E102" t="n">
-        <v>15.512</v>
-      </c>
-      <c r="F102" t="n">
-        <v>125.0600963946341</v>
-      </c>
-      <c r="G102" t="n">
         <v>45.89245863173984</v>
       </c>
     </row>
@@ -2792,22 +2378,18 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>3303500005006</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>3303500005006</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>1.074</v>
+        <v>8.59</v>
       </c>
       <c r="D103" t="n">
-        <v>0.372</v>
+        <v>132.0013888072711</v>
       </c>
       <c r="E103" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="F103" t="n">
-        <v>132.0013888072711</v>
-      </c>
-      <c r="G103" t="n">
         <v>49.38568261803552</v>
       </c>
     </row>
@@ -2815,22 +2397,18 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>3303500005007</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3303500005007</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>0.854</v>
+        <v>7.246</v>
       </c>
       <c r="D104" t="n">
-        <v>0.316</v>
+        <v>130.3969752469752</v>
       </c>
       <c r="E104" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="F104" t="n">
-        <v>130.3969752469752</v>
-      </c>
-      <c r="G104" t="n">
         <v>46.95931568431565</v>
       </c>
     </row>
@@ -2838,22 +2416,18 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>3303500005008</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3303500005008</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>0.966</v>
+        <v>8.116</v>
       </c>
       <c r="D105" t="n">
-        <v>0.32</v>
+        <v>127.0466019274842</v>
       </c>
       <c r="E105" t="n">
-        <v>8.116</v>
-      </c>
-      <c r="F105" t="n">
-        <v>127.0466019274842</v>
-      </c>
-      <c r="G105" t="n">
         <v>40.49394380129674</v>
       </c>
     </row>
@@ -2861,22 +2435,18 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>3303500005009</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3303500005009</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>0.1994459833795014</v>
+        <v>2.110803324099723</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0858725761772853</v>
+        <v>105.8237699511938</v>
       </c>
       <c r="E106" t="n">
-        <v>2.110803324099723</v>
-      </c>
-      <c r="F106" t="n">
-        <v>105.8237699511938</v>
-      </c>
-      <c r="G106" t="n">
         <v>51.33887349953832</v>
       </c>
     </row>
@@ -2884,22 +2454,18 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>3303609003001</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3303609003001</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>0.3275862068965517</v>
+        <v>3.232758620689655</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1206896551724138</v>
+        <v>114.05736863711</v>
       </c>
       <c r="E107" t="n">
-        <v>3.232758620689655</v>
-      </c>
-      <c r="F107" t="n">
-        <v>114.05736863711</v>
-      </c>
-      <c r="G107" t="n">
         <v>38.07727832512315</v>
       </c>
     </row>
@@ -2907,22 +2473,18 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>3303609003002</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>3303609003002</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3487394957983193</v>
+        <v>3.138655462184874</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1365546218487394</v>
+        <v>124.4897959183674</v>
       </c>
       <c r="E108" t="n">
-        <v>3.138655462184874</v>
-      </c>
-      <c r="F108" t="n">
-        <v>124.4897959183674</v>
-      </c>
-      <c r="G108" t="n">
         <v>49.16466586634652</v>
       </c>
     </row>
@@ -2930,22 +2492,18 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>3303906005001</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>3303906005001</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>0.2719101123595505</v>
+        <v>2.595505617977528</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0921348314606741</v>
+        <v>139.1974317817015</v>
       </c>
       <c r="E109" t="n">
-        <v>2.595505617977528</v>
-      </c>
-      <c r="F109" t="n">
-        <v>139.1974317817015</v>
-      </c>
-      <c r="G109" t="n">
         <v>40.28357410379883</v>
       </c>
     </row>
@@ -2953,22 +2511,18 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>3303906005002</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3303906005002</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>0.2793427230046948</v>
+        <v>2.417840375586854</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0868544600938967</v>
+        <v>148.5188911245249</v>
       </c>
       <c r="E110" t="n">
-        <v>2.417840375586854</v>
-      </c>
-      <c r="F110" t="n">
-        <v>148.5188911245249</v>
-      </c>
-      <c r="G110" t="n">
         <v>41.49340487368656</v>
       </c>
     </row>
@@ -2976,22 +2530,18 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>3303906005003</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3303906005003</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>0.319634703196347</v>
+        <v>2.668949771689498</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1255707762557077</v>
+        <v>130.3924766253534</v>
       </c>
       <c r="E111" t="n">
-        <v>2.668949771689498</v>
-      </c>
-      <c r="F111" t="n">
-        <v>130.3924766253534</v>
-      </c>
-      <c r="G111" t="n">
         <v>47.72233094150902</v>
       </c>
     </row>
@@ -2999,22 +2549,18 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>3303906005004</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3303906005004</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>0.2892768079800499</v>
+        <v>2.249376558603492</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1022443890274314</v>
+        <v>158.4372402327515</v>
       </c>
       <c r="E112" t="n">
-        <v>2.249376558603492</v>
-      </c>
-      <c r="F112" t="n">
-        <v>158.4372402327515</v>
-      </c>
-      <c r="G112" t="n">
         <v>52.24438902743143</v>
       </c>
     </row>
@@ -3022,22 +2568,18 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>3303906005005</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>3303906005005</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>0.3246187363834422</v>
+        <v>2.840958605664488</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1067538126361655</v>
+        <v>134.0128644050213</v>
       </c>
       <c r="E113" t="n">
-        <v>2.840958605664488</v>
-      </c>
-      <c r="F113" t="n">
-        <v>134.0128644050213</v>
-      </c>
-      <c r="G113" t="n">
         <v>43.70266625168586</v>
       </c>
     </row>
@@ -3045,22 +2587,18 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>3303906005006</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>3303906005006</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>0.3489361702127659</v>
+        <v>3.189361702127659</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1127659574468085</v>
+        <v>125.258358662614</v>
       </c>
       <c r="E114" t="n">
-        <v>3.189361702127659</v>
-      </c>
-      <c r="F114" t="n">
-        <v>125.258358662614</v>
-      </c>
-      <c r="G114" t="n">
         <v>45.46605876393109</v>
       </c>
     </row>
@@ -3068,22 +2606,18 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>3303906005007</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3303906005007</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>0.344017094017094</v>
+        <v>3.094017094017094</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1367521367521367</v>
+        <v>128.197496947497</v>
       </c>
       <c r="E115" t="n">
-        <v>3.094017094017094</v>
-      </c>
-      <c r="F115" t="n">
-        <v>128.197496947497</v>
-      </c>
-      <c r="G115" t="n">
         <v>53.79527879527878</v>
       </c>
     </row>
@@ -3091,22 +2625,18 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>3303906005008</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>3303906005008</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>0.4361702127659574</v>
+        <v>3.35531914893617</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1680851063829787</v>
+        <v>154.2451874366768</v>
       </c>
       <c r="E116" t="n">
-        <v>3.35531914893617</v>
-      </c>
-      <c r="F116" t="n">
-        <v>154.2451874366768</v>
-      </c>
-      <c r="G116" t="n">
         <v>62.20533603512325</v>
       </c>
     </row>
@@ -3114,22 +2644,18 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>3303906005009</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3303906005009</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>0.2714285714285714</v>
+        <v>2.238095238095238</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09761904761904761</v>
+        <v>141.0714285714286</v>
       </c>
       <c r="E117" t="n">
-        <v>2.238095238095238</v>
-      </c>
-      <c r="F117" t="n">
-        <v>141.0714285714286</v>
-      </c>
-      <c r="G117" t="n">
         <v>51.78571428571427</v>
       </c>
     </row>
@@ -3137,22 +2663,18 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>3303906005010</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3303906005010</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>0.322072072072072</v>
+        <v>2.691441441441441</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1126126126126126</v>
+        <v>162.8968253968254</v>
       </c>
       <c r="E118" t="n">
-        <v>2.691441441441441</v>
-      </c>
-      <c r="F118" t="n">
-        <v>162.8968253968254</v>
-      </c>
-      <c r="G118" t="n">
         <v>51.07250107250107</v>
       </c>
     </row>
@@ -3160,22 +2682,18 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>3303906005011</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>3303906005011</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3852631578947368</v>
+        <v>3.303157894736842</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1452631578947368</v>
+        <v>145.1979949874687</v>
       </c>
       <c r="E119" t="n">
-        <v>3.303157894736842</v>
-      </c>
-      <c r="F119" t="n">
-        <v>145.1979949874687</v>
-      </c>
-      <c r="G119" t="n">
         <v>51.12781954887217</v>
       </c>
     </row>
@@ -3183,22 +2701,18 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>3303906005012</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3303906005012</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0.2333333333333333</v>
+        <v>2.784444444444444</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0777777777777777</v>
+        <v>93.36772486772487</v>
       </c>
       <c r="E120" t="n">
-        <v>2.784444444444444</v>
-      </c>
-      <c r="F120" t="n">
-        <v>93.36772486772487</v>
-      </c>
-      <c r="G120" t="n">
         <v>29.76719576719577</v>
       </c>
     </row>
@@ -3206,22 +2720,18 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>3303906005013</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3303906005013</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0.3553191489361702</v>
+        <v>3.221276595744681</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1404255319148936</v>
+        <v>140.1063829787234</v>
       </c>
       <c r="E121" t="n">
-        <v>3.221276595744681</v>
-      </c>
-      <c r="F121" t="n">
-        <v>140.1063829787234</v>
-      </c>
-      <c r="G121" t="n">
         <v>55.35967578520769</v>
       </c>
     </row>
@@ -3229,22 +2739,18 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>3303906005014</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3303906005014</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>0.3552631578947368</v>
+        <v>2.918859649122807</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1293859649122807</v>
+        <v>144.2930242272348</v>
       </c>
       <c r="E122" t="n">
-        <v>2.918859649122807</v>
-      </c>
-      <c r="F122" t="n">
-        <v>144.2930242272348</v>
-      </c>
-      <c r="G122" t="n">
         <v>44.7577276524645</v>
       </c>
     </row>
@@ -3252,22 +2758,18 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>3303906005015</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>3303906005015</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>0.3974630021141649</v>
+        <v>3.323467230443975</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1247357293868921</v>
+        <v>135.143873040279</v>
       </c>
       <c r="E123" t="n">
-        <v>3.323467230443975</v>
-      </c>
-      <c r="F123" t="n">
-        <v>135.143873040279</v>
-      </c>
-      <c r="G123" t="n">
         <v>44.82281284606866</v>
       </c>
     </row>
@@ -3275,22 +2777,18 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>3304144003001</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>3304144003001</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>0.2375565610859728</v>
+        <v>2.601809954751132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0814479638009049</v>
+        <v>110.2995044171515</v>
       </c>
       <c r="E124" t="n">
-        <v>2.601809954751132</v>
-      </c>
-      <c r="F124" t="n">
-        <v>110.2995044171515</v>
-      </c>
-      <c r="G124" t="n">
         <v>39.42577030812324</v>
       </c>
     </row>
@@ -3298,22 +2796,18 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>3304144003002</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>3304144003002</t>
+        </is>
       </c>
       <c r="C125" t="n">
-        <v>0.1971153846153846</v>
+        <v>2.283653846153846</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0625</v>
+        <v>89.34867216117219</v>
       </c>
       <c r="E125" t="n">
-        <v>2.283653846153846</v>
-      </c>
-      <c r="F125" t="n">
-        <v>89.34867216117219</v>
-      </c>
-      <c r="G125" t="n">
         <v>27.00320512820513</v>
       </c>
     </row>
@@ -3321,22 +2815,18 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
-        <v>3304144003003</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>3304144003003</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>0.273972602739726</v>
+        <v>2.534246575342466</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0958904109589041</v>
+        <v>118.9008480104371</v>
       </c>
       <c r="E126" t="n">
-        <v>2.534246575342466</v>
-      </c>
-      <c r="F126" t="n">
-        <v>118.9008480104371</v>
-      </c>
-      <c r="G126" t="n">
         <v>47.28201782996303</v>
       </c>
     </row>
@@ -3344,22 +2834,18 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>3304144003004</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>3304144003004</t>
+        </is>
       </c>
       <c r="C127" t="n">
-        <v>0.2980295566502463</v>
+        <v>2.25615763546798</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1133004926108374</v>
+        <v>156.7733990147783</v>
       </c>
       <c r="E127" t="n">
-        <v>2.25615763546798</v>
-      </c>
-      <c r="F127" t="n">
-        <v>156.7733990147783</v>
-      </c>
-      <c r="G127" t="n">
         <v>64.28571428571429</v>
       </c>
     </row>
@@ -3367,22 +2853,18 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>3304144003005</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>3304144003005</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>0.2654462242562929</v>
+        <v>2.697940503432494</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09153318077803201</v>
+        <v>106.9303694017653</v>
       </c>
       <c r="E128" t="n">
-        <v>2.697940503432494</v>
-      </c>
-      <c r="F128" t="n">
-        <v>106.9303694017653</v>
-      </c>
-      <c r="G128" t="n">
         <v>40.50888089789692</v>
       </c>
     </row>
@@ -3390,22 +2872,18 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>3304144003006</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>3304144003006</t>
+        </is>
       </c>
       <c r="C129" t="n">
-        <v>0.3628691983122363</v>
+        <v>3.118143459915612</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1139240506329113</v>
+        <v>147.2908713415042</v>
       </c>
       <c r="E129" t="n">
-        <v>3.118143459915612</v>
-      </c>
-      <c r="F129" t="n">
-        <v>147.2908713415042</v>
-      </c>
-      <c r="G129" t="n">
         <v>46.57424151095037</v>
       </c>
     </row>
@@ -3413,22 +2891,18 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>3304144003007</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>3304144003007</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>0.4487704918032787</v>
+        <v>4.23155737704918</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1618852459016393</v>
+        <v>120.3757421995127</v>
       </c>
       <c r="E130" t="n">
-        <v>4.23155737704918</v>
-      </c>
-      <c r="F130" t="n">
-        <v>120.3757421995127</v>
-      </c>
-      <c r="G130" t="n">
         <v>46.23282000331181</v>
       </c>
     </row>
@@ -3436,22 +2910,18 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>3304557005001</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3304557005001</t>
+        </is>
       </c>
       <c r="C131" t="n">
-        <v>0.842</v>
+        <v>6.426</v>
       </c>
       <c r="D131" t="n">
-        <v>0.288</v>
+        <v>141.1645243645243</v>
       </c>
       <c r="E131" t="n">
-        <v>6.426</v>
-      </c>
-      <c r="F131" t="n">
-        <v>141.1645243645243</v>
-      </c>
-      <c r="G131" t="n">
         <v>46.26046176046175</v>
       </c>
     </row>
@@ -3459,22 +2929,18 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
-        <v>3304557005002</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>3304557005002</t>
+        </is>
       </c>
       <c r="C132" t="n">
-        <v>0.4868686868686869</v>
+        <v>4.66060606060606</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1777777777777777</v>
+        <v>120.3246753246753</v>
       </c>
       <c r="E132" t="n">
-        <v>4.66060606060606</v>
-      </c>
-      <c r="F132" t="n">
-        <v>120.3246753246753</v>
-      </c>
-      <c r="G132" t="n">
         <v>44.35626102292769</v>
       </c>
     </row>
@@ -3482,22 +2948,18 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>3304557005003</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>3304557005003</t>
+        </is>
       </c>
       <c r="C133" t="n">
-        <v>0.3085106382978723</v>
+        <v>3.048936170212766</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1212765957446808</v>
+        <v>106.5045592705167</v>
       </c>
       <c r="E133" t="n">
-        <v>3.048936170212766</v>
-      </c>
-      <c r="F133" t="n">
-        <v>106.5045592705167</v>
-      </c>
-      <c r="G133" t="n">
         <v>43.89057750759878</v>
       </c>
     </row>
@@ -3505,22 +2967,18 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>3304557005004</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3304557005004</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>0.5061224489795918</v>
+        <v>4.063265306122449</v>
       </c>
       <c r="D134" t="n">
-        <v>0.173469387755102</v>
+        <v>147.9302500220868</v>
       </c>
       <c r="E134" t="n">
-        <v>4.063265306122449</v>
-      </c>
-      <c r="F134" t="n">
-        <v>147.9302500220868</v>
-      </c>
-      <c r="G134" t="n">
         <v>49.04526312689576</v>
       </c>
     </row>
@@ -3528,22 +2986,18 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
-        <v>3304557005005</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>3304557005005</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>0.4847870182555781</v>
+        <v>4.26369168356998</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1845841784989858</v>
+        <v>115.6033677838952</v>
       </c>
       <c r="E135" t="n">
-        <v>4.26369168356998</v>
-      </c>
-      <c r="F135" t="n">
-        <v>115.6033677838952</v>
-      </c>
-      <c r="G135" t="n">
         <v>39.80891207057535</v>
       </c>
     </row>
@@ -3551,22 +3005,18 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>3304557005006</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>3304557005006</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>0.4595141700404858</v>
+        <v>4.206477732793522</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1659919028340081</v>
+        <v>116.416259179417</v>
       </c>
       <c r="E136" t="n">
-        <v>4.206477732793522</v>
-      </c>
-      <c r="F136" t="n">
-        <v>116.416259179417</v>
-      </c>
-      <c r="G136" t="n">
         <v>42.41058648953386</v>
       </c>
     </row>
@@ -3574,22 +3024,18 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>3304557005007</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3304557005007</t>
+        </is>
       </c>
       <c r="C137" t="n">
-        <v>0.5271629778672032</v>
+        <v>4.627766599597585</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1891348088531187</v>
+        <v>119.5565165887097</v>
       </c>
       <c r="E137" t="n">
-        <v>4.627766599597585</v>
-      </c>
-      <c r="F137" t="n">
-        <v>119.5565165887097</v>
-      </c>
-      <c r="G137" t="n">
         <v>38.71185264545425</v>
       </c>
     </row>
@@ -3597,22 +3043,18 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>3304557005008</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>3304557005008</t>
+        </is>
       </c>
       <c r="C138" t="n">
-        <v>0.6144578313253012</v>
+        <v>5.542168674698795</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2289156626506024</v>
+        <v>129.2983845694689</v>
       </c>
       <c r="E138" t="n">
-        <v>5.542168674698795</v>
-      </c>
-      <c r="F138" t="n">
-        <v>129.2983845694689</v>
-      </c>
-      <c r="G138" t="n">
         <v>46.36165931346654</v>
       </c>
     </row>
@@ -3620,22 +3062,18 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>3304557005009</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>3304557005009</t>
+        </is>
       </c>
       <c r="C139" t="n">
-        <v>0.4407484407484408</v>
+        <v>3.781704781704782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1808731808731808</v>
+        <v>134.7746097746098</v>
       </c>
       <c r="E139" t="n">
-        <v>3.781704781704782</v>
-      </c>
-      <c r="F139" t="n">
-        <v>134.7746097746098</v>
-      </c>
-      <c r="G139" t="n">
         <v>56.19245619245618</v>
       </c>
     </row>
@@ -3643,22 +3081,18 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
-        <v>3304557005010</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3304557005010</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>0.5903614457831325</v>
+        <v>4.947791164658635</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2269076305220883</v>
+        <v>137.61141246081</v>
       </c>
       <c r="E140" t="n">
-        <v>4.947791164658635</v>
-      </c>
-      <c r="F140" t="n">
-        <v>137.61141246081</v>
-      </c>
-      <c r="G140" t="n">
         <v>49.60737611340019</v>
       </c>
     </row>
@@ -3666,22 +3100,18 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>3304557005011</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>3304557005011</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>0.4054054054054054</v>
+        <v>3.796257796257797</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1351351351351351</v>
+        <v>124.2789492789493</v>
       </c>
       <c r="E141" t="n">
-        <v>3.796257796257797</v>
-      </c>
-      <c r="F141" t="n">
-        <v>124.2789492789493</v>
-      </c>
-      <c r="G141" t="n">
         <v>44.17879417879418</v>
       </c>
     </row>
@@ -3689,22 +3119,18 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>3304557005012</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>3304557005012</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>0.4746450304259635</v>
+        <v>3.941176470588236</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1663286004056795</v>
+        <v>140.9906073192078</v>
       </c>
       <c r="E142" t="n">
-        <v>3.941176470588236</v>
-      </c>
-      <c r="F142" t="n">
-        <v>140.9906073192078</v>
-      </c>
-      <c r="G142" t="n">
         <v>49.77542741234426</v>
       </c>
     </row>
@@ -3712,22 +3138,18 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>3304557005013</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>3304557005013</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>0.5212981744421906</v>
+        <v>3.997971602434077</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2028397565922921</v>
+        <v>147.9055990212176</v>
       </c>
       <c r="E143" t="n">
-        <v>3.997971602434077</v>
-      </c>
-      <c r="F143" t="n">
-        <v>147.9055990212176</v>
-      </c>
-      <c r="G143" t="n">
         <v>58.52087961621427</v>
       </c>
     </row>
@@ -3735,22 +3157,18 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
-        <v>3304557005014</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>3304557005014</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>0.4787878787878787</v>
+        <v>4.862626262626263</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1959595959595959</v>
+        <v>109.3766671039398</v>
       </c>
       <c r="E144" t="n">
-        <v>4.862626262626263</v>
-      </c>
-      <c r="F144" t="n">
-        <v>109.3766671039398</v>
-      </c>
-      <c r="G144" t="n">
         <v>43.65735274826185</v>
       </c>
     </row>
@@ -3758,22 +3176,18 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
-        <v>3304557005015</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3304557005015</t>
+        </is>
       </c>
       <c r="C145" t="n">
-        <v>0.4939024390243902</v>
+        <v>4.237804878048781</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1869918699186991</v>
+        <v>135.778810169054</v>
       </c>
       <c r="E145" t="n">
-        <v>4.237804878048781</v>
-      </c>
-      <c r="F145" t="n">
-        <v>135.778810169054</v>
-      </c>
-      <c r="G145" t="n">
         <v>51.03319783197831</v>
       </c>
     </row>
@@ -3781,22 +3195,18 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
-        <v>3304557005016</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3304557005016</t>
+        </is>
       </c>
       <c r="C146" t="n">
-        <v>0.5201612903225806</v>
+        <v>4.405241935483871</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1955645161290322</v>
+        <v>125.7163367546432</v>
       </c>
       <c r="E146" t="n">
-        <v>4.405241935483871</v>
-      </c>
-      <c r="F146" t="n">
-        <v>125.7163367546432</v>
-      </c>
-      <c r="G146" t="n">
         <v>49.20154889912955</v>
       </c>
     </row>
@@ -3804,22 +3214,18 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>3304557005017</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>3304557005017</t>
+        </is>
       </c>
       <c r="C147" t="n">
-        <v>0.4224489795918367</v>
+        <v>4.053061224489796</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1448979591836734</v>
+        <v>111.2812527608446</v>
       </c>
       <c r="E147" t="n">
-        <v>4.053061224489796</v>
-      </c>
-      <c r="F147" t="n">
-        <v>111.2812527608446</v>
-      </c>
-      <c r="G147" t="n">
         <v>40.74829931972788</v>
       </c>
     </row>
@@ -3827,22 +3233,18 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
-        <v>3304557005018</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3304557005018</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>0.3602484472049689</v>
+        <v>3.590062111801242</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1407867494824016</v>
+        <v>120.7648803922096</v>
       </c>
       <c r="E148" t="n">
-        <v>3.590062111801242</v>
-      </c>
-      <c r="F148" t="n">
-        <v>120.7648803922096</v>
-      </c>
-      <c r="G148" t="n">
         <v>50.89896301076425</v>
       </c>
     </row>
@@ -3850,22 +3252,18 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
-        <v>3304557005019</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>3304557005019</t>
+        </is>
       </c>
       <c r="C149" t="n">
-        <v>0.4498977505112474</v>
+        <v>3.948875255623722</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1533742331288343</v>
+        <v>124.4208813227218</v>
       </c>
       <c r="E149" t="n">
-        <v>3.948875255623722</v>
-      </c>
-      <c r="F149" t="n">
-        <v>124.4208813227218</v>
-      </c>
-      <c r="G149" t="n">
         <v>44.18240246461105</v>
       </c>
     </row>
@@ -3873,22 +3271,18 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
-        <v>3304557005020</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>3304557005020</t>
+        </is>
       </c>
       <c r="C150" t="n">
-        <v>0.4225941422594142</v>
+        <v>3.761506276150628</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1234309623430962</v>
+        <v>126.6769608819818</v>
       </c>
       <c r="E150" t="n">
-        <v>3.761506276150628</v>
-      </c>
-      <c r="F150" t="n">
-        <v>126.6769608819818</v>
-      </c>
-      <c r="G150" t="n">
         <v>37.09155210201234</v>
       </c>
     </row>
@@ -3896,22 +3290,18 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
-        <v>3304557005021</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>3304557005021</t>
+        </is>
       </c>
       <c r="C151" t="n">
-        <v>0.4569672131147541</v>
+        <v>3.907786885245902</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1721311475409836</v>
+        <v>130.6368722352329</v>
       </c>
       <c r="E151" t="n">
-        <v>3.907786885245902</v>
-      </c>
-      <c r="F151" t="n">
-        <v>130.6368722352329</v>
-      </c>
-      <c r="G151" t="n">
         <v>52.0353564923237</v>
       </c>
     </row>
@@ -3919,22 +3309,18 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>3304557005022</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3304557005022</t>
+        </is>
       </c>
       <c r="C152" t="n">
-        <v>0.4154786150712831</v>
+        <v>3.967413441955193</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1405295315682281</v>
+        <v>118.2095908165155</v>
       </c>
       <c r="E152" t="n">
-        <v>3.967413441955193</v>
-      </c>
-      <c r="F152" t="n">
-        <v>118.2095908165155</v>
-      </c>
-      <c r="G152" t="n">
         <v>43.50539141781504</v>
       </c>
     </row>
@@ -3942,22 +3328,18 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>3304557005023</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>3304557005023</t>
+        </is>
       </c>
       <c r="C153" t="n">
-        <v>0.5607287449392713</v>
+        <v>4.957489878542511</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2085020242914979</v>
+        <v>125.9470792365529</v>
       </c>
       <c r="E153" t="n">
-        <v>4.957489878542511</v>
-      </c>
-      <c r="F153" t="n">
-        <v>125.9470792365529</v>
-      </c>
-      <c r="G153" t="n">
         <v>43.16881948460895</v>
       </c>
     </row>
@@ -3965,22 +3347,18 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
-        <v>3304557005024</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>3304557005024</t>
+        </is>
       </c>
       <c r="C154" t="n">
-        <v>0.4414784394250513</v>
+        <v>3.901437371663244</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1786447638603696</v>
+        <v>126.8407898284695</v>
       </c>
       <c r="E154" t="n">
-        <v>3.901437371663244</v>
-      </c>
-      <c r="F154" t="n">
-        <v>126.8407898284695</v>
-      </c>
-      <c r="G154" t="n">
         <v>49.8265138922223</v>
       </c>
     </row>
@@ -3988,22 +3366,18 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>3304557005025</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>3304557005025</t>
+        </is>
       </c>
       <c r="C155" t="n">
-        <v>0.5182926829268293</v>
+        <v>4.113821138211383</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1788617886178861</v>
+        <v>141.0779035779036</v>
       </c>
       <c r="E155" t="n">
-        <v>4.113821138211383</v>
-      </c>
-      <c r="F155" t="n">
-        <v>141.0779035779036</v>
-      </c>
-      <c r="G155" t="n">
         <v>46.89725360457066</v>
       </c>
     </row>
@@ -4011,22 +3385,18 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>3304557005026</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>3304557005026</t>
+        </is>
       </c>
       <c r="C156" t="n">
-        <v>0.5757575757575758</v>
+        <v>4.878787878787879</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2202020202020202</v>
+        <v>131.0471963502266</v>
       </c>
       <c r="E156" t="n">
-        <v>4.878787878787879</v>
-      </c>
-      <c r="F156" t="n">
-        <v>131.0471963502266</v>
-      </c>
-      <c r="G156" t="n">
         <v>53.05916305916305</v>
       </c>
     </row>
@@ -4034,22 +3404,18 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>3304557005027</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>3304557005027</t>
+        </is>
       </c>
       <c r="C157" t="n">
-        <v>0.6133603238866396</v>
+        <v>4.92914979757085</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1963562753036437</v>
+        <v>131.3470155575418</v>
       </c>
       <c r="E157" t="n">
-        <v>4.92914979757085</v>
-      </c>
-      <c r="F157" t="n">
-        <v>131.3470155575418</v>
-      </c>
-      <c r="G157" t="n">
         <v>42.47404642141483</v>
       </c>
     </row>
@@ -4057,22 +3423,18 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
-        <v>3304557005028</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>3304557005028</t>
+        </is>
       </c>
       <c r="C158" t="n">
-        <v>0.4037267080745341</v>
+        <v>3.770186335403727</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1180124223602484</v>
+        <v>122.764468106083</v>
       </c>
       <c r="E158" t="n">
-        <v>3.770186335403727</v>
-      </c>
-      <c r="F158" t="n">
-        <v>122.764468106083</v>
-      </c>
-      <c r="G158" t="n">
         <v>36.48328896776103</v>
       </c>
     </row>
@@ -4080,22 +3442,18 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
-        <v>3304557005029</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>3304557005029</t>
+        </is>
       </c>
       <c r="C159" t="n">
-        <v>0.6398390342052314</v>
+        <v>5.277665995975855</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2313883299798792</v>
+        <v>134.8449951568664</v>
       </c>
       <c r="E159" t="n">
-        <v>5.277665995975855</v>
-      </c>
-      <c r="F159" t="n">
-        <v>134.8449951568664</v>
-      </c>
-      <c r="G159" t="n">
         <v>45.28444950980161</v>
       </c>
     </row>
@@ -4103,22 +3461,18 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
-        <v>3304557005030</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3304557005030</t>
+        </is>
       </c>
       <c r="C160" t="n">
-        <v>0.5728744939271255</v>
+        <v>4.813765182186235</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2085020242914979</v>
+        <v>132.3663178926336</v>
       </c>
       <c r="E160" t="n">
-        <v>4.813765182186235</v>
-      </c>
-      <c r="F160" t="n">
-        <v>132.3663178926336</v>
-      </c>
-      <c r="G160" t="n">
         <v>47.73873787031681</v>
       </c>
     </row>
@@ -4126,22 +3480,18 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
-        <v>3304557005031</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>3304557005031</t>
+        </is>
       </c>
       <c r="C161" t="n">
-        <v>0.6032064128256514</v>
+        <v>5.114228456913827</v>
       </c>
       <c r="D161" t="n">
-        <v>0.250501002004008</v>
+        <v>127.5678340808601</v>
       </c>
       <c r="E161" t="n">
-        <v>5.114228456913827</v>
-      </c>
-      <c r="F161" t="n">
-        <v>127.5678340808601</v>
-      </c>
-      <c r="G161" t="n">
         <v>53.92451569806278</v>
       </c>
     </row>
@@ -4149,22 +3499,18 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
-        <v>3304557005032</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3304557005032</t>
+        </is>
       </c>
       <c r="C162" t="n">
-        <v>0.4462809917355372</v>
+        <v>4.099173553719008</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1590909090909091</v>
+        <v>121.1760461760462</v>
       </c>
       <c r="E162" t="n">
-        <v>4.099173553719008</v>
-      </c>
-      <c r="F162" t="n">
-        <v>121.1760461760462</v>
-      </c>
-      <c r="G162" t="n">
         <v>45.0839564475928</v>
       </c>
     </row>
@@ -4172,22 +3518,18 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>3304557005033</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>3304557005033</t>
+        </is>
       </c>
       <c r="C163" t="n">
-        <v>0.4691358024691358</v>
+        <v>3.967078189300412</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1748971193415638</v>
+        <v>127.6455026455027</v>
       </c>
       <c r="E163" t="n">
-        <v>3.967078189300412</v>
-      </c>
-      <c r="F163" t="n">
-        <v>127.6455026455027</v>
-      </c>
-      <c r="G163" t="n">
         <v>49.30514729897444</v>
       </c>
     </row>
@@ -4195,22 +3537,18 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
-        <v>3304557005034</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>3304557005034</t>
+        </is>
       </c>
       <c r="C164" t="n">
-        <v>0.4939516129032258</v>
+        <v>4.159274193548387</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1653225806451612</v>
+        <v>136.50633640553</v>
       </c>
       <c r="E164" t="n">
-        <v>4.159274193548387</v>
-      </c>
-      <c r="F164" t="n">
-        <v>136.50633640553</v>
-      </c>
-      <c r="G164" t="n">
         <v>43.2627688172043</v>
       </c>
     </row>
@@ -4218,22 +3556,18 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
-        <v>3304557005035</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3304557005035</t>
+        </is>
       </c>
       <c r="C165" t="n">
-        <v>0.3405639913232104</v>
+        <v>3.021691973969632</v>
       </c>
       <c r="D165" t="n">
-        <v>0.106290672451193</v>
+        <v>128.8348311124884</v>
       </c>
       <c r="E165" t="n">
-        <v>3.021691973969632</v>
-      </c>
-      <c r="F165" t="n">
-        <v>128.8348311124884</v>
-      </c>
-      <c r="G165" t="n">
         <v>40.3470715835141</v>
       </c>
     </row>
@@ -4241,22 +3575,18 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
-        <v>3304557005036</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>3304557005036</t>
+        </is>
       </c>
       <c r="C166" t="n">
-        <v>0.3155650319829424</v>
+        <v>2.993603411513859</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1194029850746268</v>
+        <v>123.5455376180323</v>
       </c>
       <c r="E166" t="n">
-        <v>2.993603411513859</v>
-      </c>
-      <c r="F166" t="n">
-        <v>123.5455376180323</v>
-      </c>
-      <c r="G166" t="n">
         <v>49.14712153518124</v>
       </c>
     </row>
@@ -4264,22 +3594,18 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
-        <v>3304557005037</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>3304557005037</t>
+        </is>
       </c>
       <c r="C167" t="n">
-        <v>0.3713080168776371</v>
+        <v>3.151898734177215</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1350210970464135</v>
+        <v>128.6668675909183</v>
       </c>
       <c r="E167" t="n">
-        <v>3.151898734177215</v>
-      </c>
-      <c r="F167" t="n">
-        <v>128.6668675909183</v>
-      </c>
-      <c r="G167" t="n">
         <v>52.61954992967652</v>
       </c>
     </row>
@@ -4287,22 +3613,18 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
-        <v>3304557005038</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>3304557005038</t>
+        </is>
       </c>
       <c r="C168" t="n">
-        <v>0.3805496828752642</v>
+        <v>3.283298097251586</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1374207188160676</v>
+        <v>124.7491526561294</v>
       </c>
       <c r="E168" t="n">
-        <v>3.283298097251586</v>
-      </c>
-      <c r="F168" t="n">
-        <v>124.7491526561294</v>
-      </c>
-      <c r="G168" t="n">
         <v>45.91513138024767</v>
       </c>
     </row>
@@ -4310,22 +3632,18 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>3304557005039</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>3304557005039</t>
+        </is>
       </c>
       <c r="C169" t="n">
-        <v>0.2792207792207792</v>
+        <v>2.779220779220779</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0995670995670995</v>
+        <v>122.8973407544836</v>
       </c>
       <c r="E169" t="n">
-        <v>2.779220779220779</v>
-      </c>
-      <c r="F169" t="n">
-        <v>122.8973407544836</v>
-      </c>
-      <c r="G169" t="n">
         <v>44.57328385899814</v>
       </c>
     </row>
@@ -4333,22 +3651,18 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>3304557005040</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>3304557005040</t>
+        </is>
       </c>
       <c r="C170" t="n">
-        <v>0.2943722943722944</v>
+        <v>2.948051948051948</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1298701298701298</v>
+        <v>117.0686456400742</v>
       </c>
       <c r="E170" t="n">
-        <v>2.948051948051948</v>
-      </c>
-      <c r="F170" t="n">
-        <v>117.0686456400742</v>
-      </c>
-      <c r="G170" t="n">
         <v>50.99464028035455</v>
       </c>
     </row>
@@ -4356,22 +3670,18 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>3304557005041</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>3304557005041</t>
+        </is>
       </c>
       <c r="C171" t="n">
-        <v>0.4525252525252525</v>
+        <v>3.870707070707071</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1595959595959596</v>
+        <v>137.8050344717012</v>
       </c>
       <c r="E171" t="n">
-        <v>3.870707070707071</v>
-      </c>
-      <c r="F171" t="n">
-        <v>137.8050344717012</v>
-      </c>
-      <c r="G171" t="n">
         <v>46.53278819945486</v>
       </c>
     </row>
@@ -4379,22 +3689,18 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
-        <v>3304557005042</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>3304557005042</t>
+        </is>
       </c>
       <c r="C172" t="n">
-        <v>0.2884615384615384</v>
+        <v>2.83974358974359</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0918803418803418</v>
+        <v>116.4631664631665</v>
       </c>
       <c r="E172" t="n">
-        <v>2.83974358974359</v>
-      </c>
-      <c r="F172" t="n">
-        <v>116.4631664631665</v>
-      </c>
-      <c r="G172" t="n">
         <v>38.21225071225072</v>
       </c>
     </row>
@@ -4402,22 +3708,18 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>3304557005043</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>3304557005043</t>
+        </is>
       </c>
       <c r="C173" t="n">
-        <v>0.3924050632911392</v>
+        <v>3.571729957805907</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1434599156118143</v>
+        <v>129.3575447056459</v>
       </c>
       <c r="E173" t="n">
-        <v>3.571729957805907</v>
-      </c>
-      <c r="F173" t="n">
-        <v>129.3575447056459</v>
-      </c>
-      <c r="G173" t="n">
         <v>47.35031143258992</v>
       </c>
     </row>
@@ -4425,22 +3727,18 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
-        <v>3304557005044</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>3304557005044</t>
+        </is>
       </c>
       <c r="C174" t="n">
-        <v>0.38125</v>
+        <v>3.51875</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1354166666666666</v>
+        <v>126.5575396825397</v>
       </c>
       <c r="E174" t="n">
-        <v>3.51875</v>
-      </c>
-      <c r="F174" t="n">
-        <v>126.5575396825397</v>
-      </c>
-      <c r="G174" t="n">
         <v>43.75496031746032</v>
       </c>
     </row>
@@ -4448,22 +3746,18 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
-        <v>3304557005045</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>3304557005045</t>
+        </is>
       </c>
       <c r="C175" t="n">
-        <v>0.4073319755600815</v>
+        <v>4.132382892057026</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1405295315682281</v>
+        <v>108.6242847444477</v>
       </c>
       <c r="E175" t="n">
-        <v>4.132382892057026</v>
-      </c>
-      <c r="F175" t="n">
-        <v>108.6242847444477</v>
-      </c>
-      <c r="G175" t="n">
         <v>38.81776743283872</v>
       </c>
     </row>
@@ -4471,22 +3765,18 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
-        <v>3304557005046</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>3304557005046</t>
+        </is>
       </c>
       <c r="C176" t="n">
-        <v>0.3954451345755693</v>
+        <v>3.403726708074534</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1366459627329192</v>
+        <v>133.6167800453515</v>
       </c>
       <c r="E176" t="n">
-        <v>3.403726708074534</v>
-      </c>
-      <c r="F176" t="n">
-        <v>133.6167800453515</v>
-      </c>
-      <c r="G176" t="n">
         <v>46.15251897860594</v>
       </c>
     </row>
@@ -4494,22 +3784,18 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
-        <v>3304557005047</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>3304557005047</t>
+        </is>
       </c>
       <c r="C177" t="n">
-        <v>0.7773279352226721</v>
+        <v>6.038461538461538</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2854251012145749</v>
+        <v>143.8920616046122</v>
       </c>
       <c r="E177" t="n">
-        <v>6.038461538461538</v>
-      </c>
-      <c r="F177" t="n">
-        <v>143.8920616046122</v>
-      </c>
-      <c r="G177" t="n">
         <v>50.11493791858161</v>
       </c>
     </row>
@@ -4517,22 +3803,18 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
-        <v>3304557005048</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>3304557005048</t>
+        </is>
       </c>
       <c r="C178" t="n">
-        <v>0.3236514522821577</v>
+        <v>3.589211618257261</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1224066390041493</v>
+        <v>100.2222880853586</v>
       </c>
       <c r="E178" t="n">
-        <v>3.589211618257261</v>
-      </c>
-      <c r="F178" t="n">
-        <v>100.2222880853586</v>
-      </c>
-      <c r="G178" t="n">
         <v>38.9201738786801</v>
       </c>
     </row>
@@ -4540,22 +3822,18 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
-        <v>3304557005049</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>3304557005049</t>
+        </is>
       </c>
       <c r="C179" t="n">
-        <v>0.3278008298755187</v>
+        <v>3.16804979253112</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1348547717842323</v>
+        <v>111.4157281169729</v>
       </c>
       <c r="E179" t="n">
-        <v>3.16804979253112</v>
-      </c>
-      <c r="F179" t="n">
-        <v>111.4157281169729</v>
-      </c>
-      <c r="G179" t="n">
         <v>45.14424026872158</v>
       </c>
     </row>
@@ -4563,22 +3841,18 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
-        <v>3304557005050</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>3304557005050</t>
+        </is>
       </c>
       <c r="C180" t="n">
-        <v>0.3432203389830508</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1101694915254237</v>
+        <v>131.1608824320689</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
-      </c>
-      <c r="F180" t="n">
-        <v>131.1608824320689</v>
-      </c>
-      <c r="G180" t="n">
         <v>40.2710519235943</v>
       </c>
     </row>
@@ -4586,22 +3860,18 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
-        <v>3304557005051</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>3304557005051</t>
+        </is>
       </c>
       <c r="C181" t="n">
-        <v>0.4769539078156312</v>
+        <v>4.83567134268537</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1843687374749499</v>
+        <v>115.9565885016787</v>
       </c>
       <c r="E181" t="n">
-        <v>4.83567134268537</v>
-      </c>
-      <c r="F181" t="n">
-        <v>115.9565885016787</v>
-      </c>
-      <c r="G181" t="n">
         <v>47.70739169536763</v>
       </c>
     </row>
@@ -4609,22 +3879,18 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
-        <v>3304557005052</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>3304557005052</t>
+        </is>
       </c>
       <c r="C182" t="n">
-        <v>0.3862212943632568</v>
+        <v>3.200417536534447</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1398747390396659</v>
+        <v>135.2743811512079</v>
       </c>
       <c r="E182" t="n">
-        <v>3.200417536534447</v>
-      </c>
-      <c r="F182" t="n">
-        <v>135.2743811512079</v>
-      </c>
-      <c r="G182" t="n">
         <v>47.20648175762997</v>
       </c>
     </row>
@@ -4632,22 +3898,18 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
-        <v>3304557005053</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>3304557005053</t>
+        </is>
       </c>
       <c r="C183" t="n">
-        <v>0.3348314606741573</v>
+        <v>2.779775280898876</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1303370786516854</v>
+        <v>131.4285714285715</v>
       </c>
       <c r="E183" t="n">
-        <v>2.779775280898876</v>
-      </c>
-      <c r="F183" t="n">
-        <v>131.4285714285715</v>
-      </c>
-      <c r="G183" t="n">
         <v>54.25361155698234</v>
       </c>
     </row>
@@ -4655,22 +3917,18 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
-        <v>3304557005054</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>3304557005054</t>
+        </is>
       </c>
       <c r="C184" t="n">
-        <v>0.3773987206823028</v>
+        <v>3.104477611940299</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1172707889125799</v>
+        <v>144.3902934308051</v>
       </c>
       <c r="E184" t="n">
-        <v>3.104477611940299</v>
-      </c>
-      <c r="F184" t="n">
-        <v>144.3902934308051</v>
-      </c>
-      <c r="G184" t="n">
         <v>42.30632551528073</v>
       </c>
     </row>
@@ -4678,22 +3936,18 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
-        <v>3304557005055</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>3304557005055</t>
+        </is>
       </c>
       <c r="C185" t="n">
-        <v>0.3189300411522633</v>
+        <v>3.331275720164609</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1172839506172839</v>
+        <v>117.8791887125221</v>
       </c>
       <c r="E185" t="n">
-        <v>3.331275720164609</v>
-      </c>
-      <c r="F185" t="n">
-        <v>117.8791887125221</v>
-      </c>
-      <c r="G185" t="n">
         <v>43.98638056045464</v>
       </c>
     </row>
@@ -4701,22 +3955,18 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>3304557005056</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>3304557005056</t>
+        </is>
       </c>
       <c r="C186" t="n">
-        <v>0.4826175869120654</v>
+        <v>4.07361963190184</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1697341513292433</v>
+        <v>128.8514711827596</v>
       </c>
       <c r="E186" t="n">
-        <v>4.07361963190184</v>
-      </c>
-      <c r="F186" t="n">
-        <v>128.8514711827596</v>
-      </c>
-      <c r="G186" t="n">
         <v>46.92366256783433</v>
       </c>
     </row>
@@ -4724,22 +3974,18 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
-        <v>3304557005057</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>3304557005057</t>
+        </is>
       </c>
       <c r="C187" t="n">
-        <v>0.3929313929313929</v>
+        <v>3.536382536382536</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1517671517671517</v>
+        <v>141.0974160974161</v>
       </c>
       <c r="E187" t="n">
-        <v>3.536382536382536</v>
-      </c>
-      <c r="F187" t="n">
-        <v>141.0974160974161</v>
-      </c>
-      <c r="G187" t="n">
         <v>48.28317328317328</v>
       </c>
     </row>
@@ -4747,22 +3993,18 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
-        <v>3304557005058</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>3304557005058</t>
+        </is>
       </c>
       <c r="C188" t="n">
-        <v>0.3484536082474226</v>
+        <v>3.558762886597938</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1092783505154639</v>
+        <v>122.5383608373299</v>
       </c>
       <c r="E188" t="n">
-        <v>3.558762886597938</v>
-      </c>
-      <c r="F188" t="n">
-        <v>122.5383608373299</v>
-      </c>
-      <c r="G188" t="n">
         <v>42.73768613974799</v>
       </c>
     </row>
@@ -4770,22 +4012,18 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
-        <v>3304557005059</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>3304557005059</t>
+        </is>
       </c>
       <c r="C189" t="n">
-        <v>0.5387755102040817</v>
+        <v>4.361224489795919</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2081632653061224</v>
+        <v>132.3615896575081</v>
       </c>
       <c r="E189" t="n">
-        <v>4.361224489795919</v>
-      </c>
-      <c r="F189" t="n">
-        <v>132.3615896575081</v>
-      </c>
-      <c r="G189" t="n">
         <v>50.31746031746029</v>
       </c>
     </row>
@@ -4793,22 +4031,18 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
-        <v>3304557005060</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>3304557005060</t>
+        </is>
       </c>
       <c r="C190" t="n">
-        <v>0.4867075664621677</v>
+        <v>4.388548057259714</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1860940695296523</v>
+        <v>124.6706769712904</v>
       </c>
       <c r="E190" t="n">
-        <v>4.388548057259714</v>
-      </c>
-      <c r="F190" t="n">
-        <v>124.6706769712904</v>
-      </c>
-      <c r="G190" t="n">
         <v>44.21892013916552</v>
       </c>
     </row>
@@ -4816,22 +4050,18 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
-        <v>3304557005061</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>3304557005061</t>
+        </is>
       </c>
       <c r="C191" t="n">
-        <v>0.2683438155136268</v>
+        <v>3.29769392033543</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1236897274633123</v>
+        <v>95.49266247379454</v>
       </c>
       <c r="E191" t="n">
-        <v>3.29769392033543</v>
-      </c>
-      <c r="F191" t="n">
-        <v>95.49266247379454</v>
-      </c>
-      <c r="G191" t="n">
         <v>40.41379654587202</v>
       </c>
     </row>
@@ -4839,22 +4069,18 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
-        <v>3304557005062</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>3304557005062</t>
+        </is>
       </c>
       <c r="C192" t="n">
-        <v>0.3169734151329243</v>
+        <v>3.631901840490797</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1288343558282208</v>
+        <v>94.67085402668221</v>
       </c>
       <c r="E192" t="n">
-        <v>3.631901840490797</v>
-      </c>
-      <c r="F192" t="n">
-        <v>94.67085402668221</v>
-      </c>
-      <c r="G192" t="n">
         <v>41.48407829389424</v>
       </c>
     </row>
@@ -4862,22 +4088,18 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
-        <v>3304557005063</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>3304557005063</t>
+        </is>
       </c>
       <c r="C193" t="n">
-        <v>0.4493927125506073</v>
+        <v>4.038461538461538</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1356275303643724</v>
+        <v>138.8422980528244</v>
       </c>
       <c r="E193" t="n">
-        <v>4.038461538461538</v>
-      </c>
-      <c r="F193" t="n">
-        <v>138.8422980528244</v>
-      </c>
-      <c r="G193" t="n">
         <v>45.85823533191954</v>
       </c>
     </row>
@@ -4885,22 +4107,18 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
-        <v>3304557005064</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>3304557005064</t>
+        </is>
       </c>
       <c r="C194" t="n">
-        <v>0.5931174089068826</v>
+        <v>4.908906882591094</v>
       </c>
       <c r="D194" t="n">
-        <v>0.228744939271255</v>
+        <v>134.0577775800447</v>
       </c>
       <c r="E194" t="n">
-        <v>4.908906882591094</v>
-      </c>
-      <c r="F194" t="n">
-        <v>134.0577775800447</v>
-      </c>
-      <c r="G194" t="n">
         <v>56.52994666152557</v>
       </c>
     </row>
@@ -4908,22 +4126,18 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
-        <v>3304557005065</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>3304557005065</t>
+        </is>
       </c>
       <c r="C195" t="n">
-        <v>0.3104166666666667</v>
+        <v>3.397916666666667</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1083333333333333</v>
+        <v>104.1699735449736</v>
       </c>
       <c r="E195" t="n">
-        <v>3.397916666666667</v>
-      </c>
-      <c r="F195" t="n">
-        <v>104.1699735449736</v>
-      </c>
-      <c r="G195" t="n">
         <v>32.275958994709</v>
       </c>
     </row>
@@ -4931,22 +4145,18 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
-        <v>3304557005066</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>3304557005066</t>
+        </is>
       </c>
       <c r="C196" t="n">
-        <v>0.593186372745491</v>
+        <v>5.58316633266533</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1643286573146292</v>
+        <v>113.8531753261211</v>
       </c>
       <c r="E196" t="n">
-        <v>5.58316633266533</v>
-      </c>
-      <c r="F196" t="n">
-        <v>113.8531753261211</v>
-      </c>
-      <c r="G196" t="n">
         <v>30.05364986827912</v>
       </c>
     </row>
@@ -4954,22 +4164,18 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
-        <v>3304557005067</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>3304557005067</t>
+        </is>
       </c>
       <c r="C197" t="n">
-        <v>0.6733466933867736</v>
+        <v>5.370741482965932</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2164328657314629</v>
+        <v>133.8037268898993</v>
       </c>
       <c r="E197" t="n">
-        <v>5.370741482965932</v>
-      </c>
-      <c r="F197" t="n">
-        <v>133.8037268898993</v>
-      </c>
-      <c r="G197" t="n">
         <v>39.75008514086669</v>
       </c>
     </row>
@@ -4977,22 +4183,18 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
-        <v>3304557005068</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>3304557005068</t>
+        </is>
       </c>
       <c r="C198" t="n">
-        <v>0.5311871227364185</v>
+        <v>4.826961770623742</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1911468812877263</v>
+        <v>129.2254246982617</v>
       </c>
       <c r="E198" t="n">
-        <v>4.826961770623742</v>
-      </c>
-      <c r="F198" t="n">
-        <v>129.2254246982617</v>
-      </c>
-      <c r="G198" t="n">
         <v>47.64147656501781</v>
       </c>
     </row>
@@ -5000,22 +4202,18 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
-        <v>3304557005069</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>3304557005069</t>
+        </is>
       </c>
       <c r="C199" t="n">
-        <v>0.6152304609218436</v>
+        <v>4.741482965931864</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1943887775551102</v>
+        <v>151.4109026133073</v>
       </c>
       <c r="E199" t="n">
-        <v>4.741482965931864</v>
-      </c>
-      <c r="F199" t="n">
-        <v>151.4109026133073</v>
-      </c>
-      <c r="G199" t="n">
         <v>49.46162165601042</v>
       </c>
     </row>
@@ -5023,22 +4221,18 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
-        <v>3304557005070</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>3304557005070</t>
+        </is>
       </c>
       <c r="C200" t="n">
-        <v>0.3078556263269639</v>
+        <v>3.335456475583864</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0891719745222929</v>
+        <v>118.372763117986</v>
       </c>
       <c r="E200" t="n">
-        <v>3.335456475583864</v>
-      </c>
-      <c r="F200" t="n">
-        <v>118.372763117986</v>
-      </c>
-      <c r="G200" t="n">
         <v>34.15225962996664</v>
       </c>
     </row>
@@ -5046,22 +4240,18 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
-        <v>3304557005071</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>3304557005071</t>
+        </is>
       </c>
       <c r="C201" t="n">
-        <v>0.4847870182555781</v>
+        <v>4.401622718052739</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1622718052738336</v>
+        <v>124.9638517894096</v>
       </c>
       <c r="E201" t="n">
-        <v>4.401622718052739</v>
-      </c>
-      <c r="F201" t="n">
-        <v>124.9638517894096</v>
-      </c>
-      <c r="G201" t="n">
         <v>41.65861746997648</v>
       </c>
     </row>
@@ -5069,22 +4259,18 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
-        <v>3304557005072</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>3304557005072</t>
+        </is>
       </c>
       <c r="C202" t="n">
-        <v>0.4508196721311475</v>
+        <v>3.522540983606557</v>
       </c>
       <c r="D202" t="n">
-        <v>0.1618852459016393</v>
+        <v>143.7817135050742</v>
       </c>
       <c r="E202" t="n">
-        <v>3.522540983606557</v>
-      </c>
-      <c r="F202" t="n">
-        <v>143.7817135050742</v>
-      </c>
-      <c r="G202" t="n">
         <v>50.20735753317719</v>
       </c>
     </row>
@@ -5092,22 +4278,18 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
-        <v>3304557005073</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>3304557005073</t>
+        </is>
       </c>
       <c r="C203" t="n">
-        <v>0.6417004048582996</v>
+        <v>4.540485829959514</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2327935222672064</v>
+        <v>149.3163999742947</v>
       </c>
       <c r="E203" t="n">
-        <v>4.540485829959514</v>
-      </c>
-      <c r="F203" t="n">
-        <v>149.3163999742947</v>
-      </c>
-      <c r="G203" t="n">
         <v>55.02699055330635</v>
       </c>
     </row>
@@ -5115,22 +4297,18 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
-        <v>3304557005074</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>3304557005074</t>
+        </is>
       </c>
       <c r="C204" t="n">
-        <v>0.716</v>
+        <v>5.71</v>
       </c>
       <c r="D204" t="n">
-        <v>0.242</v>
+        <v>135.3284715284715</v>
       </c>
       <c r="E204" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F204" t="n">
-        <v>135.3284715284715</v>
-      </c>
-      <c r="G204" t="n">
         <v>46.0396325896326</v>
       </c>
     </row>
@@ -5138,22 +4316,18 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
-        <v>3304557005075</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>3304557005075</t>
+        </is>
       </c>
       <c r="C205" t="n">
-        <v>0.804</v>
+        <v>6.452</v>
       </c>
       <c r="D205" t="n">
-        <v>0.308</v>
+        <v>134.0134088134088</v>
       </c>
       <c r="E205" t="n">
-        <v>6.452</v>
-      </c>
-      <c r="F205" t="n">
-        <v>134.0134088134088</v>
-      </c>
-      <c r="G205" t="n">
         <v>52.80427905427902</v>
       </c>
     </row>
@@ -5161,22 +4335,18 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
-        <v>3304557005076</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>3304557005076</t>
+        </is>
       </c>
       <c r="C206" t="n">
-        <v>0.7168674698795181</v>
+        <v>6.002008032128514</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2751004016064257</v>
+        <v>134.5827421128626</v>
       </c>
       <c r="E206" t="n">
-        <v>6.002008032128514</v>
-      </c>
-      <c r="F206" t="n">
-        <v>134.5827421128626</v>
-      </c>
-      <c r="G206" t="n">
         <v>48.71773697074904</v>
       </c>
     </row>
@@ -5184,22 +4354,18 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
-        <v>3304557005077</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>3304557005077</t>
+        </is>
       </c>
       <c r="C207" t="n">
-        <v>0.4419551934826884</v>
+        <v>4.126272912423625</v>
       </c>
       <c r="D207" t="n">
-        <v>0.1588594704684317</v>
+        <v>118.2628584359746</v>
       </c>
       <c r="E207" t="n">
-        <v>4.126272912423625</v>
-      </c>
-      <c r="F207" t="n">
-        <v>118.2628584359746</v>
-      </c>
-      <c r="G207" t="n">
         <v>40.78653864804578</v>
       </c>
     </row>
@@ -5207,22 +4373,18 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
-        <v>3304557005078</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>3304557005078</t>
+        </is>
       </c>
       <c r="C208" t="n">
-        <v>0.4297352342158859</v>
+        <v>4.09979633401222</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1527494908350305</v>
+        <v>134.9085119451719</v>
       </c>
       <c r="E208" t="n">
-        <v>4.09979633401222</v>
-      </c>
-      <c r="F208" t="n">
-        <v>134.9085119451719</v>
-      </c>
-      <c r="G208" t="n">
         <v>46.76801474153816</v>
       </c>
     </row>
@@ -5230,22 +4392,18 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
-        <v>3304557005079</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>3304557005079</t>
+        </is>
       </c>
       <c r="C209" t="n">
-        <v>0.3786610878661088</v>
+        <v>3.53765690376569</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1401673640167364</v>
+        <v>113.6614199375706</v>
       </c>
       <c r="E209" t="n">
-        <v>3.53765690376569</v>
-      </c>
-      <c r="F209" t="n">
-        <v>113.6614199375706</v>
-      </c>
-      <c r="G209" t="n">
         <v>41.99292687786414</v>
       </c>
     </row>
@@ -5253,22 +4411,18 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
-        <v>3304557005080</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>3304557005080</t>
+        </is>
       </c>
       <c r="C210" t="n">
-        <v>0.6546184738955824</v>
+        <v>5.42570281124498</v>
       </c>
       <c r="D210" t="n">
-        <v>0.2349397590361445</v>
+        <v>139.1462676101231</v>
       </c>
       <c r="E210" t="n">
-        <v>5.42570281124498</v>
-      </c>
-      <c r="F210" t="n">
-        <v>139.1462676101231</v>
-      </c>
-      <c r="G210" t="n">
         <v>50.92831644036462</v>
       </c>
     </row>
@@ -5276,22 +4430,18 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
-        <v>3304557005081</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>3304557005081</t>
+        </is>
       </c>
       <c r="C211" t="n">
-        <v>0.6116700201207244</v>
+        <v>5.482897384305835</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1790744466800805</v>
+        <v>127.0368967049048</v>
       </c>
       <c r="E211" t="n">
-        <v>5.482897384305835</v>
-      </c>
-      <c r="F211" t="n">
-        <v>127.0368967049048</v>
-      </c>
-      <c r="G211" t="n">
         <v>35.92042877757164</v>
       </c>
     </row>
@@ -5299,22 +4449,18 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
-        <v>3304557005082</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>3304557005082</t>
+        </is>
       </c>
       <c r="C212" t="n">
-        <v>0.3677685950413223</v>
+        <v>3.570247933884298</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1136363636363636</v>
+        <v>118.0981896890988</v>
       </c>
       <c r="E212" t="n">
-        <v>3.570247933884298</v>
-      </c>
-      <c r="F212" t="n">
-        <v>118.0981896890988</v>
-      </c>
-      <c r="G212" t="n">
         <v>37.24747474747476</v>
       </c>
     </row>
@@ -5322,22 +4468,18 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
-        <v>3304557005083</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>3304557005083</t>
+        </is>
       </c>
       <c r="C213" t="n">
-        <v>0.6882591093117408</v>
+        <v>5.473684210526316</v>
       </c>
       <c r="D213" t="n">
-        <v>0.242914979757085</v>
+        <v>137.8140078544936</v>
       </c>
       <c r="E213" t="n">
-        <v>5.473684210526316</v>
-      </c>
-      <c r="F213" t="n">
-        <v>137.8140078544936</v>
-      </c>
-      <c r="G213" t="n">
         <v>49.15415780800394</v>
       </c>
     </row>
@@ -5345,22 +4487,18 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
-        <v>3304557005084</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>3304557005084</t>
+        </is>
       </c>
       <c r="C214" t="n">
-        <v>0.7670682730923695</v>
+        <v>6.265060240963855</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2951807228915662</v>
+        <v>133.1162200138104</v>
       </c>
       <c r="E214" t="n">
-        <v>6.265060240963855</v>
-      </c>
-      <c r="F214" t="n">
-        <v>133.1162200138104</v>
-      </c>
-      <c r="G214" t="n">
         <v>49.84171339593024</v>
       </c>
     </row>
@@ -5368,22 +4506,18 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
-        <v>3304557005085</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>3304557005085</t>
+        </is>
       </c>
       <c r="C215" t="n">
-        <v>0.3540372670807453</v>
+        <v>3.62111801242236</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1304347826086956</v>
+        <v>110.7151072989582</v>
       </c>
       <c r="E215" t="n">
-        <v>3.62111801242236</v>
-      </c>
-      <c r="F215" t="n">
-        <v>110.7151072989582</v>
-      </c>
-      <c r="G215" t="n">
         <v>40.90670084458903</v>
       </c>
     </row>
@@ -5391,22 +4525,18 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
-        <v>3304557005086</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>3304557005086</t>
+        </is>
       </c>
       <c r="C216" t="n">
-        <v>0.3451143451143451</v>
+        <v>3.411642411642412</v>
       </c>
       <c r="D216" t="n">
-        <v>0.1164241164241164</v>
+        <v>113.2891132891133</v>
       </c>
       <c r="E216" t="n">
-        <v>3.411642411642412</v>
-      </c>
-      <c r="F216" t="n">
-        <v>113.2891132891133</v>
-      </c>
-      <c r="G216" t="n">
         <v>41.84569184569184</v>
       </c>
     </row>
@@ -5414,22 +4544,18 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
-        <v>3304557005087</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>3304557005087</t>
+        </is>
       </c>
       <c r="C217" t="n">
-        <v>0.776</v>
+        <v>6.554</v>
       </c>
       <c r="D217" t="n">
-        <v>0.292</v>
+        <v>129.1141136641135</v>
       </c>
       <c r="E217" t="n">
-        <v>6.554</v>
-      </c>
-      <c r="F217" t="n">
-        <v>129.1141136641135</v>
-      </c>
-      <c r="G217" t="n">
         <v>48.16769896769897</v>
       </c>
     </row>
@@ -5437,22 +4563,18 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
-        <v>3304557005088</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>3304557005088</t>
+        </is>
       </c>
       <c r="C218" t="n">
-        <v>0.5584677419354839</v>
+        <v>4.774193548387097</v>
       </c>
       <c r="D218" t="n">
-        <v>0.1935483870967742</v>
+        <v>131.2472361867523</v>
       </c>
       <c r="E218" t="n">
-        <v>4.774193548387097</v>
-      </c>
-      <c r="F218" t="n">
-        <v>131.2472361867523</v>
-      </c>
-      <c r="G218" t="n">
         <v>43.31157194060419</v>
       </c>
     </row>
@@ -5460,22 +4582,18 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
-        <v>3304557005089</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>3304557005089</t>
+        </is>
       </c>
       <c r="C219" t="n">
-        <v>0.6217303822937625</v>
+        <v>5.835010060362173</v>
       </c>
       <c r="D219" t="n">
-        <v>0.2072434607645875</v>
+        <v>121.3456507722101</v>
       </c>
       <c r="E219" t="n">
-        <v>5.835010060362173</v>
-      </c>
-      <c r="F219" t="n">
-        <v>121.3456507722101</v>
-      </c>
-      <c r="G219" t="n">
         <v>40.0954790793825</v>
       </c>
     </row>
@@ -5483,22 +4601,18 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
-        <v>3304557005090</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>3304557005090</t>
+        </is>
       </c>
       <c r="C220" t="n">
-        <v>0.5895372233400402</v>
+        <v>5.243460764587526</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1851106639839034</v>
+        <v>120.9528455001292</v>
       </c>
       <c r="E220" t="n">
-        <v>5.243460764587526</v>
-      </c>
-      <c r="F220" t="n">
-        <v>120.9528455001292</v>
-      </c>
-      <c r="G220" t="n">
         <v>37.0152371661426</v>
       </c>
     </row>
@@ -5506,22 +4620,18 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
-        <v>3304557005091</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>3304557005091</t>
+        </is>
       </c>
       <c r="C221" t="n">
-        <v>0.3354037267080745</v>
+        <v>3.503105590062112</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1200828157349896</v>
+        <v>117.7215813861777</v>
       </c>
       <c r="E221" t="n">
-        <v>3.503105590062112</v>
-      </c>
-      <c r="F221" t="n">
-        <v>117.7215813861777</v>
-      </c>
-      <c r="G221" t="n">
         <v>46.66025830622103</v>
       </c>
     </row>
@@ -5529,22 +4639,18 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
-        <v>3304557005092</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>3304557005092</t>
+        </is>
       </c>
       <c r="C222" t="n">
-        <v>0.3434959349593496</v>
+        <v>3.705284552845528</v>
       </c>
       <c r="D222" t="n">
-        <v>0.1300813008130081</v>
+        <v>111.9870305845916</v>
       </c>
       <c r="E222" t="n">
-        <v>3.705284552845528</v>
-      </c>
-      <c r="F222" t="n">
-        <v>111.9870305845916</v>
-      </c>
-      <c r="G222" t="n">
         <v>41.87475803329461</v>
       </c>
     </row>
@@ -5552,22 +4658,18 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
-        <v>3304557005093</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>3304557005093</t>
+        </is>
       </c>
       <c r="C223" t="n">
-        <v>0.3814432989690721</v>
+        <v>3.672164948453608</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1319587628865979</v>
+        <v>125.6799214531173</v>
       </c>
       <c r="E223" t="n">
-        <v>3.672164948453608</v>
-      </c>
-      <c r="F223" t="n">
-        <v>125.6799214531173</v>
-      </c>
-      <c r="G223" t="n">
         <v>44.05989199803633</v>
       </c>
     </row>
@@ -5575,22 +4677,18 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
-        <v>3304557005094</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>3304557005094</t>
+        </is>
       </c>
       <c r="C224" t="n">
-        <v>0.674</v>
+        <v>5.752</v>
       </c>
       <c r="D224" t="n">
-        <v>0.234</v>
+        <v>135.3267676767677</v>
       </c>
       <c r="E224" t="n">
-        <v>5.752</v>
-      </c>
-      <c r="F224" t="n">
-        <v>135.3267676767677</v>
-      </c>
-      <c r="G224" t="n">
         <v>44.22734487734488</v>
       </c>
     </row>
@@ -5598,22 +4696,18 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
-        <v>3304557005095</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>3304557005095</t>
+        </is>
       </c>
       <c r="C225" t="n">
-        <v>0.8112449799196787</v>
+        <v>6.088353413654619</v>
       </c>
       <c r="D225" t="n">
-        <v>0.2630522088353413</v>
+        <v>146.8834044135249</v>
       </c>
       <c r="E225" t="n">
-        <v>6.088353413654619</v>
-      </c>
-      <c r="F225" t="n">
-        <v>146.8834044135249</v>
-      </c>
-      <c r="G225" t="n">
         <v>46.35127255609181</v>
       </c>
     </row>
@@ -5621,22 +4715,18 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
-        <v>3304557005096</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>3304557005096</t>
+        </is>
       </c>
       <c r="C226" t="n">
-        <v>0.5040983606557377</v>
+        <v>4.577868852459017</v>
       </c>
       <c r="D226" t="n">
-        <v>0.2090163934426229</v>
+        <v>120.60483346344</v>
       </c>
       <c r="E226" t="n">
-        <v>4.577868852459017</v>
-      </c>
-      <c r="F226" t="n">
-        <v>120.60483346344</v>
-      </c>
-      <c r="G226" t="n">
         <v>51.54095107988549</v>
       </c>
     </row>
@@ -5644,22 +4734,18 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
-        <v>3304557005097</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>3304557005097</t>
+        </is>
       </c>
       <c r="C227" t="n">
-        <v>0.6372745490981964</v>
+        <v>6.008016032064128</v>
       </c>
       <c r="D227" t="n">
-        <v>0.2444889779559118</v>
+        <v>113.6742460389754</v>
       </c>
       <c r="E227" t="n">
-        <v>6.008016032064128</v>
-      </c>
-      <c r="F227" t="n">
-        <v>113.6742460389754</v>
-      </c>
-      <c r="G227" t="n">
         <v>46.07584577524455</v>
       </c>
     </row>
@@ -5667,22 +4753,18 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
-        <v>3304557005098</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>3304557005098</t>
+        </is>
       </c>
       <c r="C228" t="n">
-        <v>0.4151329243353783</v>
+        <v>3.975460122699386</v>
       </c>
       <c r="D228" t="n">
-        <v>0.1370143149284253</v>
+        <v>116.1107865095596</v>
       </c>
       <c r="E228" t="n">
-        <v>3.975460122699386</v>
-      </c>
-      <c r="F228" t="n">
-        <v>116.1107865095596</v>
-      </c>
-      <c r="G228" t="n">
         <v>40.72694517479793</v>
       </c>
     </row>
@@ -5690,22 +4772,18 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
-        <v>3304557005099</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>3304557005099</t>
+        </is>
       </c>
       <c r="C229" t="n">
-        <v>0.678714859437751</v>
+        <v>5.429718875502008</v>
       </c>
       <c r="D229" t="n">
-        <v>0.216867469879518</v>
+        <v>146.2690589196614</v>
       </c>
       <c r="E229" t="n">
-        <v>5.429718875502008</v>
-      </c>
-      <c r="F229" t="n">
-        <v>146.2690589196614</v>
-      </c>
-      <c r="G229" t="n">
         <v>45.18253388735317</v>
       </c>
     </row>
@@ -5713,22 +4791,18 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
-        <v>3304557005100</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>3304557005100</t>
+        </is>
       </c>
       <c r="C230" t="n">
-        <v>0.3945720250521921</v>
+        <v>3.620041753653445</v>
       </c>
       <c r="D230" t="n">
-        <v>0.1231732776617954</v>
+        <v>133.2786559300129</v>
       </c>
       <c r="E230" t="n">
-        <v>3.620041753653445</v>
-      </c>
-      <c r="F230" t="n">
-        <v>133.2786559300129</v>
-      </c>
-      <c r="G230" t="n">
         <v>42.19521489876396</v>
       </c>
     </row>
@@ -5736,22 +4810,18 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
-        <v>3304557005101</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>3304557005101</t>
+        </is>
       </c>
       <c r="C231" t="n">
-        <v>0.6893787575150301</v>
+        <v>5.927855711422846</v>
       </c>
       <c r="D231" t="n">
-        <v>0.2164328657314629</v>
+        <v>118.5185889594706</v>
       </c>
       <c r="E231" t="n">
-        <v>5.927855711422846</v>
-      </c>
-      <c r="F231" t="n">
-        <v>118.5185889594706</v>
-      </c>
-      <c r="G231" t="n">
         <v>37.80926265896206</v>
       </c>
     </row>
@@ -5759,22 +4829,18 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
-        <v>3304557005102</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>3304557005102</t>
+        </is>
       </c>
       <c r="C232" t="n">
-        <v>0.4116424116424116</v>
+        <v>3.594594594594595</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1372141372141372</v>
+        <v>135.3768603768604</v>
       </c>
       <c r="E232" t="n">
-        <v>3.594594594594595</v>
-      </c>
-      <c r="F232" t="n">
-        <v>135.3768603768604</v>
-      </c>
-      <c r="G232" t="n">
         <v>45.52354552354552</v>
       </c>
     </row>
@@ -5782,22 +4848,18 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
-        <v>3304557005103</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>3304557005103</t>
+        </is>
       </c>
       <c r="C233" t="n">
-        <v>0.4813278008298755</v>
+        <v>4.288381742738589</v>
       </c>
       <c r="D233" t="n">
-        <v>0.1535269709543568</v>
+        <v>129.3132121451624</v>
       </c>
       <c r="E233" t="n">
-        <v>4.288381742738589</v>
-      </c>
-      <c r="F233" t="n">
-        <v>129.3132121451624</v>
-      </c>
-      <c r="G233" t="n">
         <v>37.85072120134362</v>
       </c>
     </row>
@@ -5805,22 +4867,18 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
-        <v>3304557005104</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>3304557005104</t>
+        </is>
       </c>
       <c r="C234" t="n">
-        <v>0.4489795918367347</v>
+        <v>3.736734693877551</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1510204081632653</v>
+        <v>138.6572724327826</v>
       </c>
       <c r="E234" t="n">
-        <v>3.736734693877551</v>
-      </c>
-      <c r="F234" t="n">
-        <v>138.6572724327826</v>
-      </c>
-      <c r="G234" t="n">
         <v>46.98574667962424</v>
       </c>
     </row>
@@ -5828,22 +4886,18 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
-        <v>3304557005105</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>3304557005105</t>
+        </is>
       </c>
       <c r="C235" t="n">
-        <v>0.3549060542797494</v>
+        <v>3.613778705636743</v>
       </c>
       <c r="D235" t="n">
-        <v>0.1440501043841336</v>
+        <v>102.6783643171952</v>
       </c>
       <c r="E235" t="n">
-        <v>3.613778705636743</v>
-      </c>
-      <c r="F235" t="n">
-        <v>102.6783643171952</v>
-      </c>
-      <c r="G235" t="n">
         <v>37.32644066673294</v>
       </c>
     </row>
@@ -5851,22 +4905,18 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
-        <v>3304557005106</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>3304557005106</t>
+        </is>
       </c>
       <c r="C236" t="n">
-        <v>0.4765784114052953</v>
+        <v>4.136456211812627</v>
       </c>
       <c r="D236" t="n">
-        <v>0.1262729124236252</v>
+        <v>129.4402418129506</v>
       </c>
       <c r="E236" t="n">
-        <v>4.136456211812627</v>
-      </c>
-      <c r="F236" t="n">
-        <v>129.4402418129506</v>
-      </c>
-      <c r="G236" t="n">
         <v>30.90631364562119</v>
       </c>
     </row>
@@ -5874,22 +4924,18 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
-        <v>3304557005107</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>3304557005107</t>
+        </is>
       </c>
       <c r="C237" t="n">
-        <v>0.5506072874493927</v>
+        <v>4.232793522267206</v>
       </c>
       <c r="D237" t="n">
-        <v>0.1761133603238866</v>
+        <v>149.7880774196563</v>
       </c>
       <c r="E237" t="n">
-        <v>4.232793522267206</v>
-      </c>
-      <c r="F237" t="n">
-        <v>149.7880774196563</v>
-      </c>
-      <c r="G237" t="n">
         <v>51.63951545530495</v>
       </c>
     </row>
@@ -5897,22 +4943,18 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
-        <v>3304557005108</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>3304557005108</t>
+        </is>
       </c>
       <c r="C238" t="n">
-        <v>0.45010183299389</v>
+        <v>4.19551934826884</v>
       </c>
       <c r="D238" t="n">
-        <v>0.175152749490835</v>
+        <v>133.261403678919</v>
       </c>
       <c r="E238" t="n">
-        <v>4.19551934826884</v>
-      </c>
-      <c r="F238" t="n">
-        <v>133.261403678919</v>
-      </c>
-      <c r="G238" t="n">
         <v>50.06223127404388</v>
       </c>
     </row>
@@ -5920,22 +4962,18 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
-        <v>3304557005109</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>3304557005109</t>
+        </is>
       </c>
       <c r="C239" t="n">
-        <v>0.4631147540983606</v>
+        <v>3.670081967213114</v>
       </c>
       <c r="D239" t="n">
-        <v>0.1598360655737705</v>
+        <v>143.7695899273768</v>
       </c>
       <c r="E239" t="n">
-        <v>3.670081967213114</v>
-      </c>
-      <c r="F239" t="n">
-        <v>143.7695899273768</v>
-      </c>
-      <c r="G239" t="n">
         <v>52.23214285714284</v>
       </c>
     </row>
@@ -5943,22 +4981,18 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
-        <v>3304557005110</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>3304557005110</t>
+        </is>
       </c>
       <c r="C240" t="n">
-        <v>0.4156378600823045</v>
+        <v>3.553497942386832</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1502057613168724</v>
+        <v>132.357674332983</v>
       </c>
       <c r="E240" t="n">
-        <v>3.553497942386832</v>
-      </c>
-      <c r="F240" t="n">
-        <v>132.357674332983</v>
-      </c>
-      <c r="G240" t="n">
         <v>49.74116532758507</v>
       </c>
     </row>
@@ -5966,22 +5000,18 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
-        <v>3304557005111</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>3304557005111</t>
+        </is>
       </c>
       <c r="C241" t="n">
-        <v>0.3375262054507337</v>
+        <v>3.683438155136269</v>
       </c>
       <c r="D241" t="n">
-        <v>0.1236897274633123</v>
+        <v>100.1439219992679</v>
       </c>
       <c r="E241" t="n">
-        <v>3.683438155136269</v>
-      </c>
-      <c r="F241" t="n">
-        <v>100.1439219992679</v>
-      </c>
-      <c r="G241" t="n">
         <v>38.35063725000833</v>
       </c>
     </row>
@@ -5989,22 +5019,18 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
-        <v>3304557005112</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>3304557005112</t>
+        </is>
       </c>
       <c r="C242" t="n">
-        <v>0.4392712550607287</v>
+        <v>4.321862348178137</v>
       </c>
       <c r="D242" t="n">
-        <v>0.1619433198380566</v>
+        <v>108.3766604515592</v>
       </c>
       <c r="E242" t="n">
-        <v>4.321862348178137</v>
-      </c>
-      <c r="F242" t="n">
-        <v>108.3766604515592</v>
-      </c>
-      <c r="G242" t="n">
         <v>38.37967587967589</v>
       </c>
     </row>
@@ -6012,22 +5038,18 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
-        <v>3304557005113</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>3304557005113</t>
+        </is>
       </c>
       <c r="C243" t="n">
-        <v>0.6016096579476862</v>
+        <v>5.28169014084507</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1991951710261569</v>
+        <v>120.4251482923515</v>
       </c>
       <c r="E243" t="n">
-        <v>5.28169014084507</v>
-      </c>
-      <c r="F243" t="n">
-        <v>120.4251482923515</v>
-      </c>
-      <c r="G243" t="n">
         <v>39.50768100667496</v>
       </c>
     </row>
@@ -6035,22 +5057,18 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
-        <v>3304557005114</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>3304557005114</t>
+        </is>
       </c>
       <c r="C244" t="n">
-        <v>0.3716632443531827</v>
+        <v>3.839835728952772</v>
       </c>
       <c r="D244" t="n">
-        <v>0.1457905544147844</v>
+        <v>108.8108275479939</v>
       </c>
       <c r="E244" t="n">
-        <v>3.839835728952772</v>
-      </c>
-      <c r="F244" t="n">
-        <v>108.8108275479939</v>
-      </c>
-      <c r="G244" t="n">
         <v>46.14256380170138</v>
       </c>
     </row>
@@ -6058,22 +5076,18 @@
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
-        <v>3304557005115</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>3304557005115</t>
+        </is>
       </c>
       <c r="C245" t="n">
-        <v>0.7289156626506024</v>
+        <v>5.708835341365462</v>
       </c>
       <c r="D245" t="n">
-        <v>0.2590361445783132</v>
+        <v>138.6378793005299</v>
       </c>
       <c r="E245" t="n">
-        <v>5.708835341365462</v>
-      </c>
-      <c r="F245" t="n">
-        <v>138.6378793005299</v>
-      </c>
-      <c r="G245" t="n">
         <v>47.04049297422791</v>
       </c>
     </row>
@@ -6081,22 +5095,18 @@
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
-        <v>3304557005116</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>3304557005116</t>
+        </is>
       </c>
       <c r="C246" t="n">
-        <v>0.768</v>
+        <v>5.998</v>
       </c>
       <c r="D246" t="n">
-        <v>0.262</v>
+        <v>145.2239427239427</v>
       </c>
       <c r="E246" t="n">
-        <v>5.998</v>
-      </c>
-      <c r="F246" t="n">
-        <v>145.2239427239427</v>
-      </c>
-      <c r="G246" t="n">
         <v>48.9264291264291</v>
       </c>
     </row>
@@ -6104,22 +5114,18 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
-        <v>3304557005117</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>3304557005117</t>
+        </is>
       </c>
       <c r="C247" t="n">
-        <v>0.618</v>
+        <v>5.75</v>
       </c>
       <c r="D247" t="n">
-        <v>0.224</v>
+        <v>112.8094461094461</v>
       </c>
       <c r="E247" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="F247" t="n">
-        <v>112.8094461094461</v>
-      </c>
-      <c r="G247" t="n">
         <v>41.24350094350093</v>
       </c>
     </row>
@@ -6127,22 +5133,18 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
-        <v>3304557005118</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>3304557005118</t>
+        </is>
       </c>
       <c r="C248" t="n">
-        <v>0.7655310621242485</v>
+        <v>6.551102204408818</v>
       </c>
       <c r="D248" t="n">
-        <v>0.2565130260521042</v>
+        <v>128.7433675209224</v>
       </c>
       <c r="E248" t="n">
-        <v>6.551102204408818</v>
-      </c>
-      <c r="F248" t="n">
-        <v>128.7433675209224</v>
-      </c>
-      <c r="G248" t="n">
         <v>43.36298860346954</v>
       </c>
     </row>
@@ -6150,22 +5152,18 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
-        <v>3304557005119</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>3304557005119</t>
+        </is>
       </c>
       <c r="C249" t="n">
-        <v>0.5891783567134269</v>
+        <v>5.074148296593187</v>
       </c>
       <c r="D249" t="n">
-        <v>0.1943887775551102</v>
+        <v>125.0416417250085</v>
       </c>
       <c r="E249" t="n">
-        <v>5.074148296593187</v>
-      </c>
-      <c r="F249" t="n">
-        <v>125.0416417250085</v>
-      </c>
-      <c r="G249" t="n">
         <v>44.77454186873026</v>
       </c>
     </row>
@@ -6173,22 +5171,18 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
-        <v>3304557005120</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>3304557005120</t>
+        </is>
       </c>
       <c r="C250" t="n">
-        <v>0.4857723577235772</v>
+        <v>4.400406504065041</v>
       </c>
       <c r="D250" t="n">
-        <v>0.2134146341463414</v>
+        <v>130.5701468811225</v>
       </c>
       <c r="E250" t="n">
-        <v>4.400406504065041</v>
-      </c>
-      <c r="F250" t="n">
-        <v>130.5701468811225</v>
-      </c>
-      <c r="G250" t="n">
         <v>56.33549490256807</v>
       </c>
     </row>
@@ -6196,22 +5190,18 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
-        <v>3304557005121</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>3304557005121</t>
+        </is>
       </c>
       <c r="C251" t="n">
-        <v>0.5506072874493927</v>
+        <v>4.5</v>
       </c>
       <c r="D251" t="n">
-        <v>0.2064777327935222</v>
+        <v>132.959876380929</v>
       </c>
       <c r="E251" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F251" t="n">
-        <v>132.959876380929</v>
-      </c>
-      <c r="G251" t="n">
         <v>51.79535376903794</v>
       </c>
     </row>
@@ -6219,22 +5209,18 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
-        <v>3304557005122</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>3304557005122</t>
+        </is>
       </c>
       <c r="C252" t="n">
-        <v>0.4170124481327801</v>
+        <v>3.562240663900415</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1327800829875518</v>
+        <v>141.5390568398867</v>
       </c>
       <c r="E252" t="n">
-        <v>3.562240663900415</v>
-      </c>
-      <c r="F252" t="n">
-        <v>141.5390568398867</v>
-      </c>
-      <c r="G252" t="n">
         <v>44.83139037080946</v>
       </c>
     </row>
@@ -6242,22 +5228,18 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
-        <v>3304557005123</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>3304557005123</t>
+        </is>
       </c>
       <c r="C253" t="n">
-        <v>0.3918367346938775</v>
+        <v>4.063265306122449</v>
       </c>
       <c r="D253" t="n">
-        <v>0.1408163265306122</v>
+        <v>111.2058632977001</v>
       </c>
       <c r="E253" t="n">
-        <v>4.063265306122449</v>
-      </c>
-      <c r="F253" t="n">
-        <v>111.2058632977001</v>
-      </c>
-      <c r="G253" t="n">
         <v>38.41674765144153</v>
       </c>
     </row>
@@ -6265,22 +5247,18 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
-        <v>3304557005124</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>3304557005124</t>
+        </is>
       </c>
       <c r="C254" t="n">
-        <v>0.3578732106339468</v>
+        <v>3.6359918200409</v>
       </c>
       <c r="D254" t="n">
-        <v>0.1267893660531697</v>
+        <v>105.8874606420619</v>
       </c>
       <c r="E254" t="n">
-        <v>3.6359918200409</v>
-      </c>
-      <c r="F254" t="n">
-        <v>105.8874606420619</v>
-      </c>
-      <c r="G254" t="n">
         <v>39.43016197617425</v>
       </c>
     </row>
@@ -6288,22 +5266,18 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
-        <v>3304557005125</v>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>3304557005125</t>
+        </is>
       </c>
       <c r="C255" t="n">
-        <v>0.4261954261954262</v>
+        <v>3.785862785862786</v>
       </c>
       <c r="D255" t="n">
-        <v>0.1538461538461538</v>
+        <v>132.2690822690823</v>
       </c>
       <c r="E255" t="n">
-        <v>3.785862785862786</v>
-      </c>
-      <c r="F255" t="n">
-        <v>132.2690822690823</v>
-      </c>
-      <c r="G255" t="n">
         <v>48.53974853974854</v>
       </c>
     </row>
@@ -6311,22 +5285,18 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
-        <v>3304557005126</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>3304557005126</t>
+        </is>
       </c>
       <c r="C256" t="n">
-        <v>0.09375</v>
+        <v>1.25</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0390625</v>
+        <v>70.3125</v>
       </c>
       <c r="E256" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F256" t="n">
-        <v>70.3125</v>
-      </c>
-      <c r="G256" t="n">
         <v>27.34375</v>
       </c>
     </row>
@@ -6334,22 +5304,18 @@
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
-        <v>3304557005127</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3304557005127</t>
+        </is>
       </c>
       <c r="C257" t="n">
-        <v>0.7590361445783133</v>
+        <v>6.538152610441767</v>
       </c>
       <c r="D257" t="n">
-        <v>0.2630522088353413</v>
+        <v>122.757134654725</v>
       </c>
       <c r="E257" t="n">
-        <v>6.538152610441767</v>
-      </c>
-      <c r="F257" t="n">
-        <v>122.757134654725</v>
-      </c>
-      <c r="G257" t="n">
         <v>41.76704041161871</v>
       </c>
     </row>
@@ -6357,22 +5323,18 @@
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
-        <v>3304557005128</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>3304557005128</t>
+        </is>
       </c>
       <c r="C258" t="n">
-        <v>0.3768115942028985</v>
+        <v>3.503105590062112</v>
       </c>
       <c r="D258" t="n">
-        <v>0.144927536231884</v>
+        <v>129.8966446481975</v>
       </c>
       <c r="E258" t="n">
-        <v>3.503105590062112</v>
-      </c>
-      <c r="F258" t="n">
-        <v>129.8966446481975</v>
-      </c>
-      <c r="G258" t="n">
         <v>46.23714219987512</v>
       </c>
     </row>
@@ -6380,22 +5342,18 @@
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
-        <v>3304557005129</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>3304557005129</t>
+        </is>
       </c>
       <c r="C259" t="n">
-        <v>0.4897959183673469</v>
+        <v>4.291836734693877</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1857142857142857</v>
+        <v>138.4954501281032</v>
       </c>
       <c r="E259" t="n">
-        <v>4.291836734693877</v>
-      </c>
-      <c r="F259" t="n">
-        <v>138.4954501281032</v>
-      </c>
-      <c r="G259" t="n">
         <v>53.35608269281737</v>
       </c>
     </row>
@@ -6403,22 +5361,18 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
-        <v>3304557005130</v>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>3304557005130</t>
+        </is>
       </c>
       <c r="C260" t="n">
-        <v>0.422360248447205</v>
+        <v>3.803312629399586</v>
       </c>
       <c r="D260" t="n">
-        <v>0.15527950310559</v>
+        <v>116.6461270498538</v>
       </c>
       <c r="E260" t="n">
-        <v>3.803312629399586</v>
-      </c>
-      <c r="F260" t="n">
-        <v>116.6461270498538</v>
-      </c>
-      <c r="G260" t="n">
         <v>44.64491110453845</v>
       </c>
     </row>
@@ -6426,22 +5380,18 @@
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
-        <v>3304557005131</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>3304557005131</t>
+        </is>
       </c>
       <c r="C261" t="n">
-        <v>0.459958932238193</v>
+        <v>3.97741273100616</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1519507186858316</v>
+        <v>129.9233164736245</v>
       </c>
       <c r="E261" t="n">
-        <v>3.97741273100616</v>
-      </c>
-      <c r="F261" t="n">
-        <v>129.9233164736245</v>
-      </c>
-      <c r="G261" t="n">
         <v>44.08762011431415</v>
       </c>
     </row>
@@ -6449,22 +5399,18 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
-        <v>3304557005132</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>3304557005132</t>
+        </is>
       </c>
       <c r="C262" t="n">
-        <v>0.4918367346938775</v>
+        <v>4.493877551020408</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1693877551020408</v>
+        <v>127.0068027210885</v>
       </c>
       <c r="E262" t="n">
-        <v>4.493877551020408</v>
-      </c>
-      <c r="F262" t="n">
-        <v>127.0068027210885</v>
-      </c>
-      <c r="G262" t="n">
         <v>42.63038548752834</v>
       </c>
     </row>
@@ -6472,22 +5418,18 @@
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
-        <v>3304557005133</v>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>3304557005133</t>
+        </is>
       </c>
       <c r="C263" t="n">
-        <v>0.6174089068825911</v>
+        <v>4.659919028340081</v>
       </c>
       <c r="D263" t="n">
-        <v>0.2105263157894736</v>
+        <v>152.2606048921839</v>
       </c>
       <c r="E263" t="n">
-        <v>4.659919028340081</v>
-      </c>
-      <c r="F263" t="n">
-        <v>152.2606048921839</v>
-      </c>
-      <c r="G263" t="n">
         <v>52.97626350257927</v>
       </c>
     </row>
@@ -6495,22 +5437,18 @@
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
-        <v>3304557005134</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>3304557005134</t>
+        </is>
       </c>
       <c r="C264" t="n">
-        <v>0.6666666666666666</v>
+        <v>5.652610441767068</v>
       </c>
       <c r="D264" t="n">
-        <v>0.2289156626506024</v>
+        <v>131.5951618662462</v>
       </c>
       <c r="E264" t="n">
-        <v>5.652610441767068</v>
-      </c>
-      <c r="F264" t="n">
-        <v>131.5951618662462</v>
-      </c>
-      <c r="G264" t="n">
         <v>44.71392061753507</v>
       </c>
     </row>
@@ -6518,22 +5456,18 @@
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
-        <v>3304557005135</v>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>3304557005135</t>
+        </is>
       </c>
       <c r="C265" t="n">
-        <v>0.492842535787321</v>
+        <v>3.916155419222904</v>
       </c>
       <c r="D265" t="n">
-        <v>0.1799591002044989</v>
+        <v>138.4304629703402</v>
       </c>
       <c r="E265" t="n">
-        <v>3.916155419222904</v>
-      </c>
-      <c r="F265" t="n">
-        <v>138.4304629703402</v>
-      </c>
-      <c r="G265" t="n">
         <v>52.37128810748441</v>
       </c>
     </row>
@@ -6541,22 +5475,18 @@
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
-        <v>3304557005136</v>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>3304557005136</t>
+        </is>
       </c>
       <c r="C266" t="n">
-        <v>0.4498977505112474</v>
+        <v>4.098159509202454</v>
       </c>
       <c r="D266" t="n">
-        <v>0.1738241308793456</v>
+        <v>119.5783425844775</v>
       </c>
       <c r="E266" t="n">
-        <v>4.098159509202454</v>
-      </c>
-      <c r="F266" t="n">
-        <v>119.5783425844775</v>
-      </c>
-      <c r="G266" t="n">
         <v>43.20365501347097</v>
       </c>
     </row>
@@ -6564,22 +5494,18 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
-        <v>3304557005137</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>3304557005137</t>
+        </is>
       </c>
       <c r="C267" t="n">
-        <v>0.5665322580645161</v>
+        <v>4.879032258064516</v>
       </c>
       <c r="D267" t="n">
-        <v>0.1975806451612903</v>
+        <v>129.2646589521589</v>
       </c>
       <c r="E267" t="n">
-        <v>4.879032258064516</v>
-      </c>
-      <c r="F267" t="n">
-        <v>129.2646589521589</v>
-      </c>
-      <c r="G267" t="n">
         <v>48.41512094536289</v>
       </c>
     </row>
@@ -6587,22 +5513,18 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
-        <v>3304557005138</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>3304557005138</t>
+        </is>
       </c>
       <c r="C268" t="n">
-        <v>0.3970588235294117</v>
+        <v>3.283613445378151</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1428571428571428</v>
+        <v>128.2863145258104</v>
       </c>
       <c r="E268" t="n">
-        <v>3.283613445378151</v>
-      </c>
-      <c r="F268" t="n">
-        <v>128.2863145258104</v>
-      </c>
-      <c r="G268" t="n">
         <v>45.92837134853941</v>
       </c>
     </row>
@@ -6610,22 +5532,18 @@
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
-        <v>3304557005139</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>3304557005139</t>
+        </is>
       </c>
       <c r="C269" t="n">
-        <v>0.4359504132231405</v>
+        <v>3.555785123966942</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1776859504132231</v>
+        <v>135.2469500196773</v>
       </c>
       <c r="E269" t="n">
-        <v>3.555785123966942</v>
-      </c>
-      <c r="F269" t="n">
-        <v>135.2469500196773</v>
-      </c>
-      <c r="G269" t="n">
         <v>56.56729634002362</v>
       </c>
     </row>
@@ -6633,22 +5551,18 @@
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
-        <v>3304557005140</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>3304557005140</t>
+        </is>
       </c>
       <c r="C270" t="n">
-        <v>0.4877551020408163</v>
+        <v>4.5</v>
       </c>
       <c r="D270" t="n">
-        <v>0.2061224489795918</v>
+        <v>128.1518028456804</v>
       </c>
       <c r="E270" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F270" t="n">
-        <v>128.1518028456804</v>
-      </c>
-      <c r="G270" t="n">
         <v>54.96517654680919</v>
       </c>
     </row>
@@ -6656,22 +5570,18 @@
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
-        <v>3304557005141</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>3304557005141</t>
+        </is>
       </c>
       <c r="C271" t="n">
-        <v>0.4458077709611452</v>
+        <v>4.122699386503068</v>
       </c>
       <c r="D271" t="n">
-        <v>0.1533742331288343</v>
+        <v>120.5669756283253</v>
       </c>
       <c r="E271" t="n">
-        <v>4.122699386503068</v>
-      </c>
-      <c r="F271" t="n">
-        <v>120.5669756283253</v>
-      </c>
-      <c r="G271" t="n">
         <v>40.59393231172371</v>
       </c>
     </row>
@@ -6679,22 +5589,18 @@
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
-        <v>3304557005142</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>3304557005142</t>
+        </is>
       </c>
       <c r="C272" t="n">
-        <v>0.6024096385542169</v>
+        <v>5.381526104417671</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2329317269076305</v>
+        <v>119.8836471426833</v>
       </c>
       <c r="E272" t="n">
-        <v>5.381526104417671</v>
-      </c>
-      <c r="F272" t="n">
-        <v>119.8836471426833</v>
-      </c>
-      <c r="G272" t="n">
         <v>43.60544631628967</v>
       </c>
     </row>
@@ -6702,22 +5608,18 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
-        <v>3304557005143</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>3304557005143</t>
+        </is>
       </c>
       <c r="C273" t="n">
-        <v>0.6096579476861167</v>
+        <v>5.313883299798793</v>
       </c>
       <c r="D273" t="n">
-        <v>0.2313883299798792</v>
+        <v>124.8048173601493</v>
       </c>
       <c r="E273" t="n">
-        <v>5.313883299798793</v>
-      </c>
-      <c r="F273" t="n">
-        <v>124.8048173601493</v>
-      </c>
-      <c r="G273" t="n">
         <v>49.93873776569956</v>
       </c>
     </row>
@@ -6725,22 +5627,18 @@
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
-        <v>3304557005144</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>3304557005144</t>
+        </is>
       </c>
       <c r="C274" t="n">
-        <v>0.642570281124498</v>
+        <v>5.72289156626506</v>
       </c>
       <c r="D274" t="n">
-        <v>0.2389558232931727</v>
+        <v>124.6789689560774</v>
       </c>
       <c r="E274" t="n">
-        <v>5.72289156626506</v>
-      </c>
-      <c r="F274" t="n">
-        <v>124.6789689560774</v>
-      </c>
-      <c r="G274" t="n">
         <v>47.498725058966</v>
       </c>
     </row>
@@ -6748,22 +5646,18 @@
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
-        <v>3304557005145</v>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>3304557005145</t>
+        </is>
       </c>
       <c r="C275" t="n">
-        <v>0.5584677419354839</v>
+        <v>4.866935483870968</v>
       </c>
       <c r="D275" t="n">
-        <v>0.1875</v>
+        <v>142.1602982590887</v>
       </c>
       <c r="E275" t="n">
-        <v>4.866935483870968</v>
-      </c>
-      <c r="F275" t="n">
-        <v>142.1602982590887</v>
-      </c>
-      <c r="G275" t="n">
         <v>45.61411930363542</v>
       </c>
     </row>
@@ -6771,22 +5665,18 @@
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
-        <v>3304557005146</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>3304557005146</t>
+        </is>
       </c>
       <c r="C276" t="n">
-        <v>0.5425101214574899</v>
+        <v>4.133603238866397</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1821862348178137</v>
+        <v>153.8742690058479</v>
       </c>
       <c r="E276" t="n">
-        <v>4.133603238866397</v>
-      </c>
-      <c r="F276" t="n">
-        <v>153.8742690058479</v>
-      </c>
-      <c r="G276" t="n">
         <v>48.64886575412891</v>
       </c>
     </row>
@@ -6794,22 +5684,18 @@
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
-        <v>3304557005147</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>3304557005147</t>
+        </is>
       </c>
       <c r="C277" t="n">
-        <v>0.6546184738955824</v>
+        <v>5.977911646586345</v>
       </c>
       <c r="D277" t="n">
-        <v>0.2489959839357429</v>
+        <v>120.6819042573827</v>
       </c>
       <c r="E277" t="n">
-        <v>5.977911646586345</v>
-      </c>
-      <c r="F277" t="n">
-        <v>120.6819042573827</v>
-      </c>
-      <c r="G277" t="n">
         <v>48.04158915604697</v>
       </c>
     </row>
@@ -6817,22 +5703,18 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
-        <v>3304557005148</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>3304557005148</t>
+        </is>
       </c>
       <c r="C278" t="n">
-        <v>0.4176954732510288</v>
+        <v>3.862139917695473</v>
       </c>
       <c r="D278" t="n">
-        <v>0.1378600823045267</v>
+        <v>119.072930955647</v>
       </c>
       <c r="E278" t="n">
-        <v>3.862139917695473</v>
-      </c>
-      <c r="F278" t="n">
-        <v>119.072930955647</v>
-      </c>
-      <c r="G278" t="n">
         <v>43.97331634985954</v>
       </c>
     </row>
@@ -6840,22 +5722,18 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
-        <v>3304557005149</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>3304557005149</t>
+        </is>
       </c>
       <c r="C279" t="n">
-        <v>0.5670731707317073</v>
+        <v>4.813008130081301</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1971544715447154</v>
+        <v>139.3101309259846</v>
       </c>
       <c r="E279" t="n">
-        <v>4.813008130081301</v>
-      </c>
-      <c r="F279" t="n">
-        <v>139.3101309259846</v>
-      </c>
-      <c r="G279" t="n">
         <v>50.78081922594117</v>
       </c>
     </row>
@@ -6863,22 +5741,18 @@
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
-        <v>3304557005150</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>3304557005150</t>
+        </is>
       </c>
       <c r="C280" t="n">
-        <v>0.5461847389558233</v>
+        <v>4.773092369477912</v>
       </c>
       <c r="D280" t="n">
-        <v>0.214859437751004</v>
+        <v>124.4820552049468</v>
       </c>
       <c r="E280" t="n">
-        <v>4.773092369477912</v>
-      </c>
-      <c r="F280" t="n">
-        <v>124.4820552049468</v>
-      </c>
-      <c r="G280" t="n">
         <v>47.90590935169248</v>
       </c>
     </row>
@@ -6886,22 +5760,18 @@
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
-        <v>3304557005151</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>3304557005151</t>
+        </is>
       </c>
       <c r="C281" t="n">
-        <v>0.4329896907216495</v>
+        <v>3.971134020618557</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1525773195876288</v>
+        <v>122.4234986090656</v>
       </c>
       <c r="E281" t="n">
-        <v>3.971134020618557</v>
-      </c>
-      <c r="F281" t="n">
-        <v>122.4234986090656</v>
-      </c>
-      <c r="G281" t="n">
         <v>40.78055964653902</v>
       </c>
     </row>
@@ -6909,22 +5779,18 @@
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
-        <v>3304557005152</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>3304557005152</t>
+        </is>
       </c>
       <c r="C282" t="n">
-        <v>0.6292585170340681</v>
+        <v>5.264529058116232</v>
       </c>
       <c r="D282" t="n">
-        <v>0.2364729458917835</v>
+        <v>133.9342465594971</v>
       </c>
       <c r="E282" t="n">
-        <v>5.264529058116232</v>
-      </c>
-      <c r="F282" t="n">
-        <v>133.9342465594971</v>
-      </c>
-      <c r="G282" t="n">
         <v>52.8066233477055</v>
       </c>
     </row>
@@ -6932,22 +5798,18 @@
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
-        <v>3304557005153</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>3304557005153</t>
+        </is>
       </c>
       <c r="C283" t="n">
-        <v>0.6975806451612904</v>
+        <v>5.203629032258065</v>
       </c>
       <c r="D283" t="n">
-        <v>0.2620967741935484</v>
+        <v>137.8734225004386</v>
       </c>
       <c r="E283" t="n">
-        <v>5.203629032258065</v>
-      </c>
-      <c r="F283" t="n">
-        <v>137.8734225004386</v>
-      </c>
-      <c r="G283" t="n">
         <v>49.23585039512456</v>
       </c>
     </row>
@@ -6955,22 +5817,18 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
-        <v>3304557005154</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>3304557005154</t>
+        </is>
       </c>
       <c r="C284" t="n">
-        <v>0.5573440643863179</v>
+        <v>4.911468812877264</v>
       </c>
       <c r="D284" t="n">
-        <v>0.2233400402414486</v>
+        <v>123.5947430615439</v>
       </c>
       <c r="E284" t="n">
-        <v>4.911468812877264</v>
-      </c>
-      <c r="F284" t="n">
-        <v>123.5947430615439</v>
-      </c>
-      <c r="G284" t="n">
         <v>50.38441326167682</v>
       </c>
     </row>
@@ -6978,22 +5836,18 @@
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
-        <v>3304557005155</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>3304557005155</t>
+        </is>
       </c>
       <c r="C285" t="n">
-        <v>0.4471544715447154</v>
+        <v>4.002032520325203</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1686991869918699</v>
+        <v>128.4722222222222</v>
       </c>
       <c r="E285" t="n">
-        <v>4.002032520325203</v>
-      </c>
-      <c r="F285" t="n">
-        <v>128.4722222222222</v>
-      </c>
-      <c r="G285" t="n">
         <v>47.70212285456186</v>
       </c>
     </row>
@@ -7001,22 +5855,18 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
-        <v>3304557005156</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>3304557005156</t>
+        </is>
       </c>
       <c r="C286" t="n">
-        <v>0.5342741935483871</v>
+        <v>4.419354838709677</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1915322580645161</v>
+        <v>137.9879081491984</v>
       </c>
       <c r="E286" t="n">
-        <v>4.419354838709677</v>
-      </c>
-      <c r="F286" t="n">
-        <v>137.9879081491984</v>
-      </c>
-      <c r="G286" t="n">
         <v>47.51011757060145</v>
       </c>
     </row>
@@ -7024,22 +5874,18 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
-        <v>3304557005157</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>3304557005157</t>
+        </is>
       </c>
       <c r="C287" t="n">
-        <v>0.6232464929859719</v>
+        <v>5.529058116232465</v>
       </c>
       <c r="D287" t="n">
-        <v>0.2284569138276553</v>
+        <v>130.1418132079454</v>
       </c>
       <c r="E287" t="n">
-        <v>5.529058116232465</v>
-      </c>
-      <c r="F287" t="n">
-        <v>130.1418132079454</v>
-      </c>
-      <c r="G287" t="n">
         <v>48.72855378867403</v>
       </c>
     </row>
@@ -7047,22 +5893,18 @@
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
-        <v>3304557005158</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>3304557005158</t>
+        </is>
       </c>
       <c r="C288" t="n">
-        <v>0.4323770491803279</v>
+        <v>3.932377049180328</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1577868852459016</v>
+        <v>121.979085349987</v>
       </c>
       <c r="E288" t="n">
-        <v>3.932377049180328</v>
-      </c>
-      <c r="F288" t="n">
-        <v>121.979085349987</v>
-      </c>
-      <c r="G288" t="n">
         <v>43.37025110590683</v>
       </c>
     </row>
@@ -7070,22 +5912,18 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
-        <v>3304557005159</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>3304557005159</t>
+        </is>
       </c>
       <c r="C289" t="n">
-        <v>0.4130879345603272</v>
+        <v>4.051124744376278</v>
       </c>
       <c r="D289" t="n">
-        <v>0.1758691206543967</v>
+        <v>115.5881780114909</v>
       </c>
       <c r="E289" t="n">
-        <v>4.051124744376278</v>
-      </c>
-      <c r="F289" t="n">
-        <v>115.5881780114909</v>
-      </c>
-      <c r="G289" t="n">
         <v>53.7248028045574</v>
       </c>
     </row>
@@ -7093,22 +5931,18 @@
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
-        <v>3304557005160</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>3304557005160</t>
+        </is>
       </c>
       <c r="C290" t="n">
-        <v>0.3802521008403361</v>
+        <v>3.222689075630252</v>
       </c>
       <c r="D290" t="n">
-        <v>0.157563025210084</v>
+        <v>133.5759303721489</v>
       </c>
       <c r="E290" t="n">
-        <v>3.222689075630252</v>
-      </c>
-      <c r="F290" t="n">
-        <v>133.5759303721489</v>
-      </c>
-      <c r="G290" t="n">
         <v>56.85274109643858</v>
       </c>
     </row>
@@ -7116,22 +5950,18 @@
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
-        <v>3304557005161</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>3304557005161</t>
+        </is>
       </c>
       <c r="C291" t="n">
-        <v>0.3609341825902335</v>
+        <v>3.144373673036093</v>
       </c>
       <c r="D291" t="n">
-        <v>0.138004246284501</v>
+        <v>124.4439389343848</v>
       </c>
       <c r="E291" t="n">
-        <v>3.144373673036093</v>
-      </c>
-      <c r="F291" t="n">
-        <v>124.4439389343848</v>
-      </c>
-      <c r="G291" t="n">
         <v>41.82421730192431</v>
       </c>
     </row>
@@ -7139,22 +5969,18 @@
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
-        <v>3304557005162</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>3304557005162</t>
+        </is>
       </c>
       <c r="C292" t="n">
-        <v>0.5250501002004008</v>
+        <v>4.643286573146293</v>
       </c>
       <c r="D292" t="n">
-        <v>0.1663326653306613</v>
+        <v>123.203549957057</v>
       </c>
       <c r="E292" t="n">
-        <v>4.643286573146293</v>
-      </c>
-      <c r="F292" t="n">
-        <v>123.203549957057</v>
-      </c>
-      <c r="G292" t="n">
         <v>37.09243884594586</v>
       </c>
     </row>
@@ -7162,22 +5988,18 @@
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
-        <v>3304557005163</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>3304557005163</t>
+        </is>
       </c>
       <c r="C293" t="n">
-        <v>0.4057377049180328</v>
+        <v>3.573770491803279</v>
       </c>
       <c r="D293" t="n">
-        <v>0.1331967213114754</v>
+        <v>126.8564597970336</v>
       </c>
       <c r="E293" t="n">
-        <v>3.573770491803279</v>
-      </c>
-      <c r="F293" t="n">
-        <v>126.8564597970336</v>
-      </c>
-      <c r="G293" t="n">
         <v>36.58274785323966</v>
       </c>
     </row>
@@ -7185,22 +6007,18 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
-        <v>3304557005164</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>3304557005164</t>
+        </is>
       </c>
       <c r="C294" t="n">
-        <v>0.3788187372708758</v>
+        <v>3.871690427698574</v>
       </c>
       <c r="D294" t="n">
-        <v>0.130346232179226</v>
+        <v>110.1178353215013</v>
       </c>
       <c r="E294" t="n">
-        <v>3.871690427698574</v>
-      </c>
-      <c r="F294" t="n">
-        <v>110.1178353215013</v>
-      </c>
-      <c r="G294" t="n">
         <v>39.82963178482527</v>
       </c>
     </row>
@@ -7208,22 +6026,18 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
-        <v>3304557005165</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>3304557005165</t>
+        </is>
       </c>
       <c r="C295" t="n">
-        <v>0.5818181818181818</v>
+        <v>4.709090909090909</v>
       </c>
       <c r="D295" t="n">
-        <v>0.2202020202020202</v>
+        <v>137.530522227492</v>
       </c>
       <c r="E295" t="n">
-        <v>4.709090909090909</v>
-      </c>
-      <c r="F295" t="n">
-        <v>137.530522227492</v>
-      </c>
-      <c r="G295" t="n">
         <v>55.30091681606832</v>
       </c>
     </row>
@@ -7231,22 +6045,18 @@
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
-        <v>3304557005166</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>3304557005166</t>
+        </is>
       </c>
       <c r="C296" t="n">
-        <v>0.4796747967479675</v>
+        <v>3.904471544715447</v>
       </c>
       <c r="D296" t="n">
-        <v>0.1707317073170731</v>
+        <v>122.4072900902169</v>
       </c>
       <c r="E296" t="n">
-        <v>3.904471544715447</v>
-      </c>
-      <c r="F296" t="n">
-        <v>122.4072900902169</v>
-      </c>
-      <c r="G296" t="n">
         <v>43.3427627025188</v>
       </c>
     </row>
@@ -7254,22 +6064,18 @@
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
-        <v>3304557005167</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>3304557005167</t>
+        </is>
       </c>
       <c r="C297" t="n">
-        <v>0.4389233954451346</v>
+        <v>3.853002070393375</v>
       </c>
       <c r="D297" t="n">
-        <v>0.1387163561076604</v>
+        <v>130.2556771500871</v>
       </c>
       <c r="E297" t="n">
-        <v>3.853002070393375</v>
-      </c>
-      <c r="F297" t="n">
-        <v>130.2556771500871</v>
-      </c>
-      <c r="G297" t="n">
         <v>38.15932169969437</v>
       </c>
     </row>
@@ -7277,22 +6083,18 @@
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
-        <v>3304557005168</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>3304557005168</t>
+        </is>
       </c>
       <c r="C298" t="n">
-        <v>0.4762886597938144</v>
+        <v>3.498969072164948</v>
       </c>
       <c r="D298" t="n">
-        <v>0.1587628865979381</v>
+        <v>158.8708885616102</v>
       </c>
       <c r="E298" t="n">
-        <v>3.498969072164948</v>
-      </c>
-      <c r="F298" t="n">
-        <v>158.8708885616102</v>
-      </c>
-      <c r="G298" t="n">
         <v>48.69170348551792</v>
       </c>
     </row>
@@ -7300,22 +6102,18 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
-        <v>3304557005169</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>3304557005169</t>
+        </is>
       </c>
       <c r="C299" t="n">
-        <v>0.602</v>
+        <v>5.3</v>
       </c>
       <c r="D299" t="n">
-        <v>0.232</v>
+        <v>126.6382617382617</v>
       </c>
       <c r="E299" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F299" t="n">
-        <v>126.6382617382617</v>
-      </c>
-      <c r="G299" t="n">
         <v>47.44062049062048</v>
       </c>
     </row>
@@ -7323,22 +6121,18 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
-        <v>3304557005170</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>3304557005170</t>
+        </is>
       </c>
       <c r="C300" t="n">
-        <v>0.3194154488517745</v>
+        <v>3.356993736951983</v>
       </c>
       <c r="D300" t="n">
-        <v>0.1356993736951983</v>
+        <v>115.1837492129768</v>
       </c>
       <c r="E300" t="n">
-        <v>3.356993736951983</v>
-      </c>
-      <c r="F300" t="n">
-        <v>115.1837492129768</v>
-      </c>
-      <c r="G300" t="n">
         <v>47.07227358584353</v>
       </c>
     </row>
@@ -7346,22 +6140,18 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
-        <v>3304557005171</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>3304557005171</t>
+        </is>
       </c>
       <c r="C301" t="n">
-        <v>0.4118852459016393</v>
+        <v>3.770491803278689</v>
       </c>
       <c r="D301" t="n">
-        <v>0.1536885245901639</v>
+        <v>116.8545081967213</v>
       </c>
       <c r="E301" t="n">
-        <v>3.770491803278689</v>
-      </c>
-      <c r="F301" t="n">
-        <v>116.8545081967213</v>
-      </c>
-      <c r="G301" t="n">
         <v>45.9504293520687</v>
       </c>
     </row>
@@ -7369,22 +6159,18 @@
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
-        <v>3304557005172</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>3304557005172</t>
+        </is>
       </c>
       <c r="C302" t="n">
-        <v>0.5130260521042084</v>
+        <v>4.907815631262525</v>
       </c>
       <c r="D302" t="n">
-        <v>0.1843687374749499</v>
+        <v>123.0456584163999</v>
       </c>
       <c r="E302" t="n">
-        <v>4.907815631262525</v>
-      </c>
-      <c r="F302" t="n">
-        <v>123.0456584163999</v>
-      </c>
-      <c r="G302" t="n">
         <v>46.68875991521282</v>
       </c>
     </row>
@@ -7392,22 +6178,18 @@
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
-        <v>3304557005173</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>3304557005173</t>
+        </is>
       </c>
       <c r="C303" t="n">
-        <v>0.4363256784968685</v>
+        <v>3.390396659707724</v>
       </c>
       <c r="D303" t="n">
-        <v>0.1607515657620041</v>
+        <v>137.4937866587137</v>
       </c>
       <c r="E303" t="n">
-        <v>3.390396659707724</v>
-      </c>
-      <c r="F303" t="n">
-        <v>137.4937866587137</v>
-      </c>
-      <c r="G303" t="n">
         <v>49.6048314941843</v>
       </c>
     </row>
@@ -7415,22 +6197,18 @@
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
-        <v>3304557005174</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>3304557005174</t>
+        </is>
       </c>
       <c r="C304" t="n">
-        <v>0.3757700205338809</v>
+        <v>3.462012320328542</v>
       </c>
       <c r="D304" t="n">
-        <v>0.164271047227926</v>
+        <v>113.6770313875037</v>
       </c>
       <c r="E304" t="n">
-        <v>3.462012320328542</v>
-      </c>
-      <c r="F304" t="n">
-        <v>113.6770313875037</v>
-      </c>
-      <c r="G304" t="n">
         <v>50.74801994719858</v>
       </c>
     </row>
@@ -7438,22 +6216,18 @@
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
-        <v>3304557005175</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>3304557005175</t>
+        </is>
       </c>
       <c r="C305" t="n">
-        <v>0.4345114345114345</v>
+        <v>3.482328482328482</v>
       </c>
       <c r="D305" t="n">
-        <v>0.1496881496881497</v>
+        <v>134.3018843018843</v>
       </c>
       <c r="E305" t="n">
-        <v>3.482328482328482</v>
-      </c>
-      <c r="F305" t="n">
-        <v>134.3018843018843</v>
-      </c>
-      <c r="G305" t="n">
         <v>44.51291951291951</v>
       </c>
     </row>
@@ -7461,22 +6235,18 @@
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
-        <v>3304557005176</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>3304557005176</t>
+        </is>
       </c>
       <c r="C306" t="n">
-        <v>0.6129032258064516</v>
+        <v>5.832661290322581</v>
       </c>
       <c r="D306" t="n">
-        <v>0.2318548387096774</v>
+        <v>119.8732802815464</v>
       </c>
       <c r="E306" t="n">
-        <v>5.832661290322581</v>
-      </c>
-      <c r="F306" t="n">
-        <v>119.8732802815464</v>
-      </c>
-      <c r="G306" t="n">
         <v>45.40300089695249</v>
       </c>
     </row>
@@ -7484,22 +6254,18 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
-        <v>3304557005177</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>3304557005177</t>
+        </is>
       </c>
       <c r="C307" t="n">
-        <v>0.5234215885947047</v>
+        <v>4.264765784114053</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1832993890020366</v>
+        <v>140.2563605211263</v>
       </c>
       <c r="E307" t="n">
-        <v>4.264765784114053</v>
-      </c>
-      <c r="F307" t="n">
-        <v>140.2563605211263</v>
-      </c>
-      <c r="G307" t="n">
         <v>48.26156531859179</v>
       </c>
     </row>
@@ -7507,22 +6273,18 @@
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
-        <v>3304557005178</v>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>3304557005178</t>
+        </is>
       </c>
       <c r="C308" t="n">
-        <v>0.5</v>
+        <v>4.451612903225806</v>
       </c>
       <c r="D308" t="n">
-        <v>0.1774193548387097</v>
+        <v>124.2490428478332</v>
       </c>
       <c r="E308" t="n">
-        <v>4.451612903225806</v>
-      </c>
-      <c r="F308" t="n">
-        <v>124.2490428478332</v>
-      </c>
-      <c r="G308" t="n">
         <v>44.03721838197644</v>
       </c>
     </row>
@@ -7530,22 +6292,18 @@
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
-        <v>3304557005179</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>3304557005179</t>
+        </is>
       </c>
       <c r="C309" t="n">
-        <v>0.6153846153846154</v>
+        <v>4.427125506072874</v>
       </c>
       <c r="D309" t="n">
-        <v>0.2186234817813765</v>
+        <v>149.1044043675623</v>
       </c>
       <c r="E309" t="n">
-        <v>4.427125506072874</v>
-      </c>
-      <c r="F309" t="n">
-        <v>149.1044043675623</v>
-      </c>
-      <c r="G309" t="n">
         <v>54.98521945890364</v>
       </c>
     </row>
@@ -7553,22 +6311,18 @@
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
-        <v>3304557005180</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>3304557005180</t>
+        </is>
       </c>
       <c r="C310" t="n">
-        <v>1.088</v>
+        <v>7.026</v>
       </c>
       <c r="D310" t="n">
-        <v>0.426</v>
+        <v>161.6638572212101</v>
       </c>
       <c r="E310" t="n">
-        <v>7.026</v>
-      </c>
-      <c r="F310" t="n">
-        <v>161.6638572212101</v>
-      </c>
-      <c r="G310" t="n">
         <v>65.16921493539134</v>
       </c>
     </row>
@@ -7576,22 +6330,18 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
-        <v>3304557005181</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>3304557005181</t>
+        </is>
       </c>
       <c r="C311" t="n">
-        <v>0.5224489795918368</v>
+        <v>4.277551020408163</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1897959183673469</v>
+        <v>138.9415289925494</v>
       </c>
       <c r="E311" t="n">
-        <v>4.277551020408163</v>
-      </c>
-      <c r="F311" t="n">
-        <v>138.9415289925494</v>
-      </c>
-      <c r="G311" t="n">
         <v>47.6781665046971</v>
       </c>
     </row>
@@ -7599,22 +6349,18 @@
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
-        <v>3304557005182</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>3304557005182</t>
+        </is>
       </c>
       <c r="C312" t="n">
-        <v>0.4597938144329896</v>
+        <v>3.777319587628866</v>
       </c>
       <c r="D312" t="n">
-        <v>0.1546391752577319</v>
+        <v>144.9526189732375</v>
       </c>
       <c r="E312" t="n">
-        <v>3.777319587628866</v>
-      </c>
-      <c r="F312" t="n">
-        <v>144.9526189732375</v>
-      </c>
-      <c r="G312" t="n">
         <v>46.6527573228604</v>
       </c>
     </row>
@@ -7622,22 +6368,18 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
-        <v>3304557005183</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>3304557005183</t>
+        </is>
       </c>
       <c r="C313" t="n">
-        <v>0.710261569416499</v>
+        <v>5.883299798792756</v>
       </c>
       <c r="D313" t="n">
-        <v>0.2575452716297787</v>
+        <v>131.2739350968727</v>
       </c>
       <c r="E313" t="n">
-        <v>5.883299798792756</v>
-      </c>
-      <c r="F313" t="n">
-        <v>131.2739350968727</v>
-      </c>
-      <c r="G313" t="n">
         <v>48.64134300754019</v>
       </c>
     </row>
@@ -7645,22 +6387,18 @@
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
-        <v>3304557005184</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>3304557005184</t>
+        </is>
       </c>
       <c r="C314" t="n">
-        <v>0.4338085539714867</v>
+        <v>4.189409368635438</v>
       </c>
       <c r="D314" t="n">
-        <v>0.164969450101833</v>
+        <v>126.6253603829979</v>
       </c>
       <c r="E314" t="n">
-        <v>4.189409368635438</v>
-      </c>
-      <c r="F314" t="n">
-        <v>126.6253603829979</v>
-      </c>
-      <c r="G314" t="n">
         <v>41.56240907768401</v>
       </c>
     </row>
@@ -7668,22 +6406,18 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
-        <v>3304557005185</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>3304557005185</t>
+        </is>
       </c>
       <c r="C315" t="n">
-        <v>0.4194214876033058</v>
+        <v>3.923553719008265</v>
       </c>
       <c r="D315" t="n">
-        <v>0.1549586776859504</v>
+        <v>124.962434259955</v>
       </c>
       <c r="E315" t="n">
-        <v>3.923553719008265</v>
-      </c>
-      <c r="F315" t="n">
-        <v>124.962434259955</v>
-      </c>
-      <c r="G315" t="n">
         <v>44.14280049610625</v>
       </c>
     </row>
@@ -7691,22 +6425,18 @@
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
-        <v>3304557005186</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>3304557005186</t>
+        </is>
       </c>
       <c r="C316" t="n">
-        <v>0.5546558704453441</v>
+        <v>4.340080971659919</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1842105263157894</v>
+        <v>135.0141086983193</v>
       </c>
       <c r="E316" t="n">
-        <v>4.340080971659919</v>
-      </c>
-      <c r="F316" t="n">
-        <v>135.0141086983193</v>
-      </c>
-      <c r="G316" t="n">
         <v>46.19262316630738</v>
       </c>
     </row>
@@ -7714,22 +6444,18 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
-        <v>3304557005187</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>3304557005187</t>
+        </is>
       </c>
       <c r="C317" t="n">
-        <v>0.4838056680161943</v>
+        <v>4.674089068825911</v>
       </c>
       <c r="D317" t="n">
-        <v>0.194331983805668</v>
+        <v>110.8612878349721</v>
       </c>
       <c r="E317" t="n">
-        <v>4.674089068825911</v>
-      </c>
-      <c r="F317" t="n">
-        <v>110.8612878349721</v>
-      </c>
-      <c r="G317" t="n">
         <v>44.50790437632538</v>
       </c>
     </row>
@@ -7737,22 +6463,18 @@
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
-        <v>3304557005188</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>3304557005188</t>
+        </is>
       </c>
       <c r="C318" t="n">
-        <v>0.5931174089068826</v>
+        <v>5.190283400809717</v>
       </c>
       <c r="D318" t="n">
-        <v>0.2125506072874494</v>
+        <v>124.6421201380716</v>
       </c>
       <c r="E318" t="n">
-        <v>5.190283400809717</v>
-      </c>
-      <c r="F318" t="n">
-        <v>124.6421201380716</v>
-      </c>
-      <c r="G318" t="n">
         <v>45.00932603159323</v>
       </c>
     </row>
@@ -7760,22 +6482,18 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
-        <v>3304557005189</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>3304557005189</t>
+        </is>
       </c>
       <c r="C319" t="n">
-        <v>0.6526104417670683</v>
+        <v>5.413654618473895</v>
       </c>
       <c r="D319" t="n">
-        <v>0.2369477911646586</v>
+        <v>124.1599152743731</v>
       </c>
       <c r="E319" t="n">
-        <v>5.413654618473895</v>
-      </c>
-      <c r="F319" t="n">
-        <v>124.1599152743731</v>
-      </c>
-      <c r="G319" t="n">
         <v>43.91396755854586</v>
       </c>
     </row>
@@ -7783,22 +6501,18 @@
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
-        <v>3304557005190</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>3304557005190</t>
+        </is>
       </c>
       <c r="C320" t="n">
-        <v>0.3526970954356846</v>
+        <v>3.705394190871369</v>
       </c>
       <c r="D320" t="n">
-        <v>0.09336099585062239</v>
+        <v>105.5464993743002</v>
       </c>
       <c r="E320" t="n">
-        <v>3.705394190871369</v>
-      </c>
-      <c r="F320" t="n">
-        <v>105.5464993743002</v>
-      </c>
-      <c r="G320" t="n">
         <v>27.45257854179017</v>
       </c>
     </row>
@@ -7806,22 +6520,18 @@
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
-        <v>3304557005191</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>3304557005191</t>
+        </is>
       </c>
       <c r="C321" t="n">
-        <v>0.3617463617463617</v>
+        <v>3.607068607068607</v>
       </c>
       <c r="D321" t="n">
-        <v>0.1309771309771309</v>
+        <v>113.3460383460384</v>
       </c>
       <c r="E321" t="n">
-        <v>3.607068607068607</v>
-      </c>
-      <c r="F321" t="n">
-        <v>113.3460383460384</v>
-      </c>
-      <c r="G321" t="n">
         <v>42.17651717651718</v>
       </c>
     </row>
@@ -7829,22 +6539,18 @@
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
-        <v>3304557005192</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>3304557005192</t>
+        </is>
       </c>
       <c r="C322" t="n">
-        <v>0.3237704918032787</v>
+        <v>3.680327868852459</v>
       </c>
       <c r="D322" t="n">
-        <v>0.125</v>
+        <v>105.0928636481916</v>
       </c>
       <c r="E322" t="n">
-        <v>3.680327868852459</v>
-      </c>
-      <c r="F322" t="n">
-        <v>105.0928636481916</v>
-      </c>
-      <c r="G322" t="n">
         <v>43.31983476450689</v>
       </c>
     </row>
@@ -7852,22 +6558,18 @@
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
-        <v>3304557005193</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>3304557005193</t>
+        </is>
       </c>
       <c r="C323" t="n">
-        <v>0.6024096385542169</v>
+        <v>5.275100401606426</v>
       </c>
       <c r="D323" t="n">
-        <v>0.216867469879518</v>
+        <v>123.0771571133016</v>
       </c>
       <c r="E323" t="n">
-        <v>5.275100401606426</v>
-      </c>
-      <c r="F323" t="n">
-        <v>123.0771571133016</v>
-      </c>
-      <c r="G323" t="n">
         <v>40.64461308437211</v>
       </c>
     </row>
@@ -7875,22 +6577,18 @@
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
-        <v>3304557005194</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>3304557005194</t>
+        </is>
       </c>
       <c r="C324" t="n">
-        <v>0.5604838709677419</v>
+        <v>5.014112903225806</v>
       </c>
       <c r="D324" t="n">
-        <v>0.1975806451612903</v>
+        <v>122.0871198693779</v>
       </c>
       <c r="E324" t="n">
-        <v>5.014112903225806</v>
-      </c>
-      <c r="F324" t="n">
-        <v>122.0871198693779</v>
-      </c>
-      <c r="G324" t="n">
         <v>41.75677593016302</v>
       </c>
     </row>
@@ -7898,22 +6596,18 @@
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
-        <v>3304557005195</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>3304557005195</t>
+        </is>
       </c>
       <c r="C325" t="n">
-        <v>0.4180327868852459</v>
+        <v>4.008196721311475</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1536885245901639</v>
+        <v>116.1722612542285</v>
       </c>
       <c r="E325" t="n">
-        <v>4.008196721311475</v>
-      </c>
-      <c r="F325" t="n">
-        <v>116.1722612542285</v>
-      </c>
-      <c r="G325" t="n">
         <v>47.26450689565444</v>
       </c>
     </row>
@@ -7921,22 +6615,18 @@
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
-        <v>3304557005196</v>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>3304557005196</t>
+        </is>
       </c>
       <c r="C326" t="n">
-        <v>0.3762993762993763</v>
+        <v>3.79002079002079</v>
       </c>
       <c r="D326" t="n">
-        <v>0.158004158004158</v>
+        <v>107.1007821007821</v>
       </c>
       <c r="E326" t="n">
-        <v>3.79002079002079</v>
-      </c>
-      <c r="F326" t="n">
-        <v>107.1007821007821</v>
-      </c>
-      <c r="G326" t="n">
         <v>50.4991254991255</v>
       </c>
     </row>
@@ -7944,22 +6634,18 @@
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
-        <v>3304557005197</v>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>3304557005197</t>
+        </is>
       </c>
       <c r="C327" t="n">
-        <v>0.3572895277207392</v>
+        <v>3.542094455852156</v>
       </c>
       <c r="D327" t="n">
-        <v>0.135523613963039</v>
+        <v>121.0028563724662</v>
       </c>
       <c r="E327" t="n">
-        <v>3.542094455852156</v>
-      </c>
-      <c r="F327" t="n">
-        <v>121.0028563724662</v>
-      </c>
-      <c r="G327" t="n">
         <v>48.80063468359157</v>
       </c>
     </row>
@@ -7967,22 +6653,18 @@
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
-        <v>3304557005198</v>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>3304557005198</t>
+        </is>
       </c>
       <c r="C328" t="n">
-        <v>0.360655737704918</v>
+        <v>3.53688524590164</v>
       </c>
       <c r="D328" t="n">
-        <v>0.1209016393442622</v>
+        <v>109.1034022898777</v>
       </c>
       <c r="E328" t="n">
-        <v>3.53688524590164</v>
-      </c>
-      <c r="F328" t="n">
-        <v>109.1034022898777</v>
-      </c>
-      <c r="G328" t="n">
         <v>39.45241347905282</v>
       </c>
     </row>
@@ -7990,22 +6672,18 @@
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
-        <v>3304557005199</v>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>3304557005199</t>
+        </is>
       </c>
       <c r="C329" t="n">
-        <v>0.3731656184486373</v>
+        <v>3.534591194968554</v>
       </c>
       <c r="D329" t="n">
-        <v>0.1257861635220125</v>
+        <v>128.1255199494193</v>
       </c>
       <c r="E329" t="n">
-        <v>3.534591194968554</v>
-      </c>
-      <c r="F329" t="n">
-        <v>128.1255199494193</v>
-      </c>
-      <c r="G329" t="n">
         <v>41.72406908255965</v>
       </c>
     </row>
@@ -8013,22 +6691,18 @@
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
-        <v>3304557005200</v>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>3304557005200</t>
+        </is>
       </c>
       <c r="C330" t="n">
-        <v>0.6068548387096774</v>
+        <v>4.780241935483871</v>
       </c>
       <c r="D330" t="n">
-        <v>0.1975806451612903</v>
+        <v>138.8396885372692</v>
       </c>
       <c r="E330" t="n">
-        <v>4.780241935483871</v>
-      </c>
-      <c r="F330" t="n">
-        <v>138.8396885372692</v>
-      </c>
-      <c r="G330" t="n">
         <v>49.33103410925992</v>
       </c>
     </row>
@@ -8036,22 +6710,18 @@
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
-        <v>3304904005001</v>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>3304904005001</t>
+        </is>
       </c>
       <c r="C331" t="n">
-        <v>5.892</v>
+        <v>44.428</v>
       </c>
       <c r="D331" t="n">
-        <v>2.182</v>
+        <v>133.4340591821768</v>
       </c>
       <c r="E331" t="n">
-        <v>44.428</v>
-      </c>
-      <c r="F331" t="n">
-        <v>133.4340591821768</v>
-      </c>
-      <c r="G331" t="n">
         <v>49.63240100344409</v>
       </c>
     </row>
@@ -8059,22 +6729,18 @@
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
-        <v>3304904005002</v>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>3304904005002</t>
+        </is>
       </c>
       <c r="C332" t="n">
-        <v>3.468</v>
+        <v>25.72</v>
       </c>
       <c r="D332" t="n">
-        <v>1.174</v>
+        <v>137.0269482952357</v>
       </c>
       <c r="E332" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="F332" t="n">
-        <v>137.0269482952357</v>
-      </c>
-      <c r="G332" t="n">
         <v>46.56956868284902</v>
       </c>
     </row>
@@ -8082,22 +6748,18 @@
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
-        <v>3304904005003</v>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>3304904005003</t>
+        </is>
       </c>
       <c r="C333" t="n">
-        <v>4.056</v>
+        <v>29.03</v>
       </c>
       <c r="D333" t="n">
-        <v>1.394</v>
+        <v>142.1294403181437</v>
       </c>
       <c r="E333" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="F333" t="n">
-        <v>142.1294403181437</v>
-      </c>
-      <c r="G333" t="n">
         <v>49.42443259072146</v>
       </c>
     </row>
@@ -8105,22 +6767,18 @@
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
-        <v>3304904005004</v>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>3304904005004</t>
+        </is>
       </c>
       <c r="C334" t="n">
-        <v>2.716</v>
+        <v>21.812</v>
       </c>
       <c r="D334" t="n">
-        <v>0.96</v>
+        <v>126.848424457324</v>
       </c>
       <c r="E334" t="n">
-        <v>21.812</v>
-      </c>
-      <c r="F334" t="n">
-        <v>126.848424457324</v>
-      </c>
-      <c r="G334" t="n">
         <v>45.03872338187527</v>
       </c>
     </row>
@@ -8128,22 +6786,18 @@
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
-        <v>3304904005005</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>3304904005005</t>
+        </is>
       </c>
       <c r="C335" t="n">
-        <v>1.44</v>
+        <v>10.84</v>
       </c>
       <c r="D335" t="n">
-        <v>0.526</v>
+        <v>137.610136303325</v>
       </c>
       <c r="E335" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="F335" t="n">
-        <v>137.610136303325</v>
-      </c>
-      <c r="G335" t="n">
         <v>49.76592190059678</v>
       </c>
     </row>
@@ -8151,22 +6805,18 @@
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
-        <v>3305109005001</v>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>3305109005001</t>
+        </is>
       </c>
       <c r="C336" t="n">
-        <v>1.904</v>
+        <v>14.088</v>
       </c>
       <c r="D336" t="n">
-        <v>0.658</v>
+        <v>141.0304536981243</v>
       </c>
       <c r="E336" t="n">
-        <v>14.088</v>
-      </c>
-      <c r="F336" t="n">
-        <v>141.0304536981243</v>
-      </c>
-      <c r="G336" t="n">
         <v>48.27147156600442</v>
       </c>
     </row>
@@ -8174,22 +6824,18 @@
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
-        <v>3305109005002</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>3305109005002</t>
+        </is>
       </c>
       <c r="C337" t="n">
-        <v>0.966</v>
+        <v>7.302</v>
       </c>
       <c r="D337" t="n">
-        <v>0.354</v>
+        <v>143.2040975364504</v>
       </c>
       <c r="E337" t="n">
-        <v>7.302</v>
-      </c>
-      <c r="F337" t="n">
-        <v>143.2040975364504</v>
-      </c>
-      <c r="G337" t="n">
         <v>49.87245336362984</v>
       </c>
     </row>
@@ -8197,22 +6843,18 @@
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
-        <v>3305109005003</v>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>3305109005003</t>
+        </is>
       </c>
       <c r="C338" t="n">
-        <v>1.202</v>
+        <v>9.683999999999999</v>
       </c>
       <c r="D338" t="n">
-        <v>0.412</v>
+        <v>134.8675140219257</v>
       </c>
       <c r="E338" t="n">
-        <v>9.683999999999999</v>
-      </c>
-      <c r="F338" t="n">
-        <v>134.8675140219257</v>
-      </c>
-      <c r="G338" t="n">
         <v>45.65367818456053</v>
       </c>
     </row>
@@ -8220,22 +6862,18 @@
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
-        <v>3305109005004</v>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>3305109005004</t>
+        </is>
       </c>
       <c r="C339" t="n">
-        <v>1.666</v>
+        <v>13.848</v>
       </c>
       <c r="D339" t="n">
-        <v>0.644</v>
+        <v>124.0724070589226</v>
       </c>
       <c r="E339" t="n">
-        <v>13.848</v>
-      </c>
-      <c r="F339" t="n">
-        <v>124.0724070589226</v>
-      </c>
-      <c r="G339" t="n">
         <v>48.40414093989947</v>
       </c>
     </row>
@@ -8243,22 +6881,18 @@
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
-        <v>3305109005005</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>3305109005005</t>
+        </is>
       </c>
       <c r="C340" t="n">
-        <v>2.066</v>
+        <v>16.698</v>
       </c>
       <c r="D340" t="n">
-        <v>0.78</v>
+        <v>128.0864156533816</v>
       </c>
       <c r="E340" t="n">
-        <v>16.698</v>
-      </c>
-      <c r="F340" t="n">
-        <v>128.0864156533816</v>
-      </c>
-      <c r="G340" t="n">
         <v>47.94023418950188</v>
       </c>
     </row>
@@ -8266,22 +6900,18 @@
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
-        <v>3305554003001</v>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>3305554003001</t>
+        </is>
       </c>
       <c r="C341" t="n">
-        <v>0.2692307692307692</v>
+        <v>2.744343891402715</v>
       </c>
       <c r="D341" t="n">
-        <v>0.085972850678733</v>
+        <v>109.4448035624506</v>
       </c>
       <c r="E341" t="n">
-        <v>2.744343891402715</v>
-      </c>
-      <c r="F341" t="n">
-        <v>109.4448035624506</v>
-      </c>
-      <c r="G341" t="n">
         <v>35.80945198592258</v>
       </c>
     </row>
@@ -8289,22 +6919,18 @@
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
-        <v>3305554003002</v>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>3305554003002</t>
+        </is>
       </c>
       <c r="C342" t="n">
-        <v>0.1735941320293398</v>
+        <v>2.19559902200489</v>
       </c>
       <c r="D342" t="n">
-        <v>0.0855745721271393</v>
+        <v>89.75433694260099</v>
       </c>
       <c r="E342" t="n">
-        <v>2.19559902200489</v>
-      </c>
-      <c r="F342" t="n">
-        <v>89.75433694260099</v>
-      </c>
-      <c r="G342" t="n">
         <v>47.08930026778438</v>
       </c>
     </row>
@@ -8312,22 +6938,18 @@
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
-        <v>3305554003003</v>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>3305554003003</t>
+        </is>
       </c>
       <c r="C343" t="n">
-        <v>0.3755458515283842</v>
+        <v>2.951965065502184</v>
       </c>
       <c r="D343" t="n">
-        <v>0.131004366812227</v>
+        <v>154.0964857558745</v>
       </c>
       <c r="E343" t="n">
-        <v>2.951965065502184</v>
-      </c>
-      <c r="F343" t="n">
-        <v>154.0964857558745</v>
-      </c>
-      <c r="G343" t="n">
         <v>50.857766687461</v>
       </c>
     </row>
@@ -8335,22 +6957,18 @@
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
-        <v>3305554003004</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>3305554003004</t>
+        </is>
       </c>
       <c r="C344" t="n">
-        <v>0.3678646934460888</v>
+        <v>3.219873150105708</v>
       </c>
       <c r="D344" t="n">
-        <v>0.1395348837209302</v>
+        <v>135.2184637068358</v>
       </c>
       <c r="E344" t="n">
-        <v>3.219873150105708</v>
-      </c>
-      <c r="F344" t="n">
-        <v>135.2184637068358</v>
-      </c>
-      <c r="G344" t="n">
         <v>52.788684184033</v>
       </c>
     </row>

--- a/VIDA2/data/RIO DE JANEIRO.xlsx
+++ b/VIDA2/data/RIO DE JANEIRO.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.792</v>
+        <v>14.7455</v>
       </c>
       <c r="D2" t="n">
-        <v>135.7196322331294</v>
+        <v>133.737035870192</v>
       </c>
       <c r="E2" t="n">
-        <v>48.19939031743439</v>
+        <v>47.61491816856923</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.172</v>
+        <v>12.4075</v>
       </c>
       <c r="D3" t="n">
-        <v>131.8449245596439</v>
+        <v>133.0714393850487</v>
       </c>
       <c r="E3" t="n">
-        <v>49.75702291307353</v>
+        <v>48.58188438249941</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.92</v>
+        <v>11.992</v>
       </c>
       <c r="D4" t="n">
-        <v>124.6359153316584</v>
+        <v>128.3308153170258</v>
       </c>
       <c r="E4" t="n">
-        <v>44.17171843464414</v>
+        <v>45.57467317534608</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.304</v>
+        <v>9.516500000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4767560698675</v>
+        <v>126.5253258239865</v>
       </c>
       <c r="E5" t="n">
-        <v>47.16045477570243</v>
+        <v>45.04092426407436</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.688</v>
+        <v>12.715</v>
       </c>
       <c r="D6" t="n">
-        <v>129.4916703326287</v>
+        <v>128.0194774539968</v>
       </c>
       <c r="E6" t="n">
-        <v>44.05860695376174</v>
+        <v>44.44234562779837</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33.5</v>
+        <v>33.647</v>
       </c>
       <c r="D7" t="n">
-        <v>130.8576500354792</v>
+        <v>130.0974769158319</v>
       </c>
       <c r="E7" t="n">
-        <v>47.2695046728284</v>
+        <v>46.07342676606802</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.326488706365503</v>
+        <v>3.4088772845953</v>
       </c>
       <c r="D8" t="n">
-        <v>124.1175320230761</v>
+        <v>131.557669194745</v>
       </c>
       <c r="E8" t="n">
-        <v>44.65467227274208</v>
+        <v>46.08831696299059</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.695652173913044</v>
+        <v>3.712144702842377</v>
       </c>
       <c r="D9" t="n">
-        <v>133.9823852246213</v>
+        <v>129.342520815389</v>
       </c>
       <c r="E9" t="n">
-        <v>50.19060764402381</v>
+        <v>43.81608629670649</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.743801652892562</v>
+        <v>3.502851218247797</v>
       </c>
       <c r="D10" t="n">
-        <v>131.8329397874853</v>
+        <v>136.8957104182611</v>
       </c>
       <c r="E10" t="n">
-        <v>35.59458218549128</v>
+        <v>48.80870094711465</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.34826883910387</v>
+        <v>4.353090172239108</v>
       </c>
       <c r="D11" t="n">
-        <v>140.1853125376547</v>
+        <v>130.8111144737284</v>
       </c>
       <c r="E11" t="n">
-        <v>49.96282287524649</v>
+        <v>49.63091619626574</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.681912681912682</v>
+        <v>3.822222222222222</v>
       </c>
       <c r="D12" t="n">
-        <v>137.8394878394878</v>
+        <v>119.8648724230121</v>
       </c>
       <c r="E12" t="n">
-        <v>51.43632643632643</v>
+        <v>43.51525591835669</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.368421052631579</v>
+        <v>3.395909805977976</v>
       </c>
       <c r="D13" t="n">
-        <v>147.1528822055138</v>
+        <v>134.2264505872268</v>
       </c>
       <c r="E13" t="n">
-        <v>49.734335839599</v>
+        <v>46.86951165713619</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.461065573770492</v>
+        <v>3.495846313603323</v>
       </c>
       <c r="D14" t="n">
-        <v>138.0236794171221</v>
+        <v>136.5145483914955</v>
       </c>
       <c r="E14" t="n">
-        <v>53.47628805620607</v>
+        <v>44.91276434422853</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.392116182572614</v>
+        <v>3.396551724137931</v>
       </c>
       <c r="D15" t="n">
-        <v>143.9093064611737</v>
+        <v>131.8059494783633</v>
       </c>
       <c r="E15" t="n">
-        <v>44.22544951590595</v>
+        <v>48.07620540379161</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.016597510373444</v>
+        <v>3.775012960082945</v>
       </c>
       <c r="D16" t="n">
-        <v>134.5641506948561</v>
+        <v>126.2569410314357</v>
       </c>
       <c r="E16" t="n">
-        <v>43.8607323980768</v>
+        <v>46.77522091985545</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.575257731958763</v>
+        <v>3.613753877973113</v>
       </c>
       <c r="D17" t="n">
-        <v>137.6599574537719</v>
+        <v>122.0379672034274</v>
       </c>
       <c r="E17" t="n">
-        <v>46.15202094583538</v>
+        <v>45.8160978972768</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.189690721649485</v>
+        <v>3.981025641025641</v>
       </c>
       <c r="D18" t="n">
-        <v>122.767959417444</v>
+        <v>125.6333111333112</v>
       </c>
       <c r="E18" t="n">
-        <v>49.73163148420878</v>
+        <v>45.11947311947316</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.784232365145228</v>
+        <v>3.822954194544519</v>
       </c>
       <c r="D19" t="n">
-        <v>131.443884607785</v>
+        <v>133.5098652134164</v>
       </c>
       <c r="E19" t="n">
-        <v>39.45942830797603</v>
+        <v>45.83163448320422</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.547916666666667</v>
+        <v>3.521693674856247</v>
       </c>
       <c r="D20" t="n">
-        <v>118.4358465608466</v>
+        <v>148.8356796250158</v>
       </c>
       <c r="E20" t="n">
-        <v>42.8166335978836</v>
+        <v>50.41487234377979</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.59538784067086</v>
+        <v>3.583766909469303</v>
       </c>
       <c r="D21" t="n">
-        <v>148.5824099031646</v>
+        <v>120.3068480253705</v>
       </c>
       <c r="E21" t="n">
-        <v>46.46850354397524</v>
+        <v>41.4763060964934</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.822810590631365</v>
+        <v>3.785640495867769</v>
       </c>
       <c r="D22" t="n">
-        <v>138.6238732980077</v>
+        <v>133.0189252322517</v>
       </c>
       <c r="E22" t="n">
-        <v>38.39184689490189</v>
+        <v>48.3003925023553</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.54122621564482</v>
+        <v>3.741298701298701</v>
       </c>
       <c r="D23" t="n">
-        <v>131.4440081881942</v>
+        <v>128.9536178107607</v>
       </c>
       <c r="E23" t="n">
-        <v>40.25974025974026</v>
+        <v>44.83735312306741</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.68801652892562</v>
+        <v>3.659043659043659</v>
       </c>
       <c r="D24" t="n">
-        <v>103.4697625606717</v>
+        <v>119.8179635679636</v>
       </c>
       <c r="E24" t="n">
-        <v>32.96766364948183</v>
+        <v>48.84747384747386</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.606185567010309</v>
+        <v>3.64775657555441</v>
       </c>
       <c r="D25" t="n">
-        <v>130.6774668630338</v>
+        <v>125.9768539294068</v>
       </c>
       <c r="E25" t="n">
-        <v>45.73392243495336</v>
+        <v>41.91022432383959</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.836438923395445</v>
+        <v>3.864223025296851</v>
       </c>
       <c r="D26" t="n">
-        <v>135.4038013975903</v>
+        <v>133.6137389828666</v>
       </c>
       <c r="E26" t="n">
-        <v>48.15561709971647</v>
+        <v>48.38506013002653</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.706967213114754</v>
+        <v>3.64778578784758</v>
       </c>
       <c r="D27" t="n">
-        <v>123.7086911267239</v>
+        <v>135.5798309711801</v>
       </c>
       <c r="E27" t="n">
-        <v>48.9680913348946</v>
+        <v>47.98358753044646</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.4581589958159</v>
+        <v>3.509865005192108</v>
       </c>
       <c r="D28" t="n">
-        <v>139.0408115826526</v>
+        <v>143.5832138324351</v>
       </c>
       <c r="E28" t="n">
-        <v>56.37660224480307</v>
+        <v>52.1281461702022</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.830265848670757</v>
+        <v>3.821777092963534</v>
       </c>
       <c r="D29" t="n">
-        <v>150.6881552893823</v>
+        <v>136.9612924312461</v>
       </c>
       <c r="E29" t="n">
-        <v>50.95838608108546</v>
+        <v>41.39804012685369</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2.509661835748792</v>
+        <v>2.418671248568156</v>
       </c>
       <c r="D30" t="n">
-        <v>123.2286634460548</v>
+        <v>125.6354660993836</v>
       </c>
       <c r="E30" t="n">
-        <v>53.14009661835748</v>
+        <v>42.5257731958763</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.562118126272912</v>
+        <v>4.45866935483871</v>
       </c>
       <c r="D31" t="n">
-        <v>137.3284782653418</v>
+        <v>125.7624669797048</v>
       </c>
       <c r="E31" t="n">
-        <v>48.25363028010686</v>
+        <v>42.39731342805943</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.536912751677852</v>
+        <v>2.617563739376771</v>
       </c>
       <c r="D32" t="n">
-        <v>152.0879940343028</v>
+        <v>119.6027249426684</v>
       </c>
       <c r="E32" t="n">
-        <v>54.77255779269201</v>
+        <v>41.6828544448941</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.567441860465116</v>
+        <v>2.654897494305239</v>
       </c>
       <c r="D33" t="n">
-        <v>123.8981173864895</v>
+        <v>121.1655277145027</v>
       </c>
       <c r="E33" t="n">
-        <v>44.98338870431893</v>
+        <v>41.69649636620026</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.236775818639798</v>
+        <v>2.306223043746149</v>
       </c>
       <c r="D34" t="n">
-        <v>114.5915797049299</v>
+        <v>109.7820027579733</v>
       </c>
       <c r="E34" t="n">
-        <v>33.6272040302267</v>
+        <v>44.12610392277678</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.243961352657005</v>
+        <v>2.353855349671249</v>
       </c>
       <c r="D35" t="n">
-        <v>98.79227053140094</v>
+        <v>129.1108075029176</v>
       </c>
       <c r="E35" t="n">
-        <v>42.7536231884058</v>
+        <v>44.49662710272393</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.412993039443156</v>
+        <v>2.375746714456392</v>
       </c>
       <c r="D36" t="n">
-        <v>140.8932714617169</v>
+        <v>119.0070831199864</v>
       </c>
       <c r="E36" t="n">
-        <v>65.08120649651971</v>
+        <v>45.60434090003982</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.331670822942644</v>
+        <v>2.328115216030056</v>
       </c>
       <c r="D37" t="n">
-        <v>147.4646716541978</v>
+        <v>108.0180099591496</v>
       </c>
       <c r="E37" t="n">
-        <v>68.86949293433084</v>
+        <v>41.6256671735695</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.985106382978723</v>
+        <v>3.086816720257235</v>
       </c>
       <c r="D38" t="n">
-        <v>134.6529888551165</v>
+        <v>137.5618843464504</v>
       </c>
       <c r="E38" t="n">
-        <v>50.0759878419453</v>
+        <v>45.13219006788137</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.415704387990762</v>
+        <v>2.479154433352907</v>
       </c>
       <c r="D39" t="n">
-        <v>111.5308479049818</v>
+        <v>116.4000969344481</v>
       </c>
       <c r="E39" t="n">
-        <v>50.65434949961509</v>
+        <v>40.96738715059327</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.135371179039301</v>
+        <v>3.0530590146183</v>
       </c>
       <c r="D40" t="n">
-        <v>135.4647535870243</v>
+        <v>133.2476087348855</v>
       </c>
       <c r="E40" t="n">
-        <v>54.23164899147432</v>
+        <v>45.39600897207828</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.305764411027569</v>
+        <v>2.251829268292683</v>
       </c>
       <c r="D41" t="n">
-        <v>135.6725146198831</v>
+        <v>110.9642373209446</v>
       </c>
       <c r="E41" t="n">
-        <v>38.0952380952381</v>
+        <v>35.43699186991871</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.083844580777096</v>
+        <v>4.027123848515865</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7945921381504</v>
+        <v>142.6604286762935</v>
       </c>
       <c r="E42" t="n">
-        <v>44.34625247508683</v>
+        <v>51.53579219597643</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.203836930455636</v>
+        <v>2.195</v>
       </c>
       <c r="D43" t="n">
-        <v>137.9696243005596</v>
+        <v>120.4642857142858</v>
       </c>
       <c r="E43" t="n">
-        <v>53.35731414868106</v>
+        <v>41.46875000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.225490196078431</v>
+        <v>2.176991150442478</v>
       </c>
       <c r="D44" t="n">
-        <v>127.124183006536</v>
+        <v>125.9195713683704</v>
       </c>
       <c r="E44" t="n">
-        <v>42.44281045751634</v>
+        <v>47.8733971464692</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.36150234741784</v>
+        <v>2.233861144945189</v>
       </c>
       <c r="D45" t="n">
-        <v>142.4491392801252</v>
+        <v>117.915144133171</v>
       </c>
       <c r="E45" t="n">
-        <v>49.2566510172144</v>
+        <v>47.3710921640276</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.397701149425288</v>
+        <v>2.333530106257379</v>
       </c>
       <c r="D46" t="n">
-        <v>139.9507389162562</v>
+        <v>142.2935289818407</v>
       </c>
       <c r="E46" t="n">
-        <v>45.90585659551176</v>
+        <v>49.53758362849272</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.198979591836735</v>
+        <v>2.276608910891089</v>
       </c>
       <c r="D47" t="n">
-        <v>108.7159863945578</v>
+        <v>113.836338991042</v>
       </c>
       <c r="E47" t="n">
-        <v>31.25</v>
+        <v>40.16089108910894</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>3.030335284725918</v>
       </c>
       <c r="D48" t="n">
-        <v>133.9830804116519</v>
+        <v>130.7984236802758</v>
       </c>
       <c r="E48" t="n">
-        <v>50.28083028083028</v>
+        <v>47.28410079660743</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.370762711864407</v>
+        <v>3.409019402202412</v>
       </c>
       <c r="D49" t="n">
-        <v>124.1786050578424</v>
+        <v>130.1204418142017</v>
       </c>
       <c r="E49" t="n">
-        <v>46.65556900726394</v>
+        <v>43.40150323370041</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.047619047619047</v>
+        <v>2.095804633688165</v>
       </c>
       <c r="D50" t="n">
-        <v>143.2987229979711</v>
+        <v>140.5417896651461</v>
       </c>
       <c r="E50" t="n">
-        <v>46.93280821100371</v>
+        <v>54.78575901243401</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.385365853658536</v>
+        <v>2.285272277227723</v>
       </c>
       <c r="D51" t="n">
-        <v>122.6016260162602</v>
+        <v>125.1237623762377</v>
       </c>
       <c r="E51" t="n">
-        <v>43.65853658536585</v>
+        <v>38.91295379537956</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.354761904761905</v>
+        <v>2.384382566585956</v>
       </c>
       <c r="D52" t="n">
-        <v>113.2369614512472</v>
+        <v>118.894125446789</v>
       </c>
       <c r="E52" t="n">
-        <v>40.18140589569161</v>
+        <v>43.4271589991929</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.238396624472574</v>
+        <v>3.335254059717129</v>
       </c>
       <c r="D53" t="n">
-        <v>153.5504989618913</v>
+        <v>133.230456174406</v>
       </c>
       <c r="E53" t="n">
-        <v>48.96858884200656</v>
+        <v>47.55275572457343</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.308176100628931</v>
+        <v>3.440544787847041</v>
       </c>
       <c r="D54" t="n">
-        <v>127.3817843000233</v>
+        <v>128.9501692068481</v>
       </c>
       <c r="E54" t="n">
-        <v>49.2446174836112</v>
+        <v>45.78084595109215</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4.800813008130081</v>
+        <v>4.953054013124684</v>
       </c>
       <c r="D55" t="n">
-        <v>139.2714162531236</v>
+        <v>132.5127001553049</v>
       </c>
       <c r="E55" t="n">
-        <v>46.7118191203557</v>
+        <v>49.07037687199223</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10.048</v>
+        <v>10.013</v>
       </c>
       <c r="D56" t="n">
-        <v>128.2825960816974</v>
+        <v>129.2538090943543</v>
       </c>
       <c r="E56" t="n">
-        <v>45.61852825238202</v>
+        <v>46.30780580573529</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.279503105590062</v>
+        <v>3.46303093864709</v>
       </c>
       <c r="D57" t="n">
-        <v>124.7535245982451</v>
+        <v>137.3767073688417</v>
       </c>
       <c r="E57" t="n">
-        <v>53.97646981497913</v>
+        <v>52.55595508610714</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.590200445434299</v>
+        <v>2.708171206225681</v>
       </c>
       <c r="D58" t="n">
-        <v>126.116237140736</v>
+        <v>116.4807168003388</v>
       </c>
       <c r="E58" t="n">
-        <v>46.56909534415102</v>
+        <v>41.34241245136187</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.063291139240506</v>
+        <v>2.046692607003891</v>
       </c>
       <c r="D59" t="n">
-        <v>130.6540084388186</v>
+        <v>121.4440121054908</v>
       </c>
       <c r="E59" t="n">
-        <v>59.9367088607595</v>
+        <v>41.24513618677044</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4.174897119341564</v>
+        <v>4.18047788510422</v>
       </c>
       <c r="D60" t="n">
-        <v>142.3748804921644</v>
+        <v>132.1170525796859</v>
       </c>
       <c r="E60" t="n">
-        <v>54.48755633940817</v>
+        <v>46.05131495065406</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3.314699792960663</v>
+        <v>3.332464825429911</v>
       </c>
       <c r="D61" t="n">
-        <v>143.4059614183838</v>
+        <v>122.8938683342019</v>
       </c>
       <c r="E61" t="n">
-        <v>53.00946465542737</v>
+        <v>43.32241494826175</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.297872340425532</v>
+        <v>2.310221159593544</v>
       </c>
       <c r="D62" t="n">
-        <v>134.2480018011933</v>
+        <v>109.9721059972106</v>
       </c>
       <c r="E62" t="n">
-        <v>46.15839243498817</v>
+        <v>40.14743972902969</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.8215859030837</v>
+        <v>2.943089430894309</v>
       </c>
       <c r="D63" t="n">
-        <v>158.0580029368576</v>
+        <v>131.0427151890567</v>
       </c>
       <c r="E63" t="n">
-        <v>51.72540381791483</v>
+        <v>50.0460274444014</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.068459657701712</v>
+        <v>2.148760330578512</v>
       </c>
       <c r="D64" t="n">
-        <v>117.1789498195366</v>
+        <v>112.7418036508946</v>
       </c>
       <c r="E64" t="n">
-        <v>37.83909651880312</v>
+        <v>36.85102776011868</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.016483516483516</v>
+        <v>2.019697964543664</v>
       </c>
       <c r="D65" t="n">
-        <v>108.7781266352695</v>
+        <v>121.5364412344058</v>
       </c>
       <c r="E65" t="n">
-        <v>45.81371009942439</v>
+        <v>44.79098270956447</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.309352517985612</v>
+        <v>2.249544626593807</v>
       </c>
       <c r="D66" t="n">
-        <v>122.1251570172434</v>
+        <v>122.0603116777981</v>
       </c>
       <c r="E66" t="n">
-        <v>47.66472536256709</v>
+        <v>38.180530257033</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.271784232365145</v>
+        <v>3.404924044002095</v>
       </c>
       <c r="D67" t="n">
-        <v>153.8678126852401</v>
+        <v>134.0949720205877</v>
       </c>
       <c r="E67" t="n">
-        <v>56.24629519857733</v>
+        <v>50.42322499106155</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.976127320954907</v>
+        <v>2.07277452891488</v>
       </c>
       <c r="D68" t="n">
-        <v>121.3527851458886</v>
+        <v>98.60298895386616</v>
       </c>
       <c r="E68" t="n">
-        <v>42.83819628647216</v>
+        <v>35.72666233484948</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.274509803921569</v>
+        <v>2.295985620131816</v>
       </c>
       <c r="D69" t="n">
-        <v>123.202614379085</v>
+        <v>136.748552027162</v>
       </c>
       <c r="E69" t="n">
-        <v>38.52124183006536</v>
+        <v>50.44937088076691</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.398373983739837</v>
+        <v>4.466768138001015</v>
       </c>
       <c r="D70" t="n">
-        <v>122.5207211487699</v>
+        <v>137.8834720158922</v>
       </c>
       <c r="E70" t="n">
-        <v>51.8074912891986</v>
+        <v>49.73799243205634</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.026030368763557</v>
+        <v>2.823878984332793</v>
       </c>
       <c r="D71" t="n">
-        <v>128.1496401886857</v>
+        <v>128.1836073165085</v>
       </c>
       <c r="E71" t="n">
-        <v>45.40164583548531</v>
+        <v>47.9631344704278</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.271393643031785</v>
+        <v>2.268125</v>
       </c>
       <c r="D72" t="n">
-        <v>83.94458027709858</v>
+        <v>120.7098214285714</v>
       </c>
       <c r="E72" t="n">
-        <v>25.4278728606357</v>
+        <v>48.51636904761906</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.268235294117647</v>
+        <v>2.357268981753973</v>
       </c>
       <c r="D73" t="n">
-        <v>143.2156862745098</v>
+        <v>125.5192129824267</v>
       </c>
       <c r="E73" t="n">
-        <v>41.88235294117647</v>
+        <v>45.5569102273046</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3.043103448275862</v>
+        <v>2.993603411513859</v>
       </c>
       <c r="D74" t="n">
-        <v>131.6682060755336</v>
+        <v>126.0216773276476</v>
       </c>
       <c r="E74" t="n">
-        <v>47.48563218390805</v>
+        <v>46.62148441466138</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.235849056603774</v>
+        <v>2.33787788974511</v>
       </c>
       <c r="D75" t="n">
-        <v>138.6623989218329</v>
+        <v>128.2214130465464</v>
       </c>
       <c r="E75" t="n">
-        <v>45.47955974842767</v>
+        <v>47.42710362153161</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2.120512820512821</v>
+        <v>2.182216656230432</v>
       </c>
       <c r="D76" t="n">
-        <v>144.1086691086691</v>
+        <v>121.5269702120047</v>
       </c>
       <c r="E76" t="n">
-        <v>61.41025641025641</v>
+        <v>40.67149715239886</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.482678983833718</v>
+        <v>2.477688787185355</v>
       </c>
       <c r="D77" t="n">
-        <v>129.1762894534257</v>
+        <v>124.2394936616905</v>
       </c>
       <c r="E77" t="n">
-        <v>38.29869130100077</v>
+        <v>42.30140568813339</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.934782608695652</v>
+        <v>3.0524064171123</v>
       </c>
       <c r="D78" t="n">
-        <v>132.5051759834369</v>
+        <v>115.6179441473559</v>
       </c>
       <c r="E78" t="n">
-        <v>45.92650103519668</v>
+        <v>40.27820218996688</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.080338266384778</v>
+        <v>3.075280298985585</v>
       </c>
       <c r="D79" t="n">
-        <v>134.707540521494</v>
+        <v>134.563004771227</v>
       </c>
       <c r="E79" t="n">
-        <v>43.85382059800664</v>
+        <v>47.49616522173916</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.560175054704595</v>
+        <v>2.616111111111111</v>
       </c>
       <c r="D80" t="n">
-        <v>144.4774408669376</v>
+        <v>126.3921957671959</v>
       </c>
       <c r="E80" t="n">
-        <v>57.09596748984056</v>
+        <v>40.44576719576721</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2.178217821782178</v>
+        <v>2.221078134463961</v>
       </c>
       <c r="D81" t="n">
-        <v>144.2244224422442</v>
+        <v>121.2612846471115</v>
       </c>
       <c r="E81" t="n">
-        <v>45.58580858085808</v>
+        <v>47.44743445530848</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.811111111111111</v>
+        <v>2.718612334801762</v>
       </c>
       <c r="D82" t="n">
-        <v>111.5</v>
+        <v>130.4497937207189</v>
       </c>
       <c r="E82" t="n">
-        <v>48.66666666666666</v>
+        <v>49.70762534088525</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.51605504587156</v>
+        <v>2.473714285714286</v>
       </c>
       <c r="D83" t="n">
-        <v>131.230886850153</v>
+        <v>136.3873015873017</v>
       </c>
       <c r="E83" t="n">
-        <v>48.1460244648318</v>
+        <v>50.0934240362812</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.943844492440605</v>
+        <v>2.868350349274583</v>
       </c>
       <c r="D84" t="n">
-        <v>150.1697007096575</v>
+        <v>128.593178270771</v>
       </c>
       <c r="E84" t="n">
-        <v>47.4442044636429</v>
+        <v>45.68353760992128</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.132196162046908</v>
+        <v>3.180511182108626</v>
       </c>
       <c r="D85" t="n">
-        <v>135.6685957965276</v>
+        <v>127.0109815636972</v>
       </c>
       <c r="E85" t="n">
-        <v>44.23291704741597</v>
+        <v>42.12498098280847</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.441176470588236</v>
+        <v>3.462101411395714</v>
       </c>
       <c r="D86" t="n">
-        <v>125.8636788048553</v>
+        <v>134.3433400542654</v>
       </c>
       <c r="E86" t="n">
-        <v>45.92587034813926</v>
+        <v>46.73640670765607</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.094218415417559</v>
+        <v>3.108943089430894</v>
       </c>
       <c r="D87" t="n">
-        <v>131.0416029366779</v>
+        <v>141.0119585322838</v>
       </c>
       <c r="E87" t="n">
-        <v>47.6496380136637</v>
+        <v>52.77992859293669</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.203023758099352</v>
+        <v>3.122030237580994</v>
       </c>
       <c r="D88" t="n">
-        <v>122.8247454489356</v>
+        <v>138.0114785622346</v>
       </c>
       <c r="E88" t="n">
-        <v>44.24046076313895</v>
+        <v>50.30104734478383</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5.678714859437751</v>
+        <v>5.879638916750251</v>
       </c>
       <c r="D89" t="n">
-        <v>121.1141825599657</v>
+        <v>119.1301955594832</v>
       </c>
       <c r="E89" t="n">
-        <v>42.40874030030653</v>
+        <v>41.00063538378482</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.8</v>
+        <v>2.738962472406181</v>
       </c>
       <c r="D90" t="n">
-        <v>129.4572452636969</v>
+        <v>117.0012964714952</v>
       </c>
       <c r="E90" t="n">
-        <v>56.49257552483357</v>
+        <v>38.9999211605172</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.310416666666667</v>
+        <v>3.335073068893528</v>
       </c>
       <c r="D91" t="n">
-        <v>130.265376984127</v>
+        <v>124.4089041322862</v>
       </c>
       <c r="E91" t="n">
-        <v>41.29216269841269</v>
+        <v>47.59005202637768</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.511387163561077</v>
+        <v>3.528223718280683</v>
       </c>
       <c r="D92" t="n">
-        <v>123.1177495152651</v>
+        <v>112.8949291688805</v>
       </c>
       <c r="E92" t="n">
-        <v>43.71816359393999</v>
+        <v>39.28121191197317</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.099593495934959</v>
+        <v>4.146267140680549</v>
       </c>
       <c r="D93" t="n">
-        <v>137.9912657351682</v>
+        <v>130.3978299788354</v>
       </c>
       <c r="E93" t="n">
-        <v>42.9579623177184</v>
+        <v>45.46519588419031</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>11.382</v>
+        <v>11.2365</v>
       </c>
       <c r="D94" t="n">
-        <v>110.3225481175171</v>
+        <v>114.6893195633241</v>
       </c>
       <c r="E94" t="n">
-        <v>40.25464878258995</v>
+        <v>42.23738912082139</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.729032258064516</v>
+        <v>2.628508530544854</v>
       </c>
       <c r="D95" t="n">
-        <v>103.8376856118792</v>
+        <v>124.6180255261158</v>
       </c>
       <c r="E95" t="n">
-        <v>50.00256016385048</v>
+        <v>44.35621249049976</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.532</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D96" t="n">
-        <v>128.7562168223932</v>
+        <v>126.6711073900614</v>
       </c>
       <c r="E96" t="n">
-        <v>46.94415861915857</v>
+        <v>46.36244975297264</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.510250569476082</v>
+        <v>2.5685828116107</v>
       </c>
       <c r="D97" t="n">
-        <v>143.5296669920816</v>
+        <v>123.7377022522157</v>
       </c>
       <c r="E97" t="n">
-        <v>44.95064540622628</v>
+        <v>45.13442827330135</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.142</v>
+        <v>13.034</v>
       </c>
       <c r="D98" t="n">
-        <v>136.9293112375128</v>
+        <v>132.0222539225103</v>
       </c>
       <c r="E98" t="n">
-        <v>52.95116766102833</v>
+        <v>47.49260256268674</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>23.334</v>
+        <v>23.2945</v>
       </c>
       <c r="D99" t="n">
-        <v>125.9749421961703</v>
+        <v>130.2815439391358</v>
       </c>
       <c r="E99" t="n">
-        <v>45.85888277757549</v>
+        <v>47.15409484428494</v>
       </c>
     </row>
     <row r="100">
@@ -2327,13 +2327,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>14.462</v>
+        <v>14.871</v>
       </c>
       <c r="D100" t="n">
-        <v>133.2362448062798</v>
+        <v>130.6855798070905</v>
       </c>
       <c r="E100" t="n">
-        <v>48.65397294797752</v>
+        <v>47.6048345293563</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>12.36</v>
+        <v>12.0635</v>
       </c>
       <c r="D101" t="n">
-        <v>125.5283549010329</v>
+        <v>130.6198022089036</v>
       </c>
       <c r="E101" t="n">
-        <v>41.6722761672452</v>
+        <v>47.34037238798417</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15.512</v>
+        <v>15.4025</v>
       </c>
       <c r="D102" t="n">
-        <v>125.0600963946341</v>
+        <v>132.2578346437753</v>
       </c>
       <c r="E102" t="n">
-        <v>45.89245863173984</v>
+        <v>47.48464855505013</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8.59</v>
+        <v>8.798999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>132.0013888072711</v>
+        <v>126.8635039968629</v>
       </c>
       <c r="E103" t="n">
-        <v>49.38568261803552</v>
+        <v>44.62828161260818</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7.246</v>
+        <v>7.327</v>
       </c>
       <c r="D104" t="n">
-        <v>130.3969752469752</v>
+        <v>134.8900675713175</v>
       </c>
       <c r="E104" t="n">
-        <v>46.95931568431565</v>
+        <v>48.32333916083921</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>8.116</v>
+        <v>8.095595595595595</v>
       </c>
       <c r="D105" t="n">
-        <v>127.0466019274842</v>
+        <v>118.6442518141863</v>
       </c>
       <c r="E105" t="n">
-        <v>40.49394380129674</v>
+        <v>42.9088289382407</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2.110803324099723</v>
+        <v>1.993220338983051</v>
       </c>
       <c r="D106" t="n">
-        <v>105.8237699511938</v>
+        <v>121.3962873284907</v>
       </c>
       <c r="E106" t="n">
-        <v>51.33887349953832</v>
+        <v>50.49717514124294</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3.232758620689655</v>
+        <v>3.113006396588486</v>
       </c>
       <c r="D107" t="n">
-        <v>114.05736863711</v>
+        <v>140.8082884895252</v>
       </c>
       <c r="E107" t="n">
-        <v>38.07727832512315</v>
+        <v>52.98824753782105</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.138655462184874</v>
+        <v>3.098509052183174</v>
       </c>
       <c r="D108" t="n">
-        <v>124.4897959183674</v>
+        <v>144.6177121895971</v>
       </c>
       <c r="E108" t="n">
-        <v>49.16466586634652</v>
+        <v>57.63519110164474</v>
       </c>
     </row>
     <row r="109">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2.595505617977528</v>
+        <v>2.759176863181313</v>
       </c>
       <c r="D109" t="n">
-        <v>139.1974317817015</v>
+        <v>126.4032346346029</v>
       </c>
       <c r="E109" t="n">
-        <v>40.28357410379883</v>
+        <v>48.84792626728112</v>
       </c>
     </row>
     <row r="110">
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2.417840375586854</v>
+        <v>2.383303938859494</v>
       </c>
       <c r="D110" t="n">
-        <v>148.5188911245249</v>
+        <v>123.0438677528625</v>
       </c>
       <c r="E110" t="n">
-        <v>41.49340487368656</v>
+        <v>44.27997536463145</v>
       </c>
     </row>
     <row r="111">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.668949771689498</v>
+        <v>2.648829431438127</v>
       </c>
       <c r="D111" t="n">
-        <v>130.3924766253534</v>
+        <v>117.6052007573748</v>
       </c>
       <c r="E111" t="n">
-        <v>47.72233094150902</v>
+        <v>40.96260020173064</v>
       </c>
     </row>
     <row r="112">
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2.249376558603492</v>
+        <v>2.191697191697192</v>
       </c>
       <c r="D112" t="n">
-        <v>158.4372402327515</v>
+        <v>129.6703296703297</v>
       </c>
       <c r="E112" t="n">
-        <v>52.24438902743143</v>
+        <v>43.71184371184371</v>
       </c>
     </row>
     <row r="113">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2.840958605664488</v>
+        <v>2.826652221018418</v>
       </c>
       <c r="D113" t="n">
-        <v>134.0128644050213</v>
+        <v>135.9655798036081</v>
       </c>
       <c r="E113" t="n">
-        <v>43.70266625168586</v>
+        <v>47.66526509484255</v>
       </c>
     </row>
     <row r="114">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3.189361702127659</v>
+        <v>3.197674418604651</v>
       </c>
       <c r="D114" t="n">
-        <v>125.258358662614</v>
+        <v>129.0490033222593</v>
       </c>
       <c r="E114" t="n">
-        <v>45.46605876393109</v>
+        <v>45.06569012382965</v>
       </c>
     </row>
     <row r="115">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3.094017094017094</v>
+        <v>3.119098712446352</v>
       </c>
       <c r="D115" t="n">
-        <v>128.197496947497</v>
+        <v>132.8109033312896</v>
       </c>
       <c r="E115" t="n">
-        <v>53.79527879527878</v>
+        <v>44.12553648068671</v>
       </c>
     </row>
     <row r="116">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3.35531914893617</v>
+        <v>3.280274986779482</v>
       </c>
       <c r="D116" t="n">
-        <v>154.2451874366768</v>
+        <v>129.1611056550243</v>
       </c>
       <c r="E116" t="n">
-        <v>62.20533603512325</v>
+        <v>44.32021354284708</v>
       </c>
     </row>
     <row r="117">
@@ -2650,13 +2650,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2.238095238095238</v>
+        <v>2.278874925194494</v>
       </c>
       <c r="D117" t="n">
-        <v>141.0714285714286</v>
+        <v>118.0205275806713</v>
       </c>
       <c r="E117" t="n">
-        <v>51.78571428571427</v>
+        <v>47.95199148879578</v>
       </c>
     </row>
     <row r="118">
@@ -2669,13 +2669,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2.691441441441441</v>
+        <v>2.773829667230682</v>
       </c>
       <c r="D118" t="n">
-        <v>162.8968253968254</v>
+        <v>111.6914654562709</v>
       </c>
       <c r="E118" t="n">
-        <v>51.07250107250107</v>
+        <v>39.34233968074916</v>
       </c>
     </row>
     <row r="119">
@@ -2688,13 +2688,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3.303157894736842</v>
+        <v>3.132870864461046</v>
       </c>
       <c r="D119" t="n">
-        <v>145.1979949874687</v>
+        <v>145.3043739729972</v>
       </c>
       <c r="E119" t="n">
-        <v>51.12781954887217</v>
+        <v>46.72777862479037</v>
       </c>
     </row>
     <row r="120">
@@ -2707,13 +2707,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2.784444444444444</v>
+        <v>2.80153930731171</v>
       </c>
       <c r="D120" t="n">
-        <v>93.36772486772487</v>
+        <v>123.9482708971439</v>
       </c>
       <c r="E120" t="n">
-        <v>29.76719576719577</v>
+        <v>42.087489201288</v>
       </c>
     </row>
     <row r="121">
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3.221276595744681</v>
+        <v>3.202211690363349</v>
       </c>
       <c r="D121" t="n">
-        <v>140.1063829787234</v>
+        <v>136.3510034521094</v>
       </c>
       <c r="E121" t="n">
-        <v>55.35967578520769</v>
+        <v>48.58007974121715</v>
       </c>
     </row>
     <row r="122">
@@ -2745,13 +2745,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2.918859649122807</v>
+        <v>2.870844686648502</v>
       </c>
       <c r="D122" t="n">
-        <v>144.2930242272348</v>
+        <v>140.1784092383548</v>
       </c>
       <c r="E122" t="n">
-        <v>44.7577276524645</v>
+        <v>46.54469962371869</v>
       </c>
     </row>
     <row r="123">
@@ -2764,13 +2764,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3.323467230443975</v>
+        <v>3.359055118110236</v>
       </c>
       <c r="D123" t="n">
-        <v>135.143873040279</v>
+        <v>140.2214685285552</v>
       </c>
       <c r="E123" t="n">
-        <v>44.82281284606866</v>
+        <v>58.65706180666805</v>
       </c>
     </row>
     <row r="124">
@@ -2783,13 +2783,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2.601809954751132</v>
+        <v>2.622122403144301</v>
       </c>
       <c r="D124" t="n">
-        <v>110.2995044171515</v>
+        <v>125.8342022940564</v>
       </c>
       <c r="E124" t="n">
-        <v>39.42577030812324</v>
+        <v>42.45006817999519</v>
       </c>
     </row>
     <row r="125">
@@ -2802,13 +2802,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2.283653846153846</v>
+        <v>2.283445326817349</v>
       </c>
       <c r="D125" t="n">
-        <v>89.34867216117219</v>
+        <v>114.2929865898711</v>
       </c>
       <c r="E125" t="n">
-        <v>27.00320512820513</v>
+        <v>42.27754021584202</v>
       </c>
     </row>
     <row r="126">
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2.534246575342466</v>
+        <v>2.563829787234043</v>
       </c>
       <c r="D126" t="n">
-        <v>118.9008480104371</v>
+        <v>116.0130305077114</v>
       </c>
       <c r="E126" t="n">
-        <v>47.28201782996303</v>
+        <v>47.79987053923224</v>
       </c>
     </row>
     <row r="127">
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2.25615763546798</v>
+        <v>2.291743119266055</v>
       </c>
       <c r="D127" t="n">
-        <v>156.7733990147783</v>
+        <v>136.8603465851173</v>
       </c>
       <c r="E127" t="n">
-        <v>64.28571428571429</v>
+        <v>48.57288481141691</v>
       </c>
     </row>
     <row r="128">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2.697940503432494</v>
+        <v>2.603881278538813</v>
       </c>
       <c r="D128" t="n">
-        <v>106.9303694017653</v>
+        <v>119.4213415959992</v>
       </c>
       <c r="E128" t="n">
-        <v>40.50888089789692</v>
+        <v>43.64399869536856</v>
       </c>
     </row>
     <row r="129">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3.118143459915612</v>
+        <v>3.207387862796834</v>
       </c>
       <c r="D129" t="n">
-        <v>147.2908713415042</v>
+        <v>136.8201616618504</v>
       </c>
       <c r="E129" t="n">
-        <v>46.57424151095037</v>
+        <v>44.43941868743978</v>
       </c>
     </row>
     <row r="130">
@@ -2897,13 +2897,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4.23155737704918</v>
+        <v>4.315333672949567</v>
       </c>
       <c r="D130" t="n">
-        <v>120.3757421995127</v>
+        <v>121.9827082409865</v>
       </c>
       <c r="E130" t="n">
-        <v>46.23282000331181</v>
+        <v>45.00765974275909</v>
       </c>
     </row>
     <row r="131">
@@ -2916,13 +2916,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6.426</v>
+        <v>6.442885771543086</v>
       </c>
       <c r="D131" t="n">
-        <v>141.1645243645243</v>
+        <v>139.0509964595635</v>
       </c>
       <c r="E131" t="n">
-        <v>46.26046176046175</v>
+        <v>54.16094496129572</v>
       </c>
     </row>
     <row r="132">
@@ -2935,13 +2935,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4.66060606060606</v>
+        <v>4.631392405063291</v>
       </c>
       <c r="D132" t="n">
-        <v>120.3246753246753</v>
+        <v>114.0345955029499</v>
       </c>
       <c r="E132" t="n">
-        <v>44.35626102292769</v>
+        <v>41.30261018868615</v>
       </c>
     </row>
     <row r="133">
@@ -2954,13 +2954,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.048936170212766</v>
+        <v>3.075320512820513</v>
       </c>
       <c r="D133" t="n">
-        <v>106.5045592705167</v>
+        <v>123.3630952380953</v>
       </c>
       <c r="E133" t="n">
-        <v>43.89057750759878</v>
+        <v>45.37821360738027</v>
       </c>
     </row>
     <row r="134">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4.063265306122449</v>
+        <v>4.214720812182741</v>
       </c>
       <c r="D134" t="n">
-        <v>147.9302500220868</v>
+        <v>120.4048574099335</v>
       </c>
       <c r="E134" t="n">
-        <v>49.04526312689576</v>
+        <v>48.47234125152909</v>
       </c>
     </row>
     <row r="135">
@@ -2992,13 +2992,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4.26369168356998</v>
+        <v>4.415736040609137</v>
       </c>
       <c r="D135" t="n">
-        <v>115.6033677838952</v>
+        <v>127.777887650984</v>
       </c>
       <c r="E135" t="n">
-        <v>39.80891207057535</v>
+        <v>46.19355264025315</v>
       </c>
     </row>
     <row r="136">
@@ -3011,13 +3011,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4.206477732793522</v>
+        <v>4.313645621181263</v>
       </c>
       <c r="D136" t="n">
-        <v>116.416259179417</v>
+        <v>127.6046212782465</v>
       </c>
       <c r="E136" t="n">
-        <v>42.41058648953386</v>
+        <v>45.75655448873372</v>
       </c>
     </row>
     <row r="137">
@@ -3030,13 +3030,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4.627766599597585</v>
+        <v>4.685194542698333</v>
       </c>
       <c r="D137" t="n">
-        <v>119.5565165887097</v>
+        <v>126.455530321119</v>
       </c>
       <c r="E137" t="n">
-        <v>38.71185264545425</v>
+        <v>48.65672898770421</v>
       </c>
     </row>
     <row r="138">
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5.542168674698795</v>
+        <v>5.325628140703517</v>
       </c>
       <c r="D138" t="n">
-        <v>129.2983845694689</v>
+        <v>122.2101907026529</v>
       </c>
       <c r="E138" t="n">
-        <v>46.36165931346654</v>
+        <v>40.09662308657283</v>
       </c>
     </row>
     <row r="139">
@@ -3068,13 +3068,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.781704781704782</v>
+        <v>3.73094867807154</v>
       </c>
       <c r="D139" t="n">
-        <v>134.7746097746098</v>
+        <v>126.9755804359226</v>
       </c>
       <c r="E139" t="n">
-        <v>56.19245619245618</v>
+        <v>45.10974740368207</v>
       </c>
     </row>
     <row r="140">
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4.947791164658635</v>
+        <v>5.085901970692269</v>
       </c>
       <c r="D140" t="n">
-        <v>137.61141246081</v>
+        <v>119.3333489821615</v>
       </c>
       <c r="E140" t="n">
-        <v>49.60737611340019</v>
+        <v>43.70971513467721</v>
       </c>
     </row>
     <row r="141">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.796257796257797</v>
+        <v>3.819437340153453</v>
       </c>
       <c r="D141" t="n">
-        <v>124.2789492789493</v>
+        <v>128.1363138140632</v>
       </c>
       <c r="E141" t="n">
-        <v>44.17879417879418</v>
+        <v>45.77562250196523</v>
       </c>
     </row>
     <row r="142">
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3.941176470588236</v>
+        <v>4.059855521155831</v>
       </c>
       <c r="D142" t="n">
-        <v>140.9906073192078</v>
+        <v>132.9207600105433</v>
       </c>
       <c r="E142" t="n">
-        <v>49.77542741234426</v>
+        <v>49.39964289809492</v>
       </c>
     </row>
     <row r="143">
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.997971602434077</v>
+        <v>4.05038560411311</v>
       </c>
       <c r="D143" t="n">
-        <v>147.9055990212176</v>
+        <v>134.2640749710157</v>
       </c>
       <c r="E143" t="n">
-        <v>58.52087961621427</v>
+        <v>46.26491332146862</v>
       </c>
     </row>
     <row r="144">
@@ -3163,13 +3163,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4.862626262626263</v>
+        <v>4.760847628657921</v>
       </c>
       <c r="D144" t="n">
-        <v>109.3766671039398</v>
+        <v>121.780548748258</v>
       </c>
       <c r="E144" t="n">
-        <v>43.65735274826185</v>
+        <v>41.10149716860111</v>
       </c>
     </row>
     <row r="145">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4.237804878048781</v>
+        <v>4.267548321464903</v>
       </c>
       <c r="D145" t="n">
-        <v>135.778810169054</v>
+        <v>120.6482973904134</v>
       </c>
       <c r="E145" t="n">
-        <v>51.03319783197831</v>
+        <v>43.71582413291468</v>
       </c>
     </row>
     <row r="146">
@@ -3201,13 +3201,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>4.405241935483871</v>
+        <v>4.32673769660071</v>
       </c>
       <c r="D146" t="n">
-        <v>125.7163367546432</v>
+        <v>116.2959046140173</v>
       </c>
       <c r="E146" t="n">
-        <v>49.20154889912955</v>
+        <v>42.5350482428108</v>
       </c>
     </row>
     <row r="147">
@@ -3220,13 +3220,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4.053061224489796</v>
+        <v>3.966240409207161</v>
       </c>
       <c r="D147" t="n">
-        <v>111.2812527608446</v>
+        <v>118.4518735030244</v>
       </c>
       <c r="E147" t="n">
-        <v>40.74829931972788</v>
+        <v>45.7684813055657</v>
       </c>
     </row>
     <row r="148">
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3.590062111801242</v>
+        <v>3.621009268795057</v>
       </c>
       <c r="D148" t="n">
-        <v>120.7648803922096</v>
+        <v>128.5637008603024</v>
       </c>
       <c r="E148" t="n">
-        <v>50.89896301076425</v>
+        <v>44.12446890562236</v>
       </c>
     </row>
     <row r="149">
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3.948875255623722</v>
+        <v>3.882262210796915</v>
       </c>
       <c r="D149" t="n">
-        <v>124.4208813227218</v>
+        <v>137.0524748031175</v>
       </c>
       <c r="E149" t="n">
-        <v>44.18240246461105</v>
+        <v>49.02456441016851</v>
       </c>
     </row>
     <row r="150">
@@ -3277,13 +3277,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3.761506276150628</v>
+        <v>3.684788290642969</v>
       </c>
       <c r="D150" t="n">
-        <v>126.6769608819818</v>
+        <v>117.3879222363279</v>
       </c>
       <c r="E150" t="n">
-        <v>37.09155210201234</v>
+        <v>38.8376521544321</v>
       </c>
     </row>
     <row r="151">
@@ -3296,13 +3296,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3.907786885245902</v>
+        <v>3.612108773730118</v>
       </c>
       <c r="D151" t="n">
-        <v>130.6368722352329</v>
+        <v>132.2565055376754</v>
       </c>
       <c r="E151" t="n">
-        <v>52.0353564923237</v>
+        <v>46.20075637263941</v>
       </c>
     </row>
     <row r="152">
@@ -3315,13 +3315,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3.967413441955193</v>
+        <v>3.793316195372751</v>
       </c>
       <c r="D152" t="n">
-        <v>118.2095908165155</v>
+        <v>118.994628621878</v>
       </c>
       <c r="E152" t="n">
-        <v>43.50539141781504</v>
+        <v>38.78077506612211</v>
       </c>
     </row>
     <row r="153">
@@ -3334,13 +3334,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4.957489878542511</v>
+        <v>5.07377463365336</v>
       </c>
       <c r="D153" t="n">
-        <v>125.9470792365529</v>
+        <v>129.4471698084632</v>
       </c>
       <c r="E153" t="n">
-        <v>43.16881948460895</v>
+        <v>43.64184325023135</v>
       </c>
     </row>
     <row r="154">
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3.901437371663244</v>
+        <v>3.653547384774728</v>
       </c>
       <c r="D154" t="n">
-        <v>126.8407898284695</v>
+        <v>128.829782623154</v>
       </c>
       <c r="E154" t="n">
-        <v>49.8265138922223</v>
+        <v>47.1391991977181</v>
       </c>
     </row>
     <row r="155">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4.113821138211383</v>
+        <v>4.115423901940756</v>
       </c>
       <c r="D155" t="n">
-        <v>141.0779035779036</v>
+        <v>136.0904388994276</v>
       </c>
       <c r="E155" t="n">
-        <v>46.89725360457066</v>
+        <v>47.94696564359485</v>
       </c>
     </row>
     <row r="156">
@@ -3391,13 +3391,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4.878787878787879</v>
+        <v>4.99798285426122</v>
       </c>
       <c r="D156" t="n">
-        <v>131.0471963502266</v>
+        <v>136.9403821370536</v>
       </c>
       <c r="E156" t="n">
-        <v>53.05916305916305</v>
+        <v>49.92444799555236</v>
       </c>
     </row>
     <row r="157">
@@ -3410,13 +3410,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4.92914979757085</v>
+        <v>4.951466127401416</v>
       </c>
       <c r="D157" t="n">
-        <v>131.3470155575418</v>
+        <v>129.990651691865</v>
       </c>
       <c r="E157" t="n">
-        <v>42.47404642141483</v>
+        <v>47.03247825088072</v>
       </c>
     </row>
     <row r="158">
@@ -3429,13 +3429,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3.770186335403727</v>
+        <v>3.653409090909091</v>
       </c>
       <c r="D158" t="n">
-        <v>122.764468106083</v>
+        <v>129.5026154401154</v>
       </c>
       <c r="E158" t="n">
-        <v>36.48328896776103</v>
+        <v>47.04246195723468</v>
       </c>
     </row>
     <row r="159">
@@ -3448,13 +3448,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5.277665995975855</v>
+        <v>5.404809619238477</v>
       </c>
       <c r="D159" t="n">
-        <v>134.8449951568664</v>
+        <v>139.1051194407908</v>
       </c>
       <c r="E159" t="n">
-        <v>45.28444950980161</v>
+        <v>49.06684970562728</v>
       </c>
     </row>
     <row r="160">
@@ -3467,13 +3467,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4.813765182186235</v>
+        <v>4.82897384305835</v>
       </c>
       <c r="D160" t="n">
-        <v>132.3663178926336</v>
+        <v>141.7119963649139</v>
       </c>
       <c r="E160" t="n">
-        <v>47.73873787031681</v>
+        <v>47.24165701278377</v>
       </c>
     </row>
     <row r="161">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5.114228456913827</v>
+        <v>5.100654252642174</v>
       </c>
       <c r="D161" t="n">
-        <v>127.5678340808601</v>
+        <v>132.9433022940822</v>
       </c>
       <c r="E161" t="n">
-        <v>53.92451569806278</v>
+        <v>47.34325815100855</v>
       </c>
     </row>
     <row r="162">
@@ -3505,13 +3505,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>4.099173553719008</v>
+        <v>3.761538461538461</v>
       </c>
       <c r="D162" t="n">
-        <v>121.1760461760462</v>
+        <v>117.455673955674</v>
       </c>
       <c r="E162" t="n">
-        <v>45.0839564475928</v>
+        <v>45.61357161357162</v>
       </c>
     </row>
     <row r="163">
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.967078189300412</v>
+        <v>3.878086419753086</v>
       </c>
       <c r="D163" t="n">
-        <v>127.6455026455027</v>
+        <v>125.3684515644392</v>
       </c>
       <c r="E163" t="n">
-        <v>49.30514729897444</v>
+        <v>40.54620647984845</v>
       </c>
     </row>
     <row r="164">
@@ -3543,13 +3543,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4.159274193548387</v>
+        <v>4.200407955124937</v>
       </c>
       <c r="D164" t="n">
-        <v>136.50633640553</v>
+        <v>130.4084407857992</v>
       </c>
       <c r="E164" t="n">
-        <v>43.2627688172043</v>
+        <v>50.55223687299159</v>
       </c>
     </row>
     <row r="165">
@@ -3562,13 +3562,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3.021691973969632</v>
+        <v>3.092925026399155</v>
       </c>
       <c r="D165" t="n">
-        <v>128.8348311124884</v>
+        <v>120.6460250414844</v>
       </c>
       <c r="E165" t="n">
-        <v>40.3470715835141</v>
+        <v>42.1833358475386</v>
       </c>
     </row>
     <row r="166">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.993603411513859</v>
+        <v>3.067805659369994</v>
       </c>
       <c r="D166" t="n">
-        <v>123.5455376180323</v>
+        <v>111.1562386121917</v>
       </c>
       <c r="E166" t="n">
-        <v>49.14712153518124</v>
+        <v>35.05347502944942</v>
       </c>
     </row>
     <row r="167">
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3.151898734177215</v>
+        <v>3.117678100263852</v>
       </c>
       <c r="D167" t="n">
-        <v>128.6668675909183</v>
+        <v>127.2111236755037</v>
       </c>
       <c r="E167" t="n">
-        <v>52.61954992967652</v>
+        <v>39.64463709846297</v>
       </c>
     </row>
     <row r="168">
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3.283298097251586</v>
+        <v>3.229836584080126</v>
       </c>
       <c r="D168" t="n">
-        <v>124.7491526561294</v>
+        <v>111.7612985035231</v>
       </c>
       <c r="E168" t="n">
-        <v>45.91513138024767</v>
+        <v>39.5093719026244</v>
       </c>
     </row>
     <row r="169">
@@ -3638,13 +3638,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2.779220779220779</v>
+        <v>2.810195227765727</v>
       </c>
       <c r="D169" t="n">
-        <v>122.8973407544836</v>
+        <v>124.9345797610441</v>
       </c>
       <c r="E169" t="n">
-        <v>44.57328385899814</v>
+        <v>46.00140309196707</v>
       </c>
     </row>
     <row r="170">
@@ -3657,13 +3657,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.948051948051948</v>
+        <v>2.863661053775122</v>
       </c>
       <c r="D170" t="n">
-        <v>117.0686456400742</v>
+        <v>125.5477095781278</v>
       </c>
       <c r="E170" t="n">
-        <v>50.99464028035455</v>
+        <v>45.10811929334473</v>
       </c>
     </row>
     <row r="171">
@@ -3676,13 +3676,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3.870707070707071</v>
+        <v>3.825931597753956</v>
       </c>
       <c r="D171" t="n">
-        <v>137.8050344717012</v>
+        <v>123.4494179746861</v>
       </c>
       <c r="E171" t="n">
-        <v>46.53278819945486</v>
+        <v>40.42050343734876</v>
       </c>
     </row>
     <row r="172">
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2.83974358974359</v>
+        <v>2.85553772070626</v>
       </c>
       <c r="D172" t="n">
-        <v>116.4631664631665</v>
+        <v>122.4487672722023</v>
       </c>
       <c r="E172" t="n">
-        <v>38.21225071225072</v>
+        <v>43.92595989706745</v>
       </c>
     </row>
     <row r="173">
@@ -3714,13 +3714,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3.571729957805907</v>
+        <v>3.5539494062984</v>
       </c>
       <c r="D173" t="n">
-        <v>129.3575447056459</v>
+        <v>121.707598888807</v>
       </c>
       <c r="E173" t="n">
-        <v>47.35031143258992</v>
+        <v>42.86451803230327</v>
       </c>
     </row>
     <row r="174">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3.51875</v>
+        <v>3.564857881136951</v>
       </c>
       <c r="D174" t="n">
-        <v>126.5575396825397</v>
+        <v>131.1429540886906</v>
       </c>
       <c r="E174" t="n">
-        <v>43.75496031746032</v>
+        <v>45.37399651740737</v>
       </c>
     </row>
     <row r="175">
@@ -3752,13 +3752,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4.132382892057026</v>
+        <v>4.045477772100154</v>
       </c>
       <c r="D175" t="n">
-        <v>108.6242847444477</v>
+        <v>125.8465431689754</v>
       </c>
       <c r="E175" t="n">
-        <v>38.81776743283872</v>
+        <v>42.46782003552573</v>
       </c>
     </row>
     <row r="176">
@@ -3771,13 +3771,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.403726708074534</v>
+        <v>3.563758389261745</v>
       </c>
       <c r="D176" t="n">
-        <v>133.6167800453515</v>
+        <v>122.3855190298143</v>
       </c>
       <c r="E176" t="n">
-        <v>46.15251897860594</v>
+        <v>44.08551925330446</v>
       </c>
     </row>
     <row r="177">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6.038461538461538</v>
+        <v>6.12744606121425</v>
       </c>
       <c r="D177" t="n">
-        <v>143.8920616046122</v>
+        <v>122.2635037568184</v>
       </c>
       <c r="E177" t="n">
-        <v>50.11493791858161</v>
+        <v>41.34490418986153</v>
       </c>
     </row>
     <row r="178">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3.589211618257261</v>
+        <v>3.43956043956044</v>
       </c>
       <c r="D178" t="n">
-        <v>100.2222880853586</v>
+        <v>125.2907145764289</v>
       </c>
       <c r="E178" t="n">
-        <v>38.9201738786801</v>
+        <v>43.3980796225694</v>
       </c>
     </row>
     <row r="179">
@@ -3828,13 +3828,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3.16804979253112</v>
+        <v>3.210970464135021</v>
       </c>
       <c r="D179" t="n">
-        <v>111.4157281169729</v>
+        <v>128.1712544370774</v>
       </c>
       <c r="E179" t="n">
-        <v>45.14424026872158</v>
+        <v>49.11425892438548</v>
       </c>
     </row>
     <row r="180">
@@ -3847,13 +3847,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>3.051934287228405</v>
       </c>
       <c r="D180" t="n">
-        <v>131.1608824320689</v>
+        <v>118.3870845635551</v>
       </c>
       <c r="E180" t="n">
-        <v>40.2710519235943</v>
+        <v>42.64264264264264</v>
       </c>
     </row>
     <row r="181">
@@ -3866,13 +3866,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>4.83567134268537</v>
+        <v>4.81712846347607</v>
       </c>
       <c r="D181" t="n">
-        <v>115.9565885016787</v>
+        <v>129.6721442565269</v>
       </c>
       <c r="E181" t="n">
-        <v>47.70739169536763</v>
+        <v>45.9404770991673</v>
       </c>
     </row>
     <row r="182">
@@ -3885,13 +3885,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3.200417536534447</v>
+        <v>3.308862087047719</v>
       </c>
       <c r="D182" t="n">
-        <v>135.2743811512079</v>
+        <v>137.8234420709514</v>
       </c>
       <c r="E182" t="n">
-        <v>47.20648175762997</v>
+        <v>50.10113117087421</v>
       </c>
     </row>
     <row r="183">
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2.779775280898876</v>
+        <v>2.685558583106267</v>
       </c>
       <c r="D183" t="n">
-        <v>131.4285714285715</v>
+        <v>136.9670429479695</v>
       </c>
       <c r="E183" t="n">
-        <v>54.25361155698234</v>
+        <v>46.97677436097053</v>
       </c>
     </row>
     <row r="184">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3.104477611940299</v>
+        <v>3.17939330543933</v>
       </c>
       <c r="D184" t="n">
-        <v>144.3902934308051</v>
+        <v>144.4469349804078</v>
       </c>
       <c r="E184" t="n">
-        <v>42.30632551528073</v>
+        <v>51.51300059772864</v>
       </c>
     </row>
     <row r="185">
@@ -3942,13 +3942,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3.331275720164609</v>
+        <v>3.2852680895367</v>
       </c>
       <c r="D185" t="n">
-        <v>117.8791887125221</v>
+        <v>120.3930244664238</v>
       </c>
       <c r="E185" t="n">
-        <v>43.98638056045464</v>
+        <v>41.23286482734687</v>
       </c>
     </row>
     <row r="186">
@@ -3961,13 +3961,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4.07361963190184</v>
+        <v>4.087531806615776</v>
       </c>
       <c r="D186" t="n">
-        <v>128.8514711827596</v>
+        <v>119.9554248409211</v>
       </c>
       <c r="E186" t="n">
-        <v>46.92366256783433</v>
+        <v>43.04355808172603</v>
       </c>
     </row>
     <row r="187">
@@ -3980,13 +3980,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3.536382536382536</v>
+        <v>3.43717549325026</v>
       </c>
       <c r="D187" t="n">
-        <v>141.0974160974161</v>
+        <v>119.8229513650076</v>
       </c>
       <c r="E187" t="n">
-        <v>48.28317328317328</v>
+        <v>44.37583444592787</v>
       </c>
     </row>
     <row r="188">
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3.558762886597938</v>
+        <v>3.532191069574248</v>
       </c>
       <c r="D188" t="n">
-        <v>122.5383608373299</v>
+        <v>122.2527530159929</v>
       </c>
       <c r="E188" t="n">
-        <v>42.73768613974799</v>
+        <v>43.16971824759988</v>
       </c>
     </row>
     <row r="189">
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4.361224489795919</v>
+        <v>4.430675469781615</v>
       </c>
       <c r="D189" t="n">
-        <v>132.3615896575081</v>
+        <v>124.1921866858383</v>
       </c>
       <c r="E189" t="n">
-        <v>50.31746031746029</v>
+        <v>43.59482146429833</v>
       </c>
     </row>
     <row r="190">
@@ -4037,13 +4037,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4.388548057259714</v>
+        <v>4.360346585117227</v>
       </c>
       <c r="D190" t="n">
-        <v>124.6706769712904</v>
+        <v>115.31928259757</v>
       </c>
       <c r="E190" t="n">
-        <v>44.21892013916552</v>
+        <v>40.39999529296167</v>
       </c>
     </row>
     <row r="191">
@@ -4056,13 +4056,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3.29769392033543</v>
+        <v>3.276890308839191</v>
       </c>
       <c r="D191" t="n">
-        <v>95.49266247379454</v>
+        <v>118.2928670548479</v>
       </c>
       <c r="E191" t="n">
-        <v>40.41379654587202</v>
+        <v>42.63527562249608</v>
       </c>
     </row>
     <row r="192">
@@ -4075,13 +4075,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3.631901840490797</v>
+        <v>3.621329211746521</v>
       </c>
       <c r="D192" t="n">
-        <v>94.67085402668221</v>
+        <v>113.7198138743734</v>
       </c>
       <c r="E192" t="n">
-        <v>41.48407829389424</v>
+        <v>43.47640309773234</v>
       </c>
     </row>
     <row r="193">
@@ -4094,13 +4094,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4.038461538461538</v>
+        <v>3.975909789851358</v>
       </c>
       <c r="D193" t="n">
-        <v>138.8422980528244</v>
+        <v>134.5817773547143</v>
       </c>
       <c r="E193" t="n">
-        <v>45.85823533191954</v>
+        <v>51.16464491144144</v>
       </c>
     </row>
     <row r="194">
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4.908906882591094</v>
+        <v>4.982862903225806</v>
       </c>
       <c r="D194" t="n">
-        <v>134.0577775800447</v>
+        <v>124.3839479852584</v>
       </c>
       <c r="E194" t="n">
-        <v>56.52994666152557</v>
+        <v>43.89031807126563</v>
       </c>
     </row>
     <row r="195">
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3.397916666666667</v>
+        <v>3.328838174273859</v>
       </c>
       <c r="D195" t="n">
-        <v>104.1699735449736</v>
+        <v>117.8258578673518</v>
       </c>
       <c r="E195" t="n">
-        <v>32.275958994709</v>
+        <v>40.24464038727526</v>
       </c>
     </row>
     <row r="196">
@@ -4151,13 +4151,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5.58316633266533</v>
+        <v>5.570712136409227</v>
       </c>
       <c r="D196" t="n">
-        <v>113.8531753261211</v>
+        <v>122.79663527156</v>
       </c>
       <c r="E196" t="n">
-        <v>30.05364986827912</v>
+        <v>42.94382063940741</v>
       </c>
     </row>
     <row r="197">
@@ -4170,13 +4170,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>5.370741482965932</v>
+        <v>5.481165243596183</v>
       </c>
       <c r="D197" t="n">
-        <v>133.8037268898993</v>
+        <v>125.0085856439446</v>
       </c>
       <c r="E197" t="n">
-        <v>39.75008514086669</v>
+        <v>42.95514742526293</v>
       </c>
     </row>
     <row r="198">
@@ -4189,13 +4189,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4.826961770623742</v>
+        <v>4.852169525731584</v>
       </c>
       <c r="D198" t="n">
-        <v>129.2254246982617</v>
+        <v>109.6864202060972</v>
       </c>
       <c r="E198" t="n">
-        <v>47.64147656501781</v>
+        <v>37.62014697938008</v>
       </c>
     </row>
     <row r="199">
@@ -4208,13 +4208,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4.741482965931864</v>
+        <v>4.761712846347607</v>
       </c>
       <c r="D199" t="n">
-        <v>151.4109026133073</v>
+        <v>128.6575906601095</v>
       </c>
       <c r="E199" t="n">
-        <v>49.46162165601042</v>
+        <v>43.52435837322491</v>
       </c>
     </row>
     <row r="200">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3.335456475583864</v>
+        <v>3.368146214099217</v>
       </c>
       <c r="D200" t="n">
-        <v>118.372763117986</v>
+        <v>126.6399353475072</v>
       </c>
       <c r="E200" t="n">
-        <v>34.15225962996664</v>
+        <v>46.29367151560363</v>
       </c>
     </row>
     <row r="201">
@@ -4246,13 +4246,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4.401622718052739</v>
+        <v>4.432942376338603</v>
       </c>
       <c r="D201" t="n">
-        <v>124.9638517894096</v>
+        <v>132.5546570829589</v>
       </c>
       <c r="E201" t="n">
-        <v>41.65861746997648</v>
+        <v>46.31241753883265</v>
       </c>
     </row>
     <row r="202">
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3.522540983606557</v>
+        <v>3.5984375</v>
       </c>
       <c r="D202" t="n">
-        <v>143.7817135050742</v>
+        <v>132.3555307539684</v>
       </c>
       <c r="E202" t="n">
-        <v>50.20735753317719</v>
+        <v>48.56440145502644</v>
       </c>
     </row>
     <row r="203">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4.540485829959514</v>
+        <v>4.449569183983781</v>
       </c>
       <c r="D203" t="n">
-        <v>149.3163999742947</v>
+        <v>149.8926708252607</v>
       </c>
       <c r="E203" t="n">
-        <v>55.02699055330635</v>
+        <v>52.34496876666161</v>
       </c>
     </row>
     <row r="204">
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>5.71</v>
+        <v>5.816725087631447</v>
       </c>
       <c r="D204" t="n">
-        <v>135.3284715284715</v>
+        <v>132.7169005811968</v>
       </c>
       <c r="E204" t="n">
-        <v>46.0396325896326</v>
+        <v>44.54414861275157</v>
       </c>
     </row>
     <row r="205">
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6.452</v>
+        <v>6.298298298298298</v>
       </c>
       <c r="D205" t="n">
-        <v>134.0134088134088</v>
+        <v>129.9081382414713</v>
       </c>
       <c r="E205" t="n">
-        <v>52.80427905427902</v>
+        <v>52.25476614365506</v>
       </c>
     </row>
     <row r="206">
@@ -4341,13 +4341,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>6.002008032128514</v>
+        <v>6.037612838515547</v>
       </c>
       <c r="D206" t="n">
-        <v>134.5827421128626</v>
+        <v>120.467815089179</v>
       </c>
       <c r="E206" t="n">
-        <v>48.71773697074904</v>
+        <v>44.80105943872244</v>
       </c>
     </row>
     <row r="207">
@@ -4360,13 +4360,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4.126272912423625</v>
+        <v>4.018839103869654</v>
       </c>
       <c r="D207" t="n">
-        <v>118.2628584359746</v>
+        <v>132.904675941845</v>
       </c>
       <c r="E207" t="n">
-        <v>40.78653864804578</v>
+        <v>47.39984218090123</v>
       </c>
     </row>
     <row r="208">
@@ -4379,13 +4379,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4.09979633401222</v>
+        <v>4.010681586978637</v>
       </c>
       <c r="D208" t="n">
-        <v>134.9085119451719</v>
+        <v>140.0226836010152</v>
       </c>
       <c r="E208" t="n">
-        <v>46.76801474153816</v>
+        <v>45.06392217480722</v>
       </c>
     </row>
     <row r="209">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3.53765690376569</v>
+        <v>3.58182756840475</v>
       </c>
       <c r="D209" t="n">
-        <v>113.6614199375706</v>
+        <v>131.5690647905414</v>
       </c>
       <c r="E209" t="n">
-        <v>41.99292687786414</v>
+        <v>51.55740977888626</v>
       </c>
     </row>
     <row r="210">
@@ -4417,13 +4417,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5.42570281124498</v>
+        <v>5.594771241830065</v>
       </c>
       <c r="D210" t="n">
-        <v>139.1462676101231</v>
+        <v>139.3782526634536</v>
       </c>
       <c r="E210" t="n">
-        <v>50.92831644036462</v>
+        <v>47.04270876748918</v>
       </c>
     </row>
     <row r="211">
@@ -4436,13 +4436,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5.482897384305835</v>
+        <v>5.569416498993964</v>
       </c>
       <c r="D211" t="n">
-        <v>127.0368967049048</v>
+        <v>124.251307601408</v>
       </c>
       <c r="E211" t="n">
-        <v>35.92042877757164</v>
+        <v>45.52867906741153</v>
       </c>
     </row>
     <row r="212">
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3.570247933884298</v>
+        <v>3.4</v>
       </c>
       <c r="D212" t="n">
-        <v>118.0981896890988</v>
+        <v>134.2736324626089</v>
       </c>
       <c r="E212" t="n">
-        <v>37.24747474747476</v>
+        <v>45.75469732950047</v>
       </c>
     </row>
     <row r="213">
@@ -4474,13 +4474,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5.473684210526316</v>
+        <v>5.454773869346734</v>
       </c>
       <c r="D213" t="n">
-        <v>137.8140078544936</v>
+        <v>133.5043655395413</v>
       </c>
       <c r="E213" t="n">
-        <v>49.15415780800394</v>
+        <v>48.28329961495793</v>
       </c>
     </row>
     <row r="214">
@@ -4493,13 +4493,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6.265060240963855</v>
+        <v>6.295887662988967</v>
       </c>
       <c r="D214" t="n">
-        <v>133.1162200138104</v>
+        <v>132.9674038487978</v>
       </c>
       <c r="E214" t="n">
-        <v>49.84171339593024</v>
+        <v>48.83382387143672</v>
       </c>
     </row>
     <row r="215">
@@ -4512,13 +4512,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3.62111801242236</v>
+        <v>3.610880829015544</v>
       </c>
       <c r="D215" t="n">
-        <v>110.7151072989582</v>
+        <v>136.222812880844</v>
       </c>
       <c r="E215" t="n">
-        <v>40.90670084458903</v>
+        <v>47.91804050871406</v>
       </c>
     </row>
     <row r="216">
@@ -4531,13 +4531,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3.411642411642412</v>
+        <v>3.372907949790795</v>
       </c>
       <c r="D216" t="n">
-        <v>113.2891132891133</v>
+        <v>127.5243657435081</v>
       </c>
       <c r="E216" t="n">
-        <v>41.84569184569184</v>
+        <v>48.20162548980539</v>
       </c>
     </row>
     <row r="217">
@@ -4550,13 +4550,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>6.554</v>
+        <v>6.900350525788683</v>
       </c>
       <c r="D217" t="n">
-        <v>129.1141136641135</v>
+        <v>129.3510445488411</v>
       </c>
       <c r="E217" t="n">
-        <v>48.16769896769897</v>
+        <v>48.67835316633513</v>
       </c>
     </row>
     <row r="218">
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4.774193548387097</v>
+        <v>4.80050505050505</v>
       </c>
       <c r="D218" t="n">
-        <v>131.2472361867523</v>
+        <v>136.5608815987603</v>
       </c>
       <c r="E218" t="n">
-        <v>43.31157194060419</v>
+        <v>48.05100062675823</v>
       </c>
     </row>
     <row r="219">
@@ -4588,13 +4588,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5.835010060362173</v>
+        <v>5.728549924736578</v>
       </c>
       <c r="D219" t="n">
-        <v>121.3456507722101</v>
+        <v>124.8612066976341</v>
       </c>
       <c r="E219" t="n">
-        <v>40.0954790793825</v>
+        <v>46.25709491489722</v>
       </c>
     </row>
     <row r="220">
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>5.243460764587526</v>
+        <v>5.100302419354839</v>
       </c>
       <c r="D220" t="n">
-        <v>120.9528455001292</v>
+        <v>126.9797686632363</v>
       </c>
       <c r="E220" t="n">
-        <v>37.0152371661426</v>
+        <v>47.15929651665545</v>
       </c>
     </row>
     <row r="221">
@@ -4626,13 +4626,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3.503105590062112</v>
+        <v>3.558259968928017</v>
       </c>
       <c r="D221" t="n">
-        <v>117.7215813861777</v>
+        <v>131.4999819790084</v>
       </c>
       <c r="E221" t="n">
-        <v>46.66025830622103</v>
+        <v>39.75094041122007</v>
       </c>
     </row>
     <row r="222">
@@ -4645,13 +4645,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3.705284552845528</v>
+        <v>3.810061601642711</v>
       </c>
       <c r="D222" t="n">
-        <v>111.9870305845916</v>
+        <v>135.059564551351</v>
       </c>
       <c r="E222" t="n">
-        <v>41.87475803329461</v>
+        <v>43.7078322088589</v>
       </c>
     </row>
     <row r="223">
@@ -4664,13 +4664,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3.672164948453608</v>
+        <v>3.553822152886116</v>
       </c>
       <c r="D223" t="n">
-        <v>125.6799214531173</v>
+        <v>120.7106725827476</v>
       </c>
       <c r="E223" t="n">
-        <v>44.05989199803633</v>
+        <v>43.79029129419145</v>
       </c>
     </row>
     <row r="224">
@@ -4683,13 +4683,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5.752</v>
+        <v>5.88671679197995</v>
       </c>
       <c r="D224" t="n">
-        <v>135.3267676767677</v>
+        <v>123.9342973929439</v>
       </c>
       <c r="E224" t="n">
-        <v>44.22734487734488</v>
+        <v>44.07620088071217</v>
       </c>
     </row>
     <row r="225">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6.088353413654619</v>
+        <v>6.317158579289645</v>
       </c>
       <c r="D225" t="n">
-        <v>146.8834044135249</v>
+        <v>122.9487690343116</v>
       </c>
       <c r="E225" t="n">
-        <v>46.35127255609181</v>
+        <v>43.90993365480612</v>
       </c>
     </row>
     <row r="226">
@@ -4721,13 +4721,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4.577868852459017</v>
+        <v>4.658770161290323</v>
       </c>
       <c r="D226" t="n">
-        <v>120.60483346344</v>
+        <v>129.5136525101243</v>
       </c>
       <c r="E226" t="n">
-        <v>51.54095107988549</v>
+        <v>47.31850111134387</v>
       </c>
     </row>
     <row r="227">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>6.008016032064128</v>
+        <v>5.894842263395093</v>
       </c>
       <c r="D227" t="n">
-        <v>113.6742460389754</v>
+        <v>137.2904279039797</v>
       </c>
       <c r="E227" t="n">
-        <v>46.07584577524455</v>
+        <v>49.8162749671592</v>
       </c>
     </row>
     <row r="228">
@@ -4759,13 +4759,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3.975460122699386</v>
+        <v>3.845486996430393</v>
       </c>
       <c r="D228" t="n">
-        <v>116.1107865095596</v>
+        <v>132.4896999425301</v>
       </c>
       <c r="E228" t="n">
-        <v>40.72694517479793</v>
+        <v>52.20368616595032</v>
       </c>
     </row>
     <row r="229">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5.429718875502008</v>
+        <v>5.484665661136249</v>
       </c>
       <c r="D229" t="n">
-        <v>146.2690589196614</v>
+        <v>141.2703951542562</v>
       </c>
       <c r="E229" t="n">
-        <v>45.18253388735317</v>
+        <v>52.64384517778188</v>
       </c>
     </row>
     <row r="230">
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3.620041753653445</v>
+        <v>3.743695316520844</v>
       </c>
       <c r="D230" t="n">
-        <v>133.2786559300129</v>
+        <v>123.5311723217024</v>
       </c>
       <c r="E230" t="n">
-        <v>42.19521489876396</v>
+        <v>45.24585610535173</v>
       </c>
     </row>
     <row r="231">
@@ -4816,13 +4816,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5.927855711422846</v>
+        <v>5.976441102756892</v>
       </c>
       <c r="D231" t="n">
-        <v>118.5185889594706</v>
+        <v>135.6453919235872</v>
       </c>
       <c r="E231" t="n">
-        <v>37.80926265896206</v>
+        <v>49.59000898850525</v>
       </c>
     </row>
     <row r="232">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3.594594594594595</v>
+        <v>3.45057232049948</v>
       </c>
       <c r="D232" t="n">
-        <v>135.3768603768604</v>
+        <v>133.2032604925423</v>
       </c>
       <c r="E232" t="n">
-        <v>45.52354552354552</v>
+        <v>46.84294633566225</v>
       </c>
     </row>
     <row r="233">
@@ -4854,13 +4854,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>4.288381742738589</v>
+        <v>4.091649694501018</v>
       </c>
       <c r="D233" t="n">
-        <v>129.3132121451624</v>
+        <v>130.698918924479</v>
       </c>
       <c r="E233" t="n">
-        <v>37.85072120134362</v>
+        <v>44.39841387397394</v>
       </c>
     </row>
     <row r="234">
@@ -4873,13 +4873,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3.736734693877551</v>
+        <v>3.806169665809769</v>
       </c>
       <c r="D234" t="n">
-        <v>138.6572724327826</v>
+        <v>131.9360516661288</v>
       </c>
       <c r="E234" t="n">
-        <v>46.98574667962424</v>
+        <v>48.6450809972661</v>
       </c>
     </row>
     <row r="235">
@@ -4892,13 +4892,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3.613778705636743</v>
+        <v>3.469206680584551</v>
       </c>
       <c r="D235" t="n">
-        <v>102.6783643171952</v>
+        <v>140.4567220068265</v>
       </c>
       <c r="E235" t="n">
-        <v>37.32644066673294</v>
+        <v>49.72329920137854</v>
       </c>
     </row>
     <row r="236">
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4.136456211812627</v>
+        <v>4.076098059244127</v>
       </c>
       <c r="D236" t="n">
-        <v>129.4402418129506</v>
+        <v>120.5050652445954</v>
       </c>
       <c r="E236" t="n">
-        <v>30.90631364562119</v>
+        <v>43.51684803676632</v>
       </c>
     </row>
     <row r="237">
@@ -4930,13 +4930,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4.232793522267206</v>
+        <v>4.378433367243133</v>
       </c>
       <c r="D237" t="n">
-        <v>149.7880774196563</v>
+        <v>132.8594585588481</v>
       </c>
       <c r="E237" t="n">
-        <v>51.63951545530495</v>
+        <v>44.78093682061129</v>
       </c>
     </row>
     <row r="238">
@@ -4949,13 +4949,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4.19551934826884</v>
+        <v>4.107928388746803</v>
       </c>
       <c r="D238" t="n">
-        <v>133.261403678919</v>
+        <v>129.154847709835</v>
       </c>
       <c r="E238" t="n">
-        <v>50.06223127404388</v>
+        <v>45.6091422076077</v>
       </c>
     </row>
     <row r="239">
@@ -4968,13 +4968,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3.670081967213114</v>
+        <v>3.793724279835391</v>
       </c>
       <c r="D239" t="n">
-        <v>143.7695899273768</v>
+        <v>131.8250479515912</v>
       </c>
       <c r="E239" t="n">
-        <v>52.23214285714284</v>
+        <v>48.70564106675217</v>
       </c>
     </row>
     <row r="240">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3.553497942386832</v>
+        <v>3.51644908616188</v>
       </c>
       <c r="D240" t="n">
-        <v>132.357674332983</v>
+        <v>135.2683492892372</v>
       </c>
       <c r="E240" t="n">
-        <v>49.74116532758507</v>
+        <v>46.95200795722987</v>
       </c>
     </row>
     <row r="241">
@@ -5006,13 +5006,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3.683438155136269</v>
+        <v>3.588538977800723</v>
       </c>
       <c r="D241" t="n">
-        <v>100.1439219992679</v>
+        <v>131.8673124042252</v>
       </c>
       <c r="E241" t="n">
-        <v>38.35063725000833</v>
+        <v>46.54677909711468</v>
       </c>
     </row>
     <row r="242">
@@ -5025,13 +5025,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>4.321862348178137</v>
+        <v>4.4375</v>
       </c>
       <c r="D242" t="n">
-        <v>108.3766604515592</v>
+        <v>134.9924367073756</v>
       </c>
       <c r="E242" t="n">
-        <v>38.37967587967589</v>
+        <v>49.08697896502776</v>
       </c>
     </row>
     <row r="243">
@@ -5044,13 +5044,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>5.28169014084507</v>
+        <v>5.317540322580645</v>
       </c>
       <c r="D243" t="n">
-        <v>120.4251482923515</v>
+        <v>126.881858900508</v>
       </c>
       <c r="E243" t="n">
-        <v>39.50768100667496</v>
+        <v>48.2209462804221</v>
       </c>
     </row>
     <row r="244">
@@ -5063,13 +5063,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>3.839835728952772</v>
+        <v>3.885625965996909</v>
       </c>
       <c r="D244" t="n">
-        <v>108.8108275479939</v>
+        <v>122.7811901304946</v>
       </c>
       <c r="E244" t="n">
-        <v>46.14256380170138</v>
+        <v>40.7084572076844</v>
       </c>
     </row>
     <row r="245">
@@ -5082,13 +5082,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5.708835341365462</v>
+        <v>5.624561403508772</v>
       </c>
       <c r="D245" t="n">
-        <v>138.6378793005299</v>
+        <v>143.1805148346502</v>
       </c>
       <c r="E245" t="n">
-        <v>47.04049297422791</v>
+        <v>51.11786709531072</v>
       </c>
     </row>
     <row r="246">
@@ -5101,13 +5101,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>5.998</v>
+        <v>6.293086172344689</v>
       </c>
       <c r="D246" t="n">
-        <v>145.2239427239427</v>
+        <v>120.5389354872142</v>
       </c>
       <c r="E246" t="n">
-        <v>48.9264291264291</v>
+        <v>40.84066074075506</v>
       </c>
     </row>
     <row r="247">
@@ -5120,13 +5120,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5.75</v>
+        <v>5.981444332998997</v>
       </c>
       <c r="D247" t="n">
-        <v>112.8094461094461</v>
+        <v>125.7399863593443</v>
       </c>
       <c r="E247" t="n">
-        <v>41.24350094350093</v>
+        <v>46.11606353080774</v>
       </c>
     </row>
     <row r="248">
@@ -5139,13 +5139,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6.551102204408818</v>
+        <v>6.435</v>
       </c>
       <c r="D248" t="n">
-        <v>128.7433675209224</v>
+        <v>128.0309163059162</v>
       </c>
       <c r="E248" t="n">
-        <v>43.36298860346954</v>
+        <v>44.87863525363528</v>
       </c>
     </row>
     <row r="249">
@@ -5158,13 +5158,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5.074148296593187</v>
+        <v>5.381717729784028</v>
       </c>
       <c r="D249" t="n">
-        <v>125.0416417250085</v>
+        <v>131.4712493265984</v>
       </c>
       <c r="E249" t="n">
-        <v>44.77454186873026</v>
+        <v>49.66683241419557</v>
       </c>
     </row>
     <row r="250">
@@ -5177,13 +5177,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>4.400406504065041</v>
+        <v>4.278058645096056</v>
       </c>
       <c r="D250" t="n">
-        <v>130.5701468811225</v>
+        <v>131.162630202064</v>
       </c>
       <c r="E250" t="n">
-        <v>56.33549490256807</v>
+        <v>46.05521851477365</v>
       </c>
     </row>
     <row r="251">
@@ -5196,13 +5196,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4.5</v>
+        <v>4.303353658536586</v>
       </c>
       <c r="D251" t="n">
-        <v>132.959876380929</v>
+        <v>138.1148887246447</v>
       </c>
       <c r="E251" t="n">
-        <v>51.79535376903794</v>
+        <v>43.67257065427795</v>
       </c>
     </row>
     <row r="252">
@@ -5215,13 +5215,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3.562240663900415</v>
+        <v>3.533023735810113</v>
       </c>
       <c r="D252" t="n">
-        <v>141.5390568398867</v>
+        <v>115.4864284895245</v>
       </c>
       <c r="E252" t="n">
-        <v>44.83139037080946</v>
+        <v>40.39940537618556</v>
       </c>
     </row>
     <row r="253">
@@ -5234,13 +5234,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>4.063265306122449</v>
+        <v>3.994379151762903</v>
       </c>
       <c r="D253" t="n">
-        <v>111.2058632977001</v>
+        <v>124.6344199716709</v>
       </c>
       <c r="E253" t="n">
-        <v>38.41674765144153</v>
+        <v>47.35383988066665</v>
       </c>
     </row>
     <row r="254">
@@ -5253,13 +5253,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3.6359918200409</v>
+        <v>3.767236910316226</v>
       </c>
       <c r="D254" t="n">
-        <v>105.8874606420619</v>
+        <v>125.6916345563314</v>
       </c>
       <c r="E254" t="n">
-        <v>39.43016197617425</v>
+        <v>49.87391503721207</v>
       </c>
     </row>
     <row r="255">
@@ -5272,13 +5272,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3.785862785862786</v>
+        <v>3.737899073120494</v>
       </c>
       <c r="D255" t="n">
-        <v>132.2690822690823</v>
+        <v>129.6639523081336</v>
       </c>
       <c r="E255" t="n">
-        <v>48.53974853974854</v>
+        <v>47.15930453572057</v>
       </c>
     </row>
     <row r="256">
@@ -5291,13 +5291,13 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.25</v>
+        <v>1.261818181818182</v>
       </c>
       <c r="D256" t="n">
-        <v>70.3125</v>
+        <v>50.90909090909091</v>
       </c>
       <c r="E256" t="n">
-        <v>27.34375</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
@@ -5310,13 +5310,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6.538152610441767</v>
+        <v>6.480180632212744</v>
       </c>
       <c r="D257" t="n">
-        <v>122.757134654725</v>
+        <v>132.5015502699897</v>
       </c>
       <c r="E257" t="n">
-        <v>41.76704041161871</v>
+        <v>46.11067139918116</v>
       </c>
     </row>
     <row r="258">
@@ -5329,13 +5329,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3.503105590062112</v>
+        <v>3.448525607863425</v>
       </c>
       <c r="D258" t="n">
-        <v>129.8966446481975</v>
+        <v>132.353279301029</v>
       </c>
       <c r="E258" t="n">
-        <v>46.23714219987512</v>
+        <v>47.92451900573991</v>
       </c>
     </row>
     <row r="259">
@@ -5348,13 +5348,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4.291836734693877</v>
+        <v>4.121690427698574</v>
       </c>
       <c r="D259" t="n">
-        <v>138.4954501281032</v>
+        <v>132.3316081971887</v>
       </c>
       <c r="E259" t="n">
-        <v>53.35608269281737</v>
+        <v>46.97695238683017</v>
       </c>
     </row>
     <row r="260">
@@ -5367,13 +5367,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3.803312629399586</v>
+        <v>3.646328852119959</v>
       </c>
       <c r="D260" t="n">
-        <v>116.6461270498538</v>
+        <v>129.185953940349</v>
       </c>
       <c r="E260" t="n">
-        <v>44.64491110453845</v>
+        <v>45.38828975230219</v>
       </c>
     </row>
     <row r="261">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3.97741273100616</v>
+        <v>3.989241803278689</v>
       </c>
       <c r="D261" t="n">
-        <v>129.9233164736245</v>
+        <v>135.9604904430723</v>
       </c>
       <c r="E261" t="n">
-        <v>44.08762011431415</v>
+        <v>49.70990274525111</v>
       </c>
     </row>
     <row r="262">
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4.493877551020408</v>
+        <v>4.481762917933131</v>
       </c>
       <c r="D262" t="n">
-        <v>127.0068027210885</v>
+        <v>123.5551344973837</v>
       </c>
       <c r="E262" t="n">
-        <v>42.63038548752834</v>
+        <v>44.19727379453823</v>
       </c>
     </row>
     <row r="263">
@@ -5424,13 +5424,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>4.659919028340081</v>
+        <v>4.81500253421186</v>
       </c>
       <c r="D263" t="n">
-        <v>152.2606048921839</v>
+        <v>116.2955673599363</v>
       </c>
       <c r="E263" t="n">
-        <v>52.97626350257927</v>
+        <v>40.46112416614191</v>
       </c>
     </row>
     <row r="264">
@@ -5443,13 +5443,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>5.652610441767068</v>
+        <v>5.512293025589564</v>
       </c>
       <c r="D264" t="n">
-        <v>131.5951618662462</v>
+        <v>124.6982125306259</v>
       </c>
       <c r="E264" t="n">
-        <v>44.71392061753507</v>
+        <v>43.93116361254847</v>
       </c>
     </row>
     <row r="265">
@@ -5462,13 +5462,13 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3.916155419222904</v>
+        <v>4.023088763468445</v>
       </c>
       <c r="D265" t="n">
-        <v>138.4304629703402</v>
+        <v>112.7864254211098</v>
       </c>
       <c r="E265" t="n">
-        <v>52.37128810748441</v>
+        <v>40.84253070912897</v>
       </c>
     </row>
     <row r="266">
@@ -5481,13 +5481,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4.098159509202454</v>
+        <v>4.332992849846782</v>
       </c>
       <c r="D266" t="n">
-        <v>119.5783425844775</v>
+        <v>121.0055096418733</v>
       </c>
       <c r="E266" t="n">
-        <v>43.20365501347097</v>
+        <v>44.77219664911187</v>
       </c>
     </row>
     <row r="267">
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4.879032258064516</v>
+        <v>4.96010101010101</v>
       </c>
       <c r="D267" t="n">
-        <v>129.2646589521589</v>
+        <v>126.9846735755827</v>
       </c>
       <c r="E267" t="n">
-        <v>48.41512094536289</v>
+        <v>47.73155436034227</v>
       </c>
     </row>
     <row r="268">
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>3.283613445378151</v>
+        <v>3.28654970760234</v>
       </c>
       <c r="D268" t="n">
-        <v>128.2863145258104</v>
+        <v>140.5257672801532</v>
       </c>
       <c r="E268" t="n">
-        <v>45.92837134853941</v>
+        <v>48.03823531893707</v>
       </c>
     </row>
     <row r="269">
@@ -5538,13 +5538,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3.555785123966942</v>
+        <v>3.428719008264463</v>
       </c>
       <c r="D269" t="n">
-        <v>135.2469500196773</v>
+        <v>139.7167886062515</v>
       </c>
       <c r="E269" t="n">
-        <v>56.56729634002362</v>
+        <v>52.71362160566706</v>
       </c>
     </row>
     <row r="270">
@@ -5557,13 +5557,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4.5</v>
+        <v>4.420385395537525</v>
       </c>
       <c r="D270" t="n">
-        <v>128.1518028456804</v>
+        <v>127.7116280158876</v>
       </c>
       <c r="E270" t="n">
-        <v>54.96517654680919</v>
+        <v>44.60206235054104</v>
       </c>
     </row>
     <row r="271">
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4.122699386503068</v>
+        <v>4.097598364844149</v>
       </c>
       <c r="D271" t="n">
-        <v>120.5669756283253</v>
+        <v>127.9538394382543</v>
       </c>
       <c r="E271" t="n">
-        <v>40.59393231172371</v>
+        <v>45.48527467536154</v>
       </c>
     </row>
     <row r="272">
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>5.381526104417671</v>
+        <v>5.092918131592165</v>
       </c>
       <c r="D272" t="n">
-        <v>119.8836471426833</v>
+        <v>126.8289609826524</v>
       </c>
       <c r="E272" t="n">
-        <v>43.60544631628967</v>
+        <v>47.57159939229254</v>
       </c>
     </row>
     <row r="273">
@@ -5614,13 +5614,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>5.313883299798793</v>
+        <v>5.466867469879518</v>
       </c>
       <c r="D273" t="n">
-        <v>124.8048173601493</v>
+        <v>126.7496991518074</v>
       </c>
       <c r="E273" t="n">
-        <v>49.93873776569956</v>
+        <v>46.44689870593486</v>
       </c>
     </row>
     <row r="274">
@@ -5633,13 +5633,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>5.72289156626506</v>
+        <v>5.573581115017579</v>
       </c>
       <c r="D274" t="n">
-        <v>124.6789689560774</v>
+        <v>132.5289142466438</v>
       </c>
       <c r="E274" t="n">
-        <v>47.498725058966</v>
+        <v>48.56353117277277</v>
       </c>
     </row>
     <row r="275">
@@ -5652,13 +5652,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4.866935483870968</v>
+        <v>4.844679778113969</v>
       </c>
       <c r="D275" t="n">
-        <v>142.1602982590887</v>
+        <v>131.1344172161115</v>
       </c>
       <c r="E275" t="n">
-        <v>45.61411930363542</v>
+        <v>46.80871462263294</v>
       </c>
     </row>
     <row r="276">
@@ -5671,13 +5671,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>4.133603238866397</v>
+        <v>4.170918367346939</v>
       </c>
       <c r="D276" t="n">
-        <v>153.8742690058479</v>
+        <v>138.1058085905023</v>
       </c>
       <c r="E276" t="n">
-        <v>48.64886575412891</v>
+        <v>50.19252855987549</v>
       </c>
     </row>
     <row r="277">
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>5.977911646586345</v>
+        <v>5.982965931863728</v>
       </c>
       <c r="D277" t="n">
-        <v>120.6819042573827</v>
+        <v>119.9745737549285</v>
       </c>
       <c r="E277" t="n">
-        <v>48.04158915604697</v>
+        <v>42.68502734184098</v>
       </c>
     </row>
     <row r="278">
@@ -5709,13 +5709,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>3.862139917695473</v>
+        <v>3.72858617131063</v>
       </c>
       <c r="D278" t="n">
-        <v>119.072930955647</v>
+        <v>121.4961609311455</v>
       </c>
       <c r="E278" t="n">
-        <v>43.97331634985954</v>
+        <v>42.01045915442201</v>
       </c>
     </row>
     <row r="279">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4.813008130081301</v>
+        <v>4.73989898989899</v>
       </c>
       <c r="D279" t="n">
-        <v>139.3101309259846</v>
+        <v>127.1462740402133</v>
       </c>
       <c r="E279" t="n">
-        <v>50.78081922594117</v>
+        <v>45.24356675871826</v>
       </c>
     </row>
     <row r="280">
@@ -5747,13 +5747,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4.773092369477912</v>
+        <v>4.857070707070707</v>
       </c>
       <c r="D280" t="n">
-        <v>124.4820552049468</v>
+        <v>122.4703985688834</v>
       </c>
       <c r="E280" t="n">
-        <v>47.90590935169248</v>
+        <v>46.00975483551246</v>
       </c>
     </row>
     <row r="281">
@@ -5766,13 +5766,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3.971134020618557</v>
+        <v>3.796706124549666</v>
       </c>
       <c r="D281" t="n">
-        <v>122.4234986090656</v>
+        <v>121.6780146141958</v>
       </c>
       <c r="E281" t="n">
-        <v>40.78055964653902</v>
+        <v>45.75586391077897</v>
       </c>
     </row>
     <row r="282">
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>5.264529058116232</v>
+        <v>5.318775100401607</v>
       </c>
       <c r="D282" t="n">
-        <v>133.9342465594971</v>
+        <v>124.3375906779519</v>
       </c>
       <c r="E282" t="n">
-        <v>52.8066233477055</v>
+        <v>47.64379696608619</v>
       </c>
     </row>
     <row r="283">
@@ -5804,13 +5804,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>5.203629032258065</v>
+        <v>5.1067472306143</v>
       </c>
       <c r="D283" t="n">
-        <v>137.8734225004386</v>
+        <v>134.4114847891282</v>
       </c>
       <c r="E283" t="n">
-        <v>49.23585039512456</v>
+        <v>46.11877296922615</v>
       </c>
     </row>
     <row r="284">
@@ -5823,13 +5823,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4.911468812877264</v>
+        <v>5.017163048965169</v>
       </c>
       <c r="D284" t="n">
-        <v>123.5947430615439</v>
+        <v>127.8381428431908</v>
       </c>
       <c r="E284" t="n">
-        <v>50.38441326167682</v>
+        <v>41.72156437426504</v>
       </c>
     </row>
     <row r="285">
@@ -5842,13 +5842,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4.002032520325203</v>
+        <v>3.989701338825953</v>
       </c>
       <c r="D285" t="n">
-        <v>128.4722222222222</v>
+        <v>125.9711838110397</v>
       </c>
       <c r="E285" t="n">
-        <v>47.70212285456186</v>
+        <v>44.37155132314761</v>
       </c>
     </row>
     <row r="286">
@@ -5861,13 +5861,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4.419354838709677</v>
+        <v>4.520686175580222</v>
       </c>
       <c r="D286" t="n">
-        <v>137.9879081491984</v>
+        <v>125.64813116024</v>
       </c>
       <c r="E286" t="n">
-        <v>47.51011757060145</v>
+        <v>44.12752288635235</v>
       </c>
     </row>
     <row r="287">
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>5.529058116232465</v>
+        <v>5.469315895372233</v>
       </c>
       <c r="D287" t="n">
-        <v>130.1418132079454</v>
+        <v>132.8564753489301</v>
       </c>
       <c r="E287" t="n">
-        <v>48.72855378867403</v>
+        <v>48.85403691993228</v>
       </c>
     </row>
     <row r="288">
@@ -5899,13 +5899,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3.932377049180328</v>
+        <v>3.78659793814433</v>
       </c>
       <c r="D288" t="n">
-        <v>121.979085349987</v>
+        <v>119.8887624403089</v>
       </c>
       <c r="E288" t="n">
-        <v>43.37025110590683</v>
+        <v>40.51546391752579</v>
       </c>
     </row>
     <row r="289">
@@ -5918,13 +5918,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4.051124744376278</v>
+        <v>4.228222109016811</v>
       </c>
       <c r="D289" t="n">
-        <v>115.5881780114909</v>
+        <v>125.2985792720891</v>
       </c>
       <c r="E289" t="n">
-        <v>53.7248028045574</v>
+        <v>46.31294018711237</v>
       </c>
     </row>
     <row r="290">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3.222689075630252</v>
+        <v>3.17948717948718</v>
       </c>
       <c r="D290" t="n">
-        <v>133.5759303721489</v>
+        <v>124.52077401057</v>
       </c>
       <c r="E290" t="n">
-        <v>56.85274109643858</v>
+        <v>45.33238869973564</v>
       </c>
     </row>
     <row r="291">
@@ -5956,13 +5956,13 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3.144373673036093</v>
+        <v>3.162740899357602</v>
       </c>
       <c r="D291" t="n">
-        <v>124.4439389343848</v>
+        <v>128.3500730770538</v>
       </c>
       <c r="E291" t="n">
-        <v>41.82421730192431</v>
+        <v>48.33643485945414</v>
       </c>
     </row>
     <row r="292">
@@ -5975,13 +5975,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>4.643286573146293</v>
+        <v>4.68989898989899</v>
       </c>
       <c r="D292" t="n">
-        <v>123.203549957057</v>
+        <v>126.2653466062557</v>
       </c>
       <c r="E292" t="n">
-        <v>37.09243884594586</v>
+        <v>42.47166834288046</v>
       </c>
     </row>
     <row r="293">
@@ -5994,13 +5994,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>3.573770491803279</v>
+        <v>3.559278350515464</v>
       </c>
       <c r="D293" t="n">
-        <v>126.8564597970336</v>
+        <v>119.1582801505482</v>
       </c>
       <c r="E293" t="n">
-        <v>36.58274785323966</v>
+        <v>43.25744558991983</v>
       </c>
     </row>
     <row r="294">
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3.871690427698574</v>
+        <v>3.923829130211014</v>
       </c>
       <c r="D294" t="n">
-        <v>110.1178353215013</v>
+        <v>112.1084568202427</v>
       </c>
       <c r="E294" t="n">
-        <v>39.82963178482527</v>
+        <v>40.69394035940615</v>
       </c>
     </row>
     <row r="295">
@@ -6032,13 +6032,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4.709090909090909</v>
+        <v>4.742424242424242</v>
       </c>
       <c r="D295" t="n">
-        <v>137.530522227492</v>
+        <v>125.278781964388</v>
       </c>
       <c r="E295" t="n">
-        <v>55.30091681606832</v>
+        <v>44.0690363228242</v>
       </c>
     </row>
     <row r="296">
@@ -6051,13 +6051,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3.904471544715447</v>
+        <v>3.944958847736626</v>
       </c>
       <c r="D296" t="n">
-        <v>122.4072900902169</v>
+        <v>112.6639706886621</v>
       </c>
       <c r="E296" t="n">
-        <v>43.3427627025188</v>
+        <v>40.80589477966021</v>
       </c>
     </row>
     <row r="297">
@@ -6070,13 +6070,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3.853002070393375</v>
+        <v>3.728395061728395</v>
       </c>
       <c r="D297" t="n">
-        <v>130.2556771500871</v>
+        <v>124.4590600300477</v>
       </c>
       <c r="E297" t="n">
-        <v>38.15932169969437</v>
+        <v>45.96009700176363</v>
       </c>
     </row>
     <row r="298">
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3.498969072164948</v>
+        <v>3.690265486725664</v>
       </c>
       <c r="D298" t="n">
-        <v>158.8708885616102</v>
+        <v>134.7347386259412</v>
       </c>
       <c r="E298" t="n">
-        <v>48.69170348551792</v>
+        <v>48.92665030614013</v>
       </c>
     </row>
     <row r="299">
@@ -6108,13 +6108,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>5.3</v>
+        <v>5.116431451612903</v>
       </c>
       <c r="D299" t="n">
-        <v>126.6382617382617</v>
+        <v>119.4499217180669</v>
       </c>
       <c r="E299" t="n">
-        <v>47.44062049062048</v>
+        <v>44.17308721744204</v>
       </c>
     </row>
     <row r="300">
@@ -6127,13 +6127,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3.356993736951983</v>
+        <v>3.392875851231011</v>
       </c>
       <c r="D300" t="n">
-        <v>115.1837492129768</v>
+        <v>132.6671073528067</v>
       </c>
       <c r="E300" t="n">
-        <v>47.07227358584353</v>
+        <v>46.03174603174602</v>
       </c>
     </row>
     <row r="301">
@@ -6146,13 +6146,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3.770491803278689</v>
+        <v>3.769349845201238</v>
       </c>
       <c r="D301" t="n">
-        <v>116.8545081967213</v>
+        <v>126.2977891847862</v>
       </c>
       <c r="E301" t="n">
-        <v>45.9504293520687</v>
+        <v>44.1170327780235</v>
       </c>
     </row>
     <row r="302">
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>4.907815631262525</v>
+        <v>4.732088799192734</v>
       </c>
       <c r="D302" t="n">
-        <v>123.0456584163999</v>
+        <v>125.4918965438642</v>
       </c>
       <c r="E302" t="n">
-        <v>46.68875991521282</v>
+        <v>44.96649499172204</v>
       </c>
     </row>
     <row r="303">
@@ -6184,13 +6184,13 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3.390396659707724</v>
+        <v>3.470067673086934</v>
       </c>
       <c r="D303" t="n">
-        <v>137.4937866587137</v>
+        <v>118.8391875924412</v>
       </c>
       <c r="E303" t="n">
-        <v>49.6048314941843</v>
+        <v>46.14598051610022</v>
       </c>
     </row>
     <row r="304">
@@ -6203,13 +6203,13 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3.462012320328542</v>
+        <v>3.501304121022431</v>
       </c>
       <c r="D304" t="n">
-        <v>113.6770313875037</v>
+        <v>129.8579543102236</v>
       </c>
       <c r="E304" t="n">
-        <v>50.74801994719858</v>
+        <v>45.61215026786231</v>
       </c>
     </row>
     <row r="305">
@@ -6222,13 +6222,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3.482328482328482</v>
+        <v>3.487338501291989</v>
       </c>
       <c r="D305" t="n">
-        <v>134.3018843018843</v>
+        <v>129.8117386489481</v>
       </c>
       <c r="E305" t="n">
-        <v>44.51291951291951</v>
+        <v>45.56129773184036</v>
       </c>
     </row>
     <row r="306">
@@ -6241,13 +6241,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>5.832661290322581</v>
+        <v>5.670346211741093</v>
       </c>
       <c r="D306" t="n">
-        <v>119.8732802815464</v>
+        <v>132.8167839018313</v>
       </c>
       <c r="E306" t="n">
-        <v>45.40300089695249</v>
+        <v>47.30551546908801</v>
       </c>
     </row>
     <row r="307">
@@ -6260,13 +6260,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>4.264765784114053</v>
+        <v>4.171660741493144</v>
       </c>
       <c r="D307" t="n">
-        <v>140.2563605211263</v>
+        <v>124.1917286483057</v>
       </c>
       <c r="E307" t="n">
-        <v>48.26156531859179</v>
+        <v>46.92394818093144</v>
       </c>
     </row>
     <row r="308">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4.451612903225806</v>
+        <v>4.592723597776655</v>
       </c>
       <c r="D308" t="n">
-        <v>124.2490428478332</v>
+        <v>126.8577458698731</v>
       </c>
       <c r="E308" t="n">
-        <v>44.03721838197644</v>
+        <v>43.51571734088157</v>
       </c>
     </row>
     <row r="309">
@@ -6298,13 +6298,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>4.427125506072874</v>
+        <v>4.495175215845607</v>
       </c>
       <c r="D309" t="n">
-        <v>149.1044043675623</v>
+        <v>119.0327603100584</v>
       </c>
       <c r="E309" t="n">
-        <v>54.98521945890364</v>
+        <v>41.52361238445545</v>
       </c>
     </row>
     <row r="310">
@@ -6317,13 +6317,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>7.026</v>
+        <v>7.100200400801604</v>
       </c>
       <c r="D310" t="n">
-        <v>161.6638572212101</v>
+        <v>160.0305620610939</v>
       </c>
       <c r="E310" t="n">
-        <v>65.16921493539134</v>
+        <v>54.30963025932374</v>
       </c>
     </row>
     <row r="311">
@@ -6336,13 +6336,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4.277551020408163</v>
+        <v>4.338071065989848</v>
       </c>
       <c r="D311" t="n">
-        <v>138.9415289925494</v>
+        <v>127.0828480600054</v>
       </c>
       <c r="E311" t="n">
-        <v>47.6781665046971</v>
+        <v>46.40077350737249</v>
       </c>
     </row>
     <row r="312">
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3.777319587628866</v>
+        <v>3.695381421899326</v>
       </c>
       <c r="D312" t="n">
-        <v>144.9526189732375</v>
+        <v>127.0925580214631</v>
       </c>
       <c r="E312" t="n">
-        <v>46.6527573228604</v>
+        <v>49.32827796086747</v>
       </c>
     </row>
     <row r="313">
@@ -6374,13 +6374,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>5.883299798792756</v>
+        <v>5.74749498997996</v>
       </c>
       <c r="D313" t="n">
-        <v>131.2739350968727</v>
+        <v>122.8392182299996</v>
       </c>
       <c r="E313" t="n">
-        <v>48.64134300754019</v>
+        <v>45.45980350088565</v>
       </c>
     </row>
     <row r="314">
@@ -6393,13 +6393,13 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4.189409368635438</v>
+        <v>4.148298628745557</v>
       </c>
       <c r="D314" t="n">
-        <v>126.6253603829979</v>
+        <v>143.6373146632162</v>
       </c>
       <c r="E314" t="n">
-        <v>41.56240907768401</v>
+        <v>52.58729476606575</v>
       </c>
     </row>
     <row r="315">
@@ -6412,13 +6412,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3.923553719008265</v>
+        <v>3.830612244897959</v>
       </c>
       <c r="D315" t="n">
-        <v>124.962434259955</v>
+        <v>122.9195011337869</v>
       </c>
       <c r="E315" t="n">
-        <v>44.14280049610625</v>
+        <v>42.82272432782636</v>
       </c>
     </row>
     <row r="316">
@@ -6431,13 +6431,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>4.340080971659919</v>
+        <v>4.30761369443025</v>
       </c>
       <c r="D316" t="n">
-        <v>135.0141086983193</v>
+        <v>129.0256938315191</v>
       </c>
       <c r="E316" t="n">
-        <v>46.19262316630738</v>
+        <v>47.40473572870098</v>
       </c>
     </row>
     <row r="317">
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>4.674089068825911</v>
+        <v>4.712121212121212</v>
       </c>
       <c r="D317" t="n">
-        <v>110.8612878349721</v>
+        <v>129.6742679318436</v>
       </c>
       <c r="E317" t="n">
-        <v>44.50790437632538</v>
+        <v>46.13862288104712</v>
       </c>
     </row>
     <row r="318">
@@ -6469,13 +6469,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>5.190283400809717</v>
+        <v>5.133434038267875</v>
       </c>
       <c r="D318" t="n">
-        <v>124.6421201380716</v>
+        <v>132.4007409732485</v>
       </c>
       <c r="E318" t="n">
-        <v>45.00932603159323</v>
+        <v>49.06381103511018</v>
       </c>
     </row>
     <row r="319">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>5.413654618473895</v>
+        <v>5.519839276745354</v>
       </c>
       <c r="D319" t="n">
-        <v>124.1599152743731</v>
+        <v>134.183681433807</v>
       </c>
       <c r="E319" t="n">
-        <v>43.91396755854586</v>
+        <v>47.99326601184963</v>
       </c>
     </row>
     <row r="320">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3.705394190871369</v>
+        <v>3.719461697722567</v>
       </c>
       <c r="D320" t="n">
-        <v>105.5464993743002</v>
+        <v>131.5749740827381</v>
       </c>
       <c r="E320" t="n">
-        <v>27.45257854179017</v>
+        <v>44.3272005772006</v>
       </c>
     </row>
     <row r="321">
@@ -6526,13 +6526,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3.607068607068607</v>
+        <v>3.520908621579763</v>
       </c>
       <c r="D321" t="n">
-        <v>113.3460383460384</v>
+        <v>120.9434487957978</v>
       </c>
       <c r="E321" t="n">
-        <v>42.17651717651718</v>
+        <v>42.1407265366997</v>
       </c>
     </row>
     <row r="322">
@@ -6545,13 +6545,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3.680327868852459</v>
+        <v>3.747907949790795</v>
       </c>
       <c r="D322" t="n">
-        <v>105.0928636481916</v>
+        <v>140.2867399337064</v>
       </c>
       <c r="E322" t="n">
-        <v>43.31983476450689</v>
+        <v>50.08511217977746</v>
       </c>
     </row>
     <row r="323">
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>5.275100401606426</v>
+        <v>5.332157258064516</v>
       </c>
       <c r="D323" t="n">
-        <v>123.0771571133016</v>
+        <v>120.5804444211702</v>
       </c>
       <c r="E323" t="n">
-        <v>40.64461308437211</v>
+        <v>44.99613429804964</v>
       </c>
     </row>
     <row r="324">
@@ -6583,13 +6583,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>5.014112903225806</v>
+        <v>5.115461847389558</v>
       </c>
       <c r="D324" t="n">
-        <v>122.0871198693779</v>
+        <v>130.9366796189084</v>
       </c>
       <c r="E324" t="n">
-        <v>41.75677593016302</v>
+        <v>44.57981637951517</v>
       </c>
     </row>
     <row r="325">
@@ -6602,13 +6602,13 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4.008196721311475</v>
+        <v>4.074489795918368</v>
       </c>
       <c r="D325" t="n">
-        <v>116.1722612542285</v>
+        <v>128.2146594901697</v>
       </c>
       <c r="E325" t="n">
-        <v>47.26450689565444</v>
+        <v>44.7645367670878</v>
       </c>
     </row>
     <row r="326">
@@ -6621,13 +6621,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3.79002079002079</v>
+        <v>3.87302396736359</v>
       </c>
       <c r="D326" t="n">
-        <v>107.1007821007821</v>
+        <v>120.9811747547597</v>
       </c>
       <c r="E326" t="n">
-        <v>50.4991254991255</v>
+        <v>42.41498911310232</v>
       </c>
     </row>
     <row r="327">
@@ -6640,13 +6640,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3.542094455852156</v>
+        <v>3.649330587023687</v>
       </c>
       <c r="D327" t="n">
-        <v>121.0028563724662</v>
+        <v>133.9455501015749</v>
       </c>
       <c r="E327" t="n">
-        <v>48.80063468359157</v>
+        <v>52.92531018586632</v>
       </c>
     </row>
     <row r="328">
@@ -6659,13 +6659,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3.53688524590164</v>
+        <v>3.55981356809943</v>
       </c>
       <c r="D328" t="n">
-        <v>109.1034022898777</v>
+        <v>124.887795615398</v>
       </c>
       <c r="E328" t="n">
-        <v>39.45241347905282</v>
+        <v>50.35716340739645</v>
       </c>
     </row>
     <row r="329">
@@ -6678,13 +6678,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3.534591194968554</v>
+        <v>3.489096573208723</v>
       </c>
       <c r="D329" t="n">
-        <v>128.1255199494193</v>
+        <v>129.5268176498706</v>
       </c>
       <c r="E329" t="n">
-        <v>41.72406908255965</v>
+        <v>42.79100529100531</v>
       </c>
     </row>
     <row r="330">
@@ -6697,13 +6697,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>4.780241935483871</v>
+        <v>4.804766734279919</v>
       </c>
       <c r="D330" t="n">
-        <v>138.8396885372692</v>
+        <v>128.7577548099859</v>
       </c>
       <c r="E330" t="n">
-        <v>49.33103410925992</v>
+        <v>47.80804472741591</v>
       </c>
     </row>
     <row r="331">
@@ -6716,13 +6716,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>44.428</v>
+        <v>44.74</v>
       </c>
       <c r="D331" t="n">
-        <v>133.4340591821768</v>
+        <v>132.1718047735096</v>
       </c>
       <c r="E331" t="n">
-        <v>49.63240100344409</v>
+        <v>47.9639961963991</v>
       </c>
     </row>
     <row r="332">
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>25.72</v>
+        <v>25.544</v>
       </c>
       <c r="D332" t="n">
-        <v>137.0269482952357</v>
+        <v>131.1881861025503</v>
       </c>
       <c r="E332" t="n">
-        <v>46.56956868284902</v>
+        <v>47.11132811917282</v>
       </c>
     </row>
     <row r="333">
@@ -6754,13 +6754,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>29.03</v>
+        <v>29.2815</v>
       </c>
       <c r="D333" t="n">
-        <v>142.1294403181437</v>
+        <v>130.6513224878419</v>
       </c>
       <c r="E333" t="n">
-        <v>49.42443259072146</v>
+        <v>46.05002325977828</v>
       </c>
     </row>
     <row r="334">
@@ -6773,13 +6773,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>21.812</v>
+        <v>21.643</v>
       </c>
       <c r="D334" t="n">
-        <v>126.848424457324</v>
+        <v>131.1382156959912</v>
       </c>
       <c r="E334" t="n">
-        <v>45.03872338187527</v>
+        <v>47.13822686447543</v>
       </c>
     </row>
     <row r="335">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>10.84</v>
+        <v>11.0445</v>
       </c>
       <c r="D335" t="n">
-        <v>137.610136303325</v>
+        <v>129.1794793018818</v>
       </c>
       <c r="E335" t="n">
-        <v>49.76592190059678</v>
+        <v>47.09857037097745</v>
       </c>
     </row>
     <row r="336">
@@ -6811,13 +6811,13 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>14.088</v>
+        <v>14.155</v>
       </c>
       <c r="D336" t="n">
-        <v>141.0304536981243</v>
+        <v>132.496157185707</v>
       </c>
       <c r="E336" t="n">
-        <v>48.27147156600442</v>
+        <v>47.35676679015386</v>
       </c>
     </row>
     <row r="337">
@@ -6830,13 +6830,13 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>7.302</v>
+        <v>7.285</v>
       </c>
       <c r="D337" t="n">
-        <v>143.2040975364504</v>
+        <v>128.6367433220373</v>
       </c>
       <c r="E337" t="n">
-        <v>49.87245336362984</v>
+        <v>44.40719231748642</v>
       </c>
     </row>
     <row r="338">
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>9.683999999999999</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="D338" t="n">
-        <v>134.8675140219257</v>
+        <v>134.451112743895</v>
       </c>
       <c r="E338" t="n">
-        <v>45.65367818456053</v>
+        <v>49.41909601836061</v>
       </c>
     </row>
     <row r="339">
@@ -6868,13 +6868,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>13.848</v>
+        <v>13.5335</v>
       </c>
       <c r="D339" t="n">
-        <v>124.0724070589226</v>
+        <v>133.9624146333592</v>
       </c>
       <c r="E339" t="n">
-        <v>48.40414093989947</v>
+        <v>48.03118633941667</v>
       </c>
     </row>
     <row r="340">
@@ -6887,13 +6887,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>16.698</v>
+        <v>16.2545</v>
       </c>
       <c r="D340" t="n">
-        <v>128.0864156533816</v>
+        <v>134.8055440971726</v>
       </c>
       <c r="E340" t="n">
-        <v>47.94023418950188</v>
+        <v>47.7081473634873</v>
       </c>
     </row>
     <row r="341">
@@ -6906,13 +6906,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2.744343891402715</v>
+        <v>2.744513224535734</v>
       </c>
       <c r="D341" t="n">
-        <v>109.4448035624506</v>
+        <v>123.1302087520434</v>
       </c>
       <c r="E341" t="n">
-        <v>35.80945198592258</v>
+        <v>43.18206179489241</v>
       </c>
     </row>
     <row r="342">
@@ -6925,13 +6925,13 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2.19559902200489</v>
+        <v>2.279975278121137</v>
       </c>
       <c r="D342" t="n">
-        <v>89.75433694260099</v>
+        <v>127.5957972805934</v>
       </c>
       <c r="E342" t="n">
-        <v>47.08930026778438</v>
+        <v>43.68562010712814</v>
       </c>
     </row>
     <row r="343">
@@ -6944,13 +6944,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2.951965065502184</v>
+        <v>2.856531049250535</v>
       </c>
       <c r="D343" t="n">
-        <v>154.0964857558745</v>
+        <v>134.1146629958194</v>
       </c>
       <c r="E343" t="n">
-        <v>50.857766687461</v>
+        <v>47.64199041500967</v>
       </c>
     </row>
     <row r="344">
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3.219873150105708</v>
+        <v>3.191160809371672</v>
       </c>
       <c r="D344" t="n">
-        <v>135.2184637068358</v>
+        <v>128.7558953293778</v>
       </c>
       <c r="E344" t="n">
-        <v>52.788684184033</v>
+        <v>41.54326622377741</v>
       </c>
     </row>
   </sheetData>
